--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>EXETF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>38717</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>843100</v>
+        <v>822600</v>
       </c>
       <c r="E8" s="3">
-        <v>826100</v>
+        <v>813900</v>
       </c>
       <c r="F8" s="3">
-        <v>798500</v>
+        <v>797400</v>
       </c>
       <c r="G8" s="3">
-        <v>710100</v>
+        <v>770800</v>
       </c>
       <c r="H8" s="3">
-        <v>614400</v>
+        <v>685500</v>
       </c>
       <c r="I8" s="3">
-        <v>590000</v>
+        <v>593100</v>
       </c>
       <c r="J8" s="3">
+        <v>569600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1533700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1507900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>747300</v>
+        <v>690000</v>
       </c>
       <c r="E9" s="3">
-        <v>728900</v>
+        <v>716500</v>
       </c>
       <c r="F9" s="3">
-        <v>705600</v>
+        <v>703600</v>
       </c>
       <c r="G9" s="3">
-        <v>624400</v>
+        <v>681100</v>
       </c>
       <c r="H9" s="3">
-        <v>536900</v>
+        <v>602700</v>
       </c>
       <c r="I9" s="3">
-        <v>514100</v>
+        <v>518200</v>
       </c>
       <c r="J9" s="3">
+        <v>496200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1348300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1278800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>95800</v>
+        <v>132500</v>
       </c>
       <c r="E10" s="3">
-        <v>97200</v>
+        <v>97400</v>
       </c>
       <c r="F10" s="3">
-        <v>93000</v>
+        <v>93800</v>
       </c>
       <c r="G10" s="3">
-        <v>85700</v>
+        <v>89700</v>
       </c>
       <c r="H10" s="3">
-        <v>77500</v>
+        <v>82700</v>
       </c>
       <c r="I10" s="3">
-        <v>76000</v>
+        <v>74800</v>
       </c>
       <c r="J10" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K10" s="3">
         <v>185500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>229200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15200</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="F14" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>5000</v>
+        <v>2900</v>
       </c>
       <c r="H14" s="3">
-        <v>10800</v>
+        <v>4900</v>
       </c>
       <c r="I14" s="3">
-        <v>1500</v>
+        <v>10400</v>
       </c>
       <c r="J14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26600</v>
+        <v>28800</v>
       </c>
       <c r="E15" s="3">
-        <v>23600</v>
+        <v>25600</v>
       </c>
       <c r="F15" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="G15" s="3">
-        <v>17800</v>
+        <v>22700</v>
       </c>
       <c r="H15" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="I15" s="3">
-        <v>16300</v>
+        <v>17300</v>
       </c>
       <c r="J15" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K15" s="3">
         <v>57800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>51200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>813900</v>
+        <v>786900</v>
       </c>
       <c r="E17" s="3">
-        <v>776200</v>
+        <v>785700</v>
       </c>
       <c r="F17" s="3">
-        <v>755100</v>
+        <v>749300</v>
       </c>
       <c r="G17" s="3">
-        <v>670000</v>
+        <v>728900</v>
       </c>
       <c r="H17" s="3">
-        <v>578600</v>
+        <v>646700</v>
       </c>
       <c r="I17" s="3">
-        <v>555500</v>
+        <v>558500</v>
       </c>
       <c r="J17" s="3">
+        <v>536200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1459600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1394400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29200</v>
+        <v>35700</v>
       </c>
       <c r="E18" s="3">
-        <v>49800</v>
+        <v>28200</v>
       </c>
       <c r="F18" s="3">
-        <v>43500</v>
+        <v>48100</v>
       </c>
       <c r="G18" s="3">
-        <v>40100</v>
+        <v>42000</v>
       </c>
       <c r="H18" s="3">
-        <v>35800</v>
+        <v>38700</v>
       </c>
       <c r="I18" s="3">
         <v>34600</v>
       </c>
       <c r="J18" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K18" s="3">
         <v>74200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>6100</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>11500</v>
+        <v>5900</v>
       </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>11100</v>
       </c>
       <c r="I20" s="3">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="J20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>56600</v>
+        <v>67300</v>
       </c>
       <c r="E21" s="3">
-        <v>76800</v>
+        <v>54600</v>
       </c>
       <c r="F21" s="3">
-        <v>74000</v>
+        <v>74200</v>
       </c>
       <c r="G21" s="3">
-        <v>72200</v>
+        <v>71400</v>
       </c>
       <c r="H21" s="3">
-        <v>88600</v>
+        <v>69700</v>
       </c>
       <c r="I21" s="3">
-        <v>96900</v>
+        <v>85500</v>
       </c>
       <c r="J21" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K21" s="3">
         <v>135800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="E22" s="3">
-        <v>21100</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="3">
         <v>20400</v>
       </c>
       <c r="G22" s="3">
-        <v>23400</v>
+        <v>19600</v>
       </c>
       <c r="H22" s="3">
-        <v>24800</v>
+        <v>22600</v>
       </c>
       <c r="I22" s="3">
-        <v>26000</v>
+        <v>23900</v>
       </c>
       <c r="J22" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K22" s="3">
         <v>49200</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9300</v>
+        <v>17600</v>
       </c>
       <c r="E23" s="3">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="3">
-        <v>29200</v>
+        <v>30900</v>
       </c>
       <c r="G23" s="3">
-        <v>28300</v>
+        <v>28200</v>
       </c>
       <c r="H23" s="3">
-        <v>12500</v>
+        <v>27300</v>
       </c>
       <c r="I23" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="J23" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K23" s="3">
         <v>28800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
-        <v>8200</v>
+        <v>3100</v>
       </c>
       <c r="F24" s="3">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="G24" s="3">
-        <v>10400</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>4200</v>
+        <v>10100</v>
       </c>
       <c r="I24" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="J24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6100</v>
+        <v>12400</v>
       </c>
       <c r="E26" s="3">
-        <v>23900</v>
+        <v>5900</v>
       </c>
       <c r="F26" s="3">
-        <v>23700</v>
+        <v>23000</v>
       </c>
       <c r="G26" s="3">
-        <v>17800</v>
+        <v>22800</v>
       </c>
       <c r="H26" s="3">
-        <v>8300</v>
+        <v>17200</v>
       </c>
       <c r="I26" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K26" s="3">
         <v>20800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6100</v>
+        <v>12400</v>
       </c>
       <c r="E27" s="3">
-        <v>23900</v>
+        <v>5900</v>
       </c>
       <c r="F27" s="3">
-        <v>23700</v>
+        <v>23000</v>
       </c>
       <c r="G27" s="3">
-        <v>17800</v>
+        <v>22800</v>
       </c>
       <c r="H27" s="3">
-        <v>8300</v>
+        <v>17200</v>
       </c>
       <c r="I27" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K27" s="3">
         <v>20800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>17800</v>
+        <v>8400</v>
       </c>
       <c r="E29" s="3">
-        <v>-22300</v>
+        <v>17200</v>
       </c>
       <c r="F29" s="3">
-        <v>3000</v>
+        <v>-21500</v>
       </c>
       <c r="G29" s="3">
-        <v>156900</v>
+        <v>2900</v>
       </c>
       <c r="H29" s="3">
-        <v>-22400</v>
+        <v>151400</v>
       </c>
       <c r="I29" s="3">
-        <v>-3700</v>
+        <v>-21700</v>
       </c>
       <c r="J29" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K29" s="3">
         <v>26400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
-        <v>-6100</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11500</v>
+        <v>-5900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-11100</v>
       </c>
       <c r="I32" s="3">
-        <v>-3600</v>
+        <v>-1400</v>
       </c>
       <c r="J32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23900</v>
+        <v>20800</v>
       </c>
       <c r="E33" s="3">
-        <v>1600</v>
+        <v>23100</v>
       </c>
       <c r="F33" s="3">
-        <v>26700</v>
+        <v>1500</v>
       </c>
       <c r="G33" s="3">
-        <v>174700</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
-        <v>-14100</v>
+        <v>168600</v>
       </c>
       <c r="I33" s="3">
-        <v>4000</v>
+        <v>-13600</v>
       </c>
       <c r="J33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K33" s="3">
         <v>47200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23900</v>
+        <v>20800</v>
       </c>
       <c r="E35" s="3">
-        <v>1600</v>
+        <v>23100</v>
       </c>
       <c r="F35" s="3">
-        <v>26700</v>
+        <v>1500</v>
       </c>
       <c r="G35" s="3">
-        <v>174700</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
-        <v>-14100</v>
+        <v>168600</v>
       </c>
       <c r="I35" s="3">
-        <v>4000</v>
+        <v>-13600</v>
       </c>
       <c r="J35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K35" s="3">
         <v>47200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>38717</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49600</v>
+        <v>68600</v>
       </c>
       <c r="E41" s="3">
-        <v>96500</v>
+        <v>47900</v>
       </c>
       <c r="F41" s="3">
-        <v>76500</v>
+        <v>93100</v>
       </c>
       <c r="G41" s="3">
-        <v>78000</v>
+        <v>73800</v>
       </c>
       <c r="H41" s="3">
-        <v>26700</v>
+        <v>75300</v>
       </c>
       <c r="I41" s="3">
-        <v>72300</v>
+        <v>25800</v>
       </c>
       <c r="J41" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K41" s="3">
         <v>53700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1617,41 +1706,47 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51100</v>
+        <v>48200</v>
       </c>
       <c r="E43" s="3">
-        <v>37400</v>
+        <v>49300</v>
       </c>
       <c r="F43" s="3">
-        <v>41600</v>
+        <v>36100</v>
       </c>
       <c r="G43" s="3">
-        <v>39700</v>
+        <v>40200</v>
       </c>
       <c r="H43" s="3">
-        <v>61800</v>
+        <v>38300</v>
       </c>
       <c r="I43" s="3">
-        <v>324400</v>
+        <v>59700</v>
       </c>
       <c r="J43" s="3">
+        <v>313000</v>
+      </c>
+      <c r="K43" s="3">
         <v>160800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>140100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,159 +1774,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
         <v>17300</v>
       </c>
       <c r="F45" s="3">
-        <v>20700</v>
+        <v>16700</v>
       </c>
       <c r="G45" s="3">
-        <v>41400</v>
+        <v>20000</v>
       </c>
       <c r="H45" s="3">
-        <v>953100</v>
+        <v>39900</v>
       </c>
       <c r="I45" s="3">
-        <v>60600</v>
+        <v>919500</v>
       </c>
       <c r="J45" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K45" s="3">
         <v>45200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118600</v>
+        <v>133600</v>
       </c>
       <c r="E46" s="3">
-        <v>151100</v>
+        <v>114400</v>
       </c>
       <c r="F46" s="3">
-        <v>138800</v>
+        <v>145800</v>
       </c>
       <c r="G46" s="3">
-        <v>159100</v>
+        <v>133900</v>
       </c>
       <c r="H46" s="3">
-        <v>1010700</v>
+        <v>153500</v>
       </c>
       <c r="I46" s="3">
-        <v>298700</v>
+        <v>975100</v>
       </c>
       <c r="J46" s="3">
+        <v>288100</v>
+      </c>
+      <c r="K46" s="3">
         <v>259800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>210600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>132800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>387600</v>
+        <v>385300</v>
       </c>
       <c r="E48" s="3">
-        <v>361300</v>
+        <v>373900</v>
       </c>
       <c r="F48" s="3">
-        <v>350400</v>
+        <v>348600</v>
       </c>
       <c r="G48" s="3">
-        <v>320800</v>
+        <v>338000</v>
       </c>
       <c r="H48" s="3">
-        <v>112100</v>
+        <v>309500</v>
       </c>
       <c r="I48" s="3">
-        <v>563800</v>
+        <v>108200</v>
       </c>
       <c r="J48" s="3">
+        <v>543900</v>
+      </c>
+      <c r="K48" s="3">
         <v>889500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>853600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71700</v>
+        <v>65300</v>
       </c>
       <c r="E49" s="3">
-        <v>72200</v>
+        <v>69100</v>
       </c>
       <c r="F49" s="3">
-        <v>67600</v>
+        <v>69700</v>
       </c>
       <c r="G49" s="3">
-        <v>72500</v>
+        <v>65200</v>
       </c>
       <c r="H49" s="3">
-        <v>24400</v>
+        <v>70000</v>
       </c>
       <c r="I49" s="3">
-        <v>119300</v>
+        <v>23600</v>
       </c>
       <c r="J49" s="3">
+        <v>115100</v>
+      </c>
+      <c r="K49" s="3">
         <v>62300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96900</v>
+        <v>61400</v>
       </c>
       <c r="E52" s="3">
-        <v>118700</v>
+        <v>93500</v>
       </c>
       <c r="F52" s="3">
-        <v>187500</v>
+        <v>114500</v>
       </c>
       <c r="G52" s="3">
-        <v>220600</v>
+        <v>180900</v>
       </c>
       <c r="H52" s="3">
-        <v>169600</v>
+        <v>212800</v>
       </c>
       <c r="I52" s="3">
-        <v>166400</v>
+        <v>163600</v>
       </c>
       <c r="J52" s="3">
+        <v>160600</v>
+      </c>
+      <c r="K52" s="3">
         <v>16500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>674700</v>
+        <v>645500</v>
       </c>
       <c r="E54" s="3">
-        <v>703300</v>
+        <v>651000</v>
       </c>
       <c r="F54" s="3">
-        <v>744200</v>
+        <v>678500</v>
       </c>
       <c r="G54" s="3">
-        <v>773100</v>
+        <v>718000</v>
       </c>
       <c r="H54" s="3">
-        <v>1441800</v>
+        <v>745800</v>
       </c>
       <c r="I54" s="3">
-        <v>1392000</v>
+        <v>1391000</v>
       </c>
       <c r="J54" s="3">
+        <v>1342900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1361000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1306300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100600</v>
+        <v>99400</v>
       </c>
       <c r="E57" s="3">
-        <v>92900</v>
+        <v>97100</v>
       </c>
       <c r="F57" s="3">
-        <v>91700</v>
+        <v>89600</v>
       </c>
       <c r="G57" s="3">
-        <v>105200</v>
+        <v>88500</v>
       </c>
       <c r="H57" s="3">
-        <v>85700</v>
+        <v>101500</v>
       </c>
       <c r="I57" s="3">
-        <v>23400</v>
+        <v>82700</v>
       </c>
       <c r="J57" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K57" s="3">
         <v>26700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56200</v>
+        <v>97200</v>
       </c>
       <c r="E58" s="3">
-        <v>44900</v>
+        <v>54200</v>
       </c>
       <c r="F58" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="G58" s="3">
-        <v>19100</v>
+        <v>39800</v>
       </c>
       <c r="H58" s="3">
-        <v>14200</v>
+        <v>18400</v>
       </c>
       <c r="I58" s="3">
-        <v>111500</v>
+        <v>13700</v>
       </c>
       <c r="J58" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K58" s="3">
         <v>70300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14100</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
-        <v>25200</v>
+        <v>13600</v>
       </c>
       <c r="F59" s="3">
-        <v>24000</v>
+        <v>24300</v>
       </c>
       <c r="G59" s="3">
-        <v>39800</v>
+        <v>23100</v>
       </c>
       <c r="H59" s="3">
-        <v>957300</v>
+        <v>38400</v>
       </c>
       <c r="I59" s="3">
-        <v>191000</v>
+        <v>923600</v>
       </c>
       <c r="J59" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K59" s="3">
         <v>176300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>175700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>170900</v>
+        <v>200400</v>
       </c>
       <c r="E60" s="3">
-        <v>163000</v>
+        <v>164800</v>
       </c>
       <c r="F60" s="3">
-        <v>157000</v>
+        <v>157300</v>
       </c>
       <c r="G60" s="3">
-        <v>164100</v>
+        <v>151400</v>
       </c>
       <c r="H60" s="3">
-        <v>975300</v>
+        <v>158300</v>
       </c>
       <c r="I60" s="3">
-        <v>325800</v>
+        <v>940900</v>
       </c>
       <c r="J60" s="3">
+        <v>314300</v>
+      </c>
+      <c r="K60" s="3">
         <v>273400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>233500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>342000</v>
+        <v>306900</v>
       </c>
       <c r="E61" s="3">
-        <v>358600</v>
+        <v>330000</v>
       </c>
       <c r="F61" s="3">
-        <v>337800</v>
+        <v>346000</v>
       </c>
       <c r="G61" s="3">
-        <v>322700</v>
+        <v>325900</v>
       </c>
       <c r="H61" s="3">
-        <v>341200</v>
+        <v>311300</v>
       </c>
       <c r="I61" s="3">
-        <v>766700</v>
+        <v>329100</v>
       </c>
       <c r="J61" s="3">
+        <v>739700</v>
+      </c>
+      <c r="K61" s="3">
         <v>783300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>595600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67000</v>
+        <v>54500</v>
       </c>
       <c r="E62" s="3">
-        <v>84600</v>
+        <v>64600</v>
       </c>
       <c r="F62" s="3">
-        <v>117900</v>
+        <v>81600</v>
       </c>
       <c r="G62" s="3">
-        <v>156700</v>
+        <v>113700</v>
       </c>
       <c r="H62" s="3">
-        <v>127300</v>
+        <v>151200</v>
       </c>
       <c r="I62" s="3">
-        <v>337000</v>
+        <v>122800</v>
       </c>
       <c r="J62" s="3">
+        <v>325200</v>
+      </c>
+      <c r="K62" s="3">
         <v>263200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>103500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>579900</v>
+        <v>561700</v>
       </c>
       <c r="E66" s="3">
-        <v>606200</v>
+        <v>559500</v>
       </c>
       <c r="F66" s="3">
-        <v>612700</v>
+        <v>584900</v>
       </c>
       <c r="G66" s="3">
-        <v>643500</v>
+        <v>591100</v>
       </c>
       <c r="H66" s="3">
-        <v>1443700</v>
+        <v>620800</v>
       </c>
       <c r="I66" s="3">
-        <v>1363800</v>
+        <v>1392800</v>
       </c>
       <c r="J66" s="3">
+        <v>1315800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1319800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>932600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-277100</v>
+        <v>-277600</v>
       </c>
       <c r="E72" s="3">
-        <v>-274800</v>
+        <v>-267400</v>
       </c>
       <c r="F72" s="3">
-        <v>-242400</v>
+        <v>-265100</v>
       </c>
       <c r="G72" s="3">
-        <v>-237200</v>
+        <v>-233900</v>
       </c>
       <c r="H72" s="3">
-        <v>-378800</v>
+        <v>-228800</v>
       </c>
       <c r="I72" s="3">
-        <v>-332900</v>
+        <v>-365400</v>
       </c>
       <c r="J72" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-297400</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94800</v>
+        <v>83800</v>
       </c>
       <c r="E76" s="3">
-        <v>97100</v>
+        <v>91500</v>
       </c>
       <c r="F76" s="3">
-        <v>131600</v>
+        <v>93700</v>
       </c>
       <c r="G76" s="3">
-        <v>129600</v>
+        <v>126900</v>
       </c>
       <c r="H76" s="3">
-        <v>-1900</v>
+        <v>125000</v>
       </c>
       <c r="I76" s="3">
-        <v>28100</v>
+        <v>-1800</v>
       </c>
       <c r="J76" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K76" s="3">
         <v>41100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>373800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>38717</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23900</v>
+        <v>20800</v>
       </c>
       <c r="E81" s="3">
-        <v>1600</v>
+        <v>23100</v>
       </c>
       <c r="F81" s="3">
-        <v>26700</v>
+        <v>1500</v>
       </c>
       <c r="G81" s="3">
-        <v>174700</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
-        <v>-14100</v>
+        <v>168600</v>
       </c>
       <c r="I81" s="3">
-        <v>4000</v>
+        <v>-13600</v>
       </c>
       <c r="J81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K81" s="3">
         <v>47200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26600</v>
+        <v>28800</v>
       </c>
       <c r="E83" s="3">
-        <v>23600</v>
+        <v>25600</v>
       </c>
       <c r="F83" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="G83" s="3">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="H83" s="3">
-        <v>51300</v>
+        <v>19800</v>
       </c>
       <c r="I83" s="3">
-        <v>58700</v>
+        <v>49500</v>
       </c>
       <c r="J83" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K83" s="3">
         <v>57800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29700</v>
+        <v>32800</v>
       </c>
       <c r="E89" s="3">
-        <v>35500</v>
+        <v>28700</v>
       </c>
       <c r="F89" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>39700</v>
-      </c>
       <c r="H89" s="3">
-        <v>64400</v>
+        <v>38400</v>
       </c>
       <c r="I89" s="3">
-        <v>73700</v>
+        <v>62200</v>
       </c>
       <c r="J89" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K89" s="3">
         <v>81900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38100</v>
+        <v>-24100</v>
       </c>
       <c r="E91" s="3">
-        <v>-31000</v>
+        <v>-36800</v>
       </c>
       <c r="F91" s="3">
-        <v>-29200</v>
+        <v>-29900</v>
       </c>
       <c r="G91" s="3">
-        <v>-26700</v>
+        <v>-28200</v>
       </c>
       <c r="H91" s="3">
-        <v>-22800</v>
+        <v>-25800</v>
       </c>
       <c r="I91" s="3">
-        <v>-42000</v>
+        <v>-22000</v>
       </c>
       <c r="J91" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-63300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41400</v>
+        <v>9300</v>
       </c>
       <c r="E94" s="3">
-        <v>4200</v>
+        <v>-40000</v>
       </c>
       <c r="F94" s="3">
-        <v>-13100</v>
+        <v>4100</v>
       </c>
       <c r="G94" s="3">
-        <v>-44900</v>
+        <v>-12700</v>
       </c>
       <c r="H94" s="3">
-        <v>-37400</v>
+        <v>-43400</v>
       </c>
       <c r="I94" s="3">
-        <v>-32800</v>
+        <v>-36100</v>
       </c>
       <c r="J94" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-183900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28200</v>
+        <v>-27000</v>
       </c>
       <c r="E96" s="3">
-        <v>-28200</v>
+        <v>-27200</v>
       </c>
       <c r="F96" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="G96" s="3">
-        <v>-26800</v>
+        <v>-26200</v>
       </c>
       <c r="H96" s="3">
-        <v>-26800</v>
+        <v>-25900</v>
       </c>
       <c r="I96" s="3">
-        <v>-34300</v>
+        <v>-25900</v>
       </c>
       <c r="J96" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-42900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-36700</v>
+        <v>-20800</v>
       </c>
       <c r="E100" s="3">
-        <v>-17800</v>
+        <v>-35400</v>
       </c>
       <c r="F100" s="3">
-        <v>11900</v>
+        <v>-17200</v>
       </c>
       <c r="G100" s="3">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="H100" s="3">
-        <v>-28400</v>
+        <v>5300</v>
       </c>
       <c r="I100" s="3">
-        <v>-24400</v>
+        <v>-27400</v>
       </c>
       <c r="J100" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-62600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>3300</v>
-      </c>
       <c r="H101" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-46900</v>
+        <v>20800</v>
       </c>
       <c r="E102" s="3">
-        <v>20000</v>
+        <v>-45200</v>
       </c>
       <c r="F102" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
-        <v>3600</v>
-      </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="I102" s="3">
-        <v>18500</v>
+        <v>2000</v>
       </c>
       <c r="J102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>822600</v>
+        <v>861500</v>
       </c>
       <c r="E8" s="3">
-        <v>813900</v>
+        <v>852400</v>
       </c>
       <c r="F8" s="3">
-        <v>797400</v>
+        <v>835200</v>
       </c>
       <c r="G8" s="3">
-        <v>770800</v>
+        <v>807300</v>
       </c>
       <c r="H8" s="3">
-        <v>685500</v>
+        <v>717900</v>
       </c>
       <c r="I8" s="3">
-        <v>593100</v>
+        <v>621100</v>
       </c>
       <c r="J8" s="3">
-        <v>569600</v>
+        <v>596500</v>
       </c>
       <c r="K8" s="3">
         <v>1533700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>690000</v>
+        <v>759900</v>
       </c>
       <c r="E9" s="3">
-        <v>716500</v>
+        <v>750500</v>
       </c>
       <c r="F9" s="3">
-        <v>703600</v>
+        <v>736900</v>
       </c>
       <c r="G9" s="3">
-        <v>681100</v>
+        <v>713300</v>
       </c>
       <c r="H9" s="3">
-        <v>602700</v>
+        <v>631300</v>
       </c>
       <c r="I9" s="3">
-        <v>518200</v>
+        <v>542800</v>
       </c>
       <c r="J9" s="3">
-        <v>496200</v>
+        <v>519700</v>
       </c>
       <c r="K9" s="3">
         <v>1348300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>132500</v>
+        <v>101600</v>
       </c>
       <c r="E10" s="3">
-        <v>97400</v>
+        <v>102000</v>
       </c>
       <c r="F10" s="3">
-        <v>93800</v>
+        <v>98200</v>
       </c>
       <c r="G10" s="3">
-        <v>89700</v>
+        <v>94000</v>
       </c>
       <c r="H10" s="3">
-        <v>82700</v>
+        <v>86600</v>
       </c>
       <c r="I10" s="3">
-        <v>74800</v>
+        <v>78400</v>
       </c>
       <c r="J10" s="3">
-        <v>73300</v>
+        <v>76800</v>
       </c>
       <c r="K10" s="3">
         <v>185500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="J14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K14" s="3">
         <v>6000</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28800</v>
+        <v>30100</v>
       </c>
       <c r="E15" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="F15" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="G15" s="3">
-        <v>22700</v>
+        <v>23700</v>
       </c>
       <c r="H15" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="I15" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="J15" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="K15" s="3">
         <v>57800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>786900</v>
+        <v>824100</v>
       </c>
       <c r="E17" s="3">
-        <v>785700</v>
+        <v>822900</v>
       </c>
       <c r="F17" s="3">
-        <v>749300</v>
+        <v>784800</v>
       </c>
       <c r="G17" s="3">
-        <v>728900</v>
+        <v>763400</v>
       </c>
       <c r="H17" s="3">
-        <v>646700</v>
+        <v>677300</v>
       </c>
       <c r="I17" s="3">
-        <v>558500</v>
+        <v>584900</v>
       </c>
       <c r="J17" s="3">
-        <v>536200</v>
+        <v>561600</v>
       </c>
       <c r="K17" s="3">
         <v>1459600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35700</v>
+        <v>37400</v>
       </c>
       <c r="E18" s="3">
-        <v>28200</v>
+        <v>29500</v>
       </c>
       <c r="F18" s="3">
-        <v>48100</v>
+        <v>50400</v>
       </c>
       <c r="G18" s="3">
-        <v>42000</v>
+        <v>43900</v>
       </c>
       <c r="H18" s="3">
-        <v>38700</v>
+        <v>40600</v>
       </c>
       <c r="I18" s="3">
-        <v>34600</v>
+        <v>36200</v>
       </c>
       <c r="J18" s="3">
-        <v>33400</v>
+        <v>35000</v>
       </c>
       <c r="K18" s="3">
         <v>74200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="H20" s="3">
-        <v>11100</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K20" s="3">
         <v>3800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>67300</v>
+        <v>70400</v>
       </c>
       <c r="E21" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="F21" s="3">
-        <v>74200</v>
+        <v>77600</v>
       </c>
       <c r="G21" s="3">
-        <v>71400</v>
+        <v>74700</v>
       </c>
       <c r="H21" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="I21" s="3">
-        <v>85500</v>
+        <v>89400</v>
       </c>
       <c r="J21" s="3">
-        <v>93600</v>
+        <v>97800</v>
       </c>
       <c r="K21" s="3">
         <v>135800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="E22" s="3">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F22" s="3">
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="G22" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="H22" s="3">
-        <v>22600</v>
+        <v>23700</v>
       </c>
       <c r="I22" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="J22" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="K22" s="3">
         <v>49200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="E23" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="F23" s="3">
-        <v>30900</v>
+        <v>32400</v>
       </c>
       <c r="G23" s="3">
-        <v>28200</v>
+        <v>29600</v>
       </c>
       <c r="H23" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="I23" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="J23" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="K23" s="3">
         <v>28800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F24" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="G24" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H24" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="I24" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J24" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K24" s="3">
         <v>8000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="E26" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="F26" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="G26" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="H26" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="I26" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="J26" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K26" s="3">
         <v>20800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="E27" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="F27" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="G27" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="H27" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="I27" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="J27" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K27" s="3">
         <v>20800</v>
@@ -1353,25 +1353,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="E29" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="F29" s="3">
-        <v>-21500</v>
+        <v>-22500</v>
       </c>
       <c r="G29" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H29" s="3">
-        <v>151400</v>
+        <v>158600</v>
       </c>
       <c r="I29" s="3">
-        <v>-21700</v>
+        <v>-22700</v>
       </c>
       <c r="J29" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="K29" s="3">
         <v>26400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11100</v>
+        <v>-11700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="K32" s="3">
         <v>-3800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20800</v>
+        <v>21800</v>
       </c>
       <c r="E33" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="F33" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="H33" s="3">
-        <v>168600</v>
+        <v>176600</v>
       </c>
       <c r="I33" s="3">
-        <v>-13600</v>
+        <v>-14300</v>
       </c>
       <c r="J33" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K33" s="3">
         <v>47200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20800</v>
+        <v>21800</v>
       </c>
       <c r="E35" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="F35" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="H35" s="3">
-        <v>168600</v>
+        <v>176600</v>
       </c>
       <c r="I35" s="3">
-        <v>-13600</v>
+        <v>-14300</v>
       </c>
       <c r="J35" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K35" s="3">
         <v>47200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68600</v>
+        <v>71900</v>
       </c>
       <c r="E41" s="3">
-        <v>47900</v>
+        <v>50200</v>
       </c>
       <c r="F41" s="3">
-        <v>93100</v>
+        <v>97500</v>
       </c>
       <c r="G41" s="3">
-        <v>73800</v>
+        <v>77300</v>
       </c>
       <c r="H41" s="3">
-        <v>75300</v>
+        <v>78900</v>
       </c>
       <c r="I41" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="J41" s="3">
-        <v>69700</v>
+        <v>73100</v>
       </c>
       <c r="K41" s="3">
         <v>53700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48200</v>
+        <v>50500</v>
       </c>
       <c r="E43" s="3">
-        <v>49300</v>
+        <v>51700</v>
       </c>
       <c r="F43" s="3">
-        <v>36100</v>
+        <v>37800</v>
       </c>
       <c r="G43" s="3">
+        <v>42100</v>
+      </c>
+      <c r="H43" s="3">
         <v>40200</v>
       </c>
-      <c r="H43" s="3">
-        <v>38300</v>
-      </c>
       <c r="I43" s="3">
-        <v>59700</v>
+        <v>62500</v>
       </c>
       <c r="J43" s="3">
-        <v>313000</v>
+        <v>328000</v>
       </c>
       <c r="K43" s="3">
         <v>160800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>17600</v>
       </c>
       <c r="E45" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="G45" s="3">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="H45" s="3">
-        <v>39900</v>
+        <v>41900</v>
       </c>
       <c r="I45" s="3">
-        <v>919500</v>
+        <v>963600</v>
       </c>
       <c r="J45" s="3">
-        <v>58500</v>
+        <v>61300</v>
       </c>
       <c r="K45" s="3">
         <v>45200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>133600</v>
+        <v>140000</v>
       </c>
       <c r="E46" s="3">
-        <v>114400</v>
+        <v>119900</v>
       </c>
       <c r="F46" s="3">
-        <v>145800</v>
+        <v>152800</v>
       </c>
       <c r="G46" s="3">
-        <v>133900</v>
+        <v>140300</v>
       </c>
       <c r="H46" s="3">
-        <v>153500</v>
+        <v>160900</v>
       </c>
       <c r="I46" s="3">
-        <v>975100</v>
+        <v>1021900</v>
       </c>
       <c r="J46" s="3">
-        <v>288100</v>
+        <v>302000</v>
       </c>
       <c r="K46" s="3">
         <v>259800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>385300</v>
+        <v>403800</v>
       </c>
       <c r="E48" s="3">
-        <v>373900</v>
+        <v>391800</v>
       </c>
       <c r="F48" s="3">
-        <v>348600</v>
+        <v>365300</v>
       </c>
       <c r="G48" s="3">
-        <v>338000</v>
+        <v>354200</v>
       </c>
       <c r="H48" s="3">
-        <v>309500</v>
+        <v>324400</v>
       </c>
       <c r="I48" s="3">
-        <v>108200</v>
+        <v>113400</v>
       </c>
       <c r="J48" s="3">
-        <v>543900</v>
+        <v>570000</v>
       </c>
       <c r="K48" s="3">
         <v>889500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65300</v>
+        <v>68400</v>
       </c>
       <c r="E49" s="3">
-        <v>69100</v>
+        <v>72500</v>
       </c>
       <c r="F49" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="G49" s="3">
-        <v>65200</v>
+        <v>68300</v>
       </c>
       <c r="H49" s="3">
-        <v>70000</v>
+        <v>73300</v>
       </c>
       <c r="I49" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="J49" s="3">
-        <v>115100</v>
+        <v>120600</v>
       </c>
       <c r="K49" s="3">
         <v>62300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61400</v>
+        <v>64300</v>
       </c>
       <c r="E52" s="3">
-        <v>93500</v>
+        <v>98000</v>
       </c>
       <c r="F52" s="3">
-        <v>114500</v>
+        <v>120000</v>
       </c>
       <c r="G52" s="3">
-        <v>180900</v>
+        <v>189600</v>
       </c>
       <c r="H52" s="3">
-        <v>212800</v>
+        <v>223000</v>
       </c>
       <c r="I52" s="3">
-        <v>163600</v>
+        <v>171500</v>
       </c>
       <c r="J52" s="3">
-        <v>160600</v>
+        <v>168300</v>
       </c>
       <c r="K52" s="3">
         <v>16500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>645500</v>
+        <v>676500</v>
       </c>
       <c r="E54" s="3">
-        <v>651000</v>
+        <v>682200</v>
       </c>
       <c r="F54" s="3">
-        <v>678500</v>
+        <v>711100</v>
       </c>
       <c r="G54" s="3">
-        <v>718000</v>
+        <v>752400</v>
       </c>
       <c r="H54" s="3">
-        <v>745800</v>
+        <v>781600</v>
       </c>
       <c r="I54" s="3">
-        <v>1391000</v>
+        <v>1457700</v>
       </c>
       <c r="J54" s="3">
-        <v>1342900</v>
+        <v>1407300</v>
       </c>
       <c r="K54" s="3">
         <v>1361000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>99400</v>
+        <v>104200</v>
       </c>
       <c r="E57" s="3">
-        <v>97100</v>
+        <v>101700</v>
       </c>
       <c r="F57" s="3">
-        <v>89600</v>
+        <v>93900</v>
       </c>
       <c r="G57" s="3">
-        <v>88500</v>
+        <v>92700</v>
       </c>
       <c r="H57" s="3">
-        <v>101500</v>
+        <v>106400</v>
       </c>
       <c r="I57" s="3">
-        <v>82700</v>
+        <v>86700</v>
       </c>
       <c r="J57" s="3">
-        <v>22500</v>
+        <v>23600</v>
       </c>
       <c r="K57" s="3">
         <v>26700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>97200</v>
+        <v>101800</v>
       </c>
       <c r="E58" s="3">
-        <v>54200</v>
+        <v>56800</v>
       </c>
       <c r="F58" s="3">
-        <v>43300</v>
+        <v>45400</v>
       </c>
       <c r="G58" s="3">
-        <v>39800</v>
+        <v>41700</v>
       </c>
       <c r="H58" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="I58" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="J58" s="3">
-        <v>107500</v>
+        <v>112700</v>
       </c>
       <c r="K58" s="3">
         <v>70300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="F59" s="3">
-        <v>24300</v>
+        <v>25400</v>
       </c>
       <c r="G59" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="H59" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="I59" s="3">
-        <v>923600</v>
+        <v>967900</v>
       </c>
       <c r="J59" s="3">
-        <v>184200</v>
+        <v>193100</v>
       </c>
       <c r="K59" s="3">
         <v>176300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200400</v>
+        <v>210000</v>
       </c>
       <c r="E60" s="3">
+        <v>172700</v>
+      </c>
+      <c r="F60" s="3">
         <v>164800</v>
       </c>
-      <c r="F60" s="3">
-        <v>157300</v>
-      </c>
       <c r="G60" s="3">
-        <v>151400</v>
+        <v>158700</v>
       </c>
       <c r="H60" s="3">
-        <v>158300</v>
+        <v>165900</v>
       </c>
       <c r="I60" s="3">
-        <v>940900</v>
+        <v>986000</v>
       </c>
       <c r="J60" s="3">
-        <v>314300</v>
+        <v>329400</v>
       </c>
       <c r="K60" s="3">
         <v>273400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>306900</v>
+        <v>321600</v>
       </c>
       <c r="E61" s="3">
-        <v>330000</v>
+        <v>345800</v>
       </c>
       <c r="F61" s="3">
-        <v>346000</v>
+        <v>362600</v>
       </c>
       <c r="G61" s="3">
-        <v>325900</v>
+        <v>341500</v>
       </c>
       <c r="H61" s="3">
-        <v>311300</v>
+        <v>326300</v>
       </c>
       <c r="I61" s="3">
-        <v>329100</v>
+        <v>344900</v>
       </c>
       <c r="J61" s="3">
-        <v>739700</v>
+        <v>775100</v>
       </c>
       <c r="K61" s="3">
         <v>783300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54500</v>
+        <v>57100</v>
       </c>
       <c r="E62" s="3">
-        <v>64600</v>
+        <v>67700</v>
       </c>
       <c r="F62" s="3">
-        <v>81600</v>
+        <v>85500</v>
       </c>
       <c r="G62" s="3">
-        <v>113700</v>
+        <v>119200</v>
       </c>
       <c r="H62" s="3">
-        <v>151200</v>
+        <v>158400</v>
       </c>
       <c r="I62" s="3">
-        <v>122800</v>
+        <v>128700</v>
       </c>
       <c r="J62" s="3">
-        <v>325200</v>
+        <v>340800</v>
       </c>
       <c r="K62" s="3">
         <v>263200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>561700</v>
+        <v>588600</v>
       </c>
       <c r="E66" s="3">
-        <v>559500</v>
+        <v>586300</v>
       </c>
       <c r="F66" s="3">
-        <v>584900</v>
+        <v>612900</v>
       </c>
       <c r="G66" s="3">
-        <v>591100</v>
+        <v>619400</v>
       </c>
       <c r="H66" s="3">
-        <v>620800</v>
+        <v>650600</v>
       </c>
       <c r="I66" s="3">
-        <v>1392800</v>
+        <v>1459600</v>
       </c>
       <c r="J66" s="3">
-        <v>1315800</v>
+        <v>1378900</v>
       </c>
       <c r="K66" s="3">
         <v>1319800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-277600</v>
+        <v>-290900</v>
       </c>
       <c r="E72" s="3">
-        <v>-267400</v>
+        <v>-280200</v>
       </c>
       <c r="F72" s="3">
-        <v>-265100</v>
+        <v>-277900</v>
       </c>
       <c r="G72" s="3">
-        <v>-233900</v>
+        <v>-245100</v>
       </c>
       <c r="H72" s="3">
-        <v>-228800</v>
+        <v>-239800</v>
       </c>
       <c r="I72" s="3">
-        <v>-365400</v>
+        <v>-382900</v>
       </c>
       <c r="J72" s="3">
-        <v>-321200</v>
+        <v>-336600</v>
       </c>
       <c r="K72" s="3">
         <v>-297400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83800</v>
+        <v>87800</v>
       </c>
       <c r="E76" s="3">
-        <v>91500</v>
+        <v>95900</v>
       </c>
       <c r="F76" s="3">
-        <v>93700</v>
+        <v>98100</v>
       </c>
       <c r="G76" s="3">
-        <v>126900</v>
+        <v>133000</v>
       </c>
       <c r="H76" s="3">
-        <v>125000</v>
+        <v>131000</v>
       </c>
       <c r="I76" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J76" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="K76" s="3">
         <v>41100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20800</v>
+        <v>21800</v>
       </c>
       <c r="E81" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="F81" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="H81" s="3">
-        <v>168600</v>
+        <v>176600</v>
       </c>
       <c r="I81" s="3">
-        <v>-13600</v>
+        <v>-14300</v>
       </c>
       <c r="J81" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K81" s="3">
         <v>47200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28800</v>
+        <v>30100</v>
       </c>
       <c r="E83" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="F83" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="G83" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="H83" s="3">
-        <v>19800</v>
+        <v>20800</v>
       </c>
       <c r="I83" s="3">
-        <v>49500</v>
+        <v>51900</v>
       </c>
       <c r="J83" s="3">
-        <v>56600</v>
+        <v>59300</v>
       </c>
       <c r="K83" s="3">
         <v>57800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32800</v>
+        <v>34400</v>
       </c>
       <c r="E89" s="3">
-        <v>28700</v>
+        <v>30000</v>
       </c>
       <c r="F89" s="3">
-        <v>34300</v>
+        <v>35900</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="I89" s="3">
-        <v>62200</v>
+        <v>65200</v>
       </c>
       <c r="J89" s="3">
-        <v>71200</v>
+        <v>74500</v>
       </c>
       <c r="K89" s="3">
         <v>81900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24100</v>
+        <v>-25300</v>
       </c>
       <c r="E91" s="3">
-        <v>-36800</v>
+        <v>-38500</v>
       </c>
       <c r="F91" s="3">
-        <v>-29900</v>
+        <v>-31300</v>
       </c>
       <c r="G91" s="3">
-        <v>-28200</v>
+        <v>-29600</v>
       </c>
       <c r="H91" s="3">
-        <v>-25800</v>
+        <v>-27000</v>
       </c>
       <c r="I91" s="3">
-        <v>-22000</v>
+        <v>-23000</v>
       </c>
       <c r="J91" s="3">
-        <v>-40500</v>
+        <v>-42400</v>
       </c>
       <c r="K91" s="3">
         <v>-63300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="E94" s="3">
-        <v>-40000</v>
+        <v>-41900</v>
       </c>
       <c r="F94" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G94" s="3">
-        <v>-12700</v>
+        <v>-13300</v>
       </c>
       <c r="H94" s="3">
-        <v>-43400</v>
+        <v>-45400</v>
       </c>
       <c r="I94" s="3">
-        <v>-36100</v>
+        <v>-37800</v>
       </c>
       <c r="J94" s="3">
-        <v>-31600</v>
+        <v>-33100</v>
       </c>
       <c r="K94" s="3">
         <v>-24900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27000</v>
+        <v>-28300</v>
       </c>
       <c r="E96" s="3">
-        <v>-27200</v>
+        <v>-28500</v>
       </c>
       <c r="F96" s="3">
-        <v>-27300</v>
+        <v>-28500</v>
       </c>
       <c r="G96" s="3">
-        <v>-26200</v>
+        <v>-27500</v>
       </c>
       <c r="H96" s="3">
-        <v>-25900</v>
+        <v>-27100</v>
       </c>
       <c r="I96" s="3">
-        <v>-25900</v>
+        <v>-27100</v>
       </c>
       <c r="J96" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="K96" s="3">
         <v>-42900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20800</v>
+        <v>-21800</v>
       </c>
       <c r="E100" s="3">
-        <v>-35400</v>
+        <v>-37100</v>
       </c>
       <c r="F100" s="3">
-        <v>-17200</v>
+        <v>-18000</v>
       </c>
       <c r="G100" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="H100" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="I100" s="3">
-        <v>-27400</v>
+        <v>-28700</v>
       </c>
       <c r="J100" s="3">
-        <v>-23500</v>
+        <v>-24600</v>
       </c>
       <c r="K100" s="3">
         <v>-62600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K101" s="3">
         <v>-800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="E102" s="3">
-        <v>-45200</v>
+        <v>-47400</v>
       </c>
       <c r="F102" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H102" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J102" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="K102" s="3">
         <v>-6500</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>861500</v>
+        <v>871400</v>
       </c>
       <c r="E8" s="3">
-        <v>852400</v>
+        <v>862200</v>
       </c>
       <c r="F8" s="3">
-        <v>835200</v>
+        <v>844700</v>
       </c>
       <c r="G8" s="3">
-        <v>807300</v>
+        <v>816600</v>
       </c>
       <c r="H8" s="3">
-        <v>717900</v>
+        <v>726200</v>
       </c>
       <c r="I8" s="3">
-        <v>621100</v>
+        <v>628300</v>
       </c>
       <c r="J8" s="3">
-        <v>596500</v>
+        <v>603400</v>
       </c>
       <c r="K8" s="3">
         <v>1533700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>759900</v>
+        <v>768700</v>
       </c>
       <c r="E9" s="3">
-        <v>750500</v>
+        <v>759100</v>
       </c>
       <c r="F9" s="3">
-        <v>736900</v>
+        <v>745400</v>
       </c>
       <c r="G9" s="3">
-        <v>713300</v>
+        <v>721500</v>
       </c>
       <c r="H9" s="3">
-        <v>631300</v>
+        <v>638500</v>
       </c>
       <c r="I9" s="3">
-        <v>542800</v>
+        <v>549000</v>
       </c>
       <c r="J9" s="3">
-        <v>519700</v>
+        <v>525700</v>
       </c>
       <c r="K9" s="3">
         <v>1348300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>101600</v>
+        <v>102700</v>
       </c>
       <c r="E10" s="3">
-        <v>102000</v>
+        <v>103100</v>
       </c>
       <c r="F10" s="3">
-        <v>98200</v>
+        <v>99400</v>
       </c>
       <c r="G10" s="3">
-        <v>94000</v>
+        <v>95100</v>
       </c>
       <c r="H10" s="3">
-        <v>86600</v>
+        <v>87600</v>
       </c>
       <c r="I10" s="3">
-        <v>78400</v>
+        <v>79300</v>
       </c>
       <c r="J10" s="3">
-        <v>76800</v>
+        <v>77700</v>
       </c>
       <c r="K10" s="3">
         <v>185500</v>
@@ -897,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>3100</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I14" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="J14" s="3">
         <v>1500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30100</v>
+        <v>30500</v>
       </c>
       <c r="E15" s="3">
-        <v>26800</v>
+        <v>27200</v>
       </c>
       <c r="F15" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="G15" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="H15" s="3">
-        <v>18000</v>
+        <v>18200</v>
       </c>
       <c r="I15" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="J15" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="K15" s="3">
         <v>57800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>824100</v>
+        <v>833600</v>
       </c>
       <c r="E17" s="3">
-        <v>822900</v>
+        <v>832400</v>
       </c>
       <c r="F17" s="3">
-        <v>784800</v>
+        <v>793800</v>
       </c>
       <c r="G17" s="3">
-        <v>763400</v>
+        <v>772100</v>
       </c>
       <c r="H17" s="3">
-        <v>677300</v>
+        <v>685100</v>
       </c>
       <c r="I17" s="3">
-        <v>584900</v>
+        <v>591600</v>
       </c>
       <c r="J17" s="3">
-        <v>561600</v>
+        <v>568000</v>
       </c>
       <c r="K17" s="3">
         <v>1459600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37400</v>
+        <v>37800</v>
       </c>
       <c r="E18" s="3">
-        <v>29500</v>
+        <v>29800</v>
       </c>
       <c r="F18" s="3">
-        <v>50400</v>
+        <v>51000</v>
       </c>
       <c r="G18" s="3">
-        <v>43900</v>
+        <v>44500</v>
       </c>
       <c r="H18" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="I18" s="3">
-        <v>36200</v>
+        <v>36600</v>
       </c>
       <c r="J18" s="3">
-        <v>35000</v>
+        <v>35400</v>
       </c>
       <c r="K18" s="3">
         <v>74200</v>
@@ -1056,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
         <v>900</v>
@@ -1065,10 +1065,10 @@
         <v>3400</v>
       </c>
       <c r="G20" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H20" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
         <v>1500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>70400</v>
+        <v>71200</v>
       </c>
       <c r="E21" s="3">
-        <v>57200</v>
+        <v>57800</v>
       </c>
       <c r="F21" s="3">
-        <v>77600</v>
+        <v>78500</v>
       </c>
       <c r="G21" s="3">
-        <v>74700</v>
+        <v>75600</v>
       </c>
       <c r="H21" s="3">
-        <v>73000</v>
+        <v>73800</v>
       </c>
       <c r="I21" s="3">
-        <v>89400</v>
+        <v>90500</v>
       </c>
       <c r="J21" s="3">
-        <v>97800</v>
+        <v>99000</v>
       </c>
       <c r="K21" s="3">
         <v>135800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="E22" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="F22" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="G22" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="H22" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="I22" s="3">
-        <v>25000</v>
+        <v>25300</v>
       </c>
       <c r="J22" s="3">
-        <v>26300</v>
+        <v>26600</v>
       </c>
       <c r="K22" s="3">
         <v>49200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="E23" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="F23" s="3">
-        <v>32400</v>
+        <v>32800</v>
       </c>
       <c r="G23" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="H23" s="3">
-        <v>28600</v>
+        <v>28900</v>
       </c>
       <c r="I23" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="J23" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="K23" s="3">
         <v>28800</v>
@@ -1191,19 +1191,19 @@
         <v>5500</v>
       </c>
       <c r="E24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F24" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G24" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H24" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="I24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J24" s="3">
         <v>4700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E26" s="3">
         <v>6200</v>
       </c>
       <c r="F26" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="G26" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="H26" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="I26" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="J26" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="K26" s="3">
         <v>20800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E27" s="3">
         <v>6200</v>
       </c>
       <c r="F27" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="G27" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="H27" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="I27" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="J27" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="K27" s="3">
         <v>20800</v>
@@ -1353,25 +1353,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E29" s="3">
-        <v>18000</v>
+        <v>18200</v>
       </c>
       <c r="F29" s="3">
-        <v>-22500</v>
+        <v>-22800</v>
       </c>
       <c r="G29" s="3">
         <v>3100</v>
       </c>
       <c r="H29" s="3">
-        <v>158600</v>
+        <v>160400</v>
       </c>
       <c r="I29" s="3">
-        <v>-22700</v>
+        <v>-23000</v>
       </c>
       <c r="J29" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K29" s="3">
         <v>26400</v>
@@ -1452,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
         <v>-900</v>
@@ -1461,10 +1461,10 @@
         <v>-3400</v>
       </c>
       <c r="G32" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="H32" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
         <v>-1500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="E33" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="F33" s="3">
         <v>1600</v>
       </c>
       <c r="G33" s="3">
-        <v>27000</v>
+        <v>27300</v>
       </c>
       <c r="H33" s="3">
-        <v>176600</v>
+        <v>178700</v>
       </c>
       <c r="I33" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="J33" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K33" s="3">
         <v>47200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="E35" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="F35" s="3">
         <v>1600</v>
       </c>
       <c r="G35" s="3">
-        <v>27000</v>
+        <v>27300</v>
       </c>
       <c r="H35" s="3">
-        <v>176600</v>
+        <v>178700</v>
       </c>
       <c r="I35" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="J35" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K35" s="3">
         <v>47200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71900</v>
+        <v>72700</v>
       </c>
       <c r="E41" s="3">
-        <v>50200</v>
+        <v>50700</v>
       </c>
       <c r="F41" s="3">
-        <v>97500</v>
+        <v>98700</v>
       </c>
       <c r="G41" s="3">
-        <v>77300</v>
+        <v>78200</v>
       </c>
       <c r="H41" s="3">
-        <v>78900</v>
+        <v>79800</v>
       </c>
       <c r="I41" s="3">
-        <v>27000</v>
+        <v>27300</v>
       </c>
       <c r="J41" s="3">
-        <v>73100</v>
+        <v>73900</v>
       </c>
       <c r="K41" s="3">
         <v>53700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50500</v>
+        <v>51100</v>
       </c>
       <c r="E43" s="3">
-        <v>51700</v>
+        <v>52300</v>
       </c>
       <c r="F43" s="3">
-        <v>37800</v>
+        <v>38200</v>
       </c>
       <c r="G43" s="3">
-        <v>42100</v>
+        <v>42600</v>
       </c>
       <c r="H43" s="3">
-        <v>40200</v>
+        <v>40600</v>
       </c>
       <c r="I43" s="3">
-        <v>62500</v>
+        <v>63200</v>
       </c>
       <c r="J43" s="3">
-        <v>328000</v>
+        <v>331800</v>
       </c>
       <c r="K43" s="3">
         <v>160800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="E45" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="F45" s="3">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="G45" s="3">
-        <v>20900</v>
+        <v>21200</v>
       </c>
       <c r="H45" s="3">
-        <v>41900</v>
+        <v>42300</v>
       </c>
       <c r="I45" s="3">
-        <v>963600</v>
+        <v>974600</v>
       </c>
       <c r="J45" s="3">
-        <v>61300</v>
+        <v>62000</v>
       </c>
       <c r="K45" s="3">
         <v>45200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>140000</v>
+        <v>141600</v>
       </c>
       <c r="E46" s="3">
-        <v>119900</v>
+        <v>121300</v>
       </c>
       <c r="F46" s="3">
-        <v>152800</v>
+        <v>154600</v>
       </c>
       <c r="G46" s="3">
-        <v>140300</v>
+        <v>141900</v>
       </c>
       <c r="H46" s="3">
-        <v>160900</v>
+        <v>162700</v>
       </c>
       <c r="I46" s="3">
-        <v>1021900</v>
+        <v>1033600</v>
       </c>
       <c r="J46" s="3">
-        <v>302000</v>
+        <v>305400</v>
       </c>
       <c r="K46" s="3">
         <v>259800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>403800</v>
+        <v>408400</v>
       </c>
       <c r="E48" s="3">
-        <v>391800</v>
+        <v>396300</v>
       </c>
       <c r="F48" s="3">
-        <v>365300</v>
+        <v>369500</v>
       </c>
       <c r="G48" s="3">
-        <v>354200</v>
+        <v>358300</v>
       </c>
       <c r="H48" s="3">
-        <v>324400</v>
+        <v>328100</v>
       </c>
       <c r="I48" s="3">
-        <v>113400</v>
+        <v>114700</v>
       </c>
       <c r="J48" s="3">
-        <v>570000</v>
+        <v>576500</v>
       </c>
       <c r="K48" s="3">
         <v>889500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>68400</v>
+        <v>69200</v>
       </c>
       <c r="E49" s="3">
-        <v>72500</v>
+        <v>73300</v>
       </c>
       <c r="F49" s="3">
-        <v>73000</v>
+        <v>73800</v>
       </c>
       <c r="G49" s="3">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="H49" s="3">
-        <v>73300</v>
+        <v>74200</v>
       </c>
       <c r="I49" s="3">
-        <v>24700</v>
+        <v>25000</v>
       </c>
       <c r="J49" s="3">
-        <v>120600</v>
+        <v>122000</v>
       </c>
       <c r="K49" s="3">
         <v>62300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64300</v>
+        <v>65000</v>
       </c>
       <c r="E52" s="3">
-        <v>98000</v>
+        <v>99100</v>
       </c>
       <c r="F52" s="3">
-        <v>120000</v>
+        <v>121400</v>
       </c>
       <c r="G52" s="3">
-        <v>189600</v>
+        <v>191700</v>
       </c>
       <c r="H52" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="I52" s="3">
-        <v>171500</v>
+        <v>173400</v>
       </c>
       <c r="J52" s="3">
-        <v>168300</v>
+        <v>170200</v>
       </c>
       <c r="K52" s="3">
         <v>16500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>676500</v>
+        <v>684200</v>
       </c>
       <c r="E54" s="3">
-        <v>682200</v>
+        <v>690000</v>
       </c>
       <c r="F54" s="3">
-        <v>711100</v>
+        <v>719200</v>
       </c>
       <c r="G54" s="3">
-        <v>752400</v>
+        <v>761100</v>
       </c>
       <c r="H54" s="3">
-        <v>781600</v>
+        <v>790600</v>
       </c>
       <c r="I54" s="3">
-        <v>1457700</v>
+        <v>1474400</v>
       </c>
       <c r="J54" s="3">
-        <v>1407300</v>
+        <v>1423500</v>
       </c>
       <c r="K54" s="3">
         <v>1361000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104200</v>
+        <v>105400</v>
       </c>
       <c r="E57" s="3">
-        <v>101700</v>
+        <v>102900</v>
       </c>
       <c r="F57" s="3">
-        <v>93900</v>
+        <v>95000</v>
       </c>
       <c r="G57" s="3">
-        <v>92700</v>
+        <v>93800</v>
       </c>
       <c r="H57" s="3">
-        <v>106400</v>
+        <v>107600</v>
       </c>
       <c r="I57" s="3">
-        <v>86700</v>
+        <v>87700</v>
       </c>
       <c r="J57" s="3">
-        <v>23600</v>
+        <v>23900</v>
       </c>
       <c r="K57" s="3">
         <v>26700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101800</v>
+        <v>103000</v>
       </c>
       <c r="E58" s="3">
-        <v>56800</v>
+        <v>57400</v>
       </c>
       <c r="F58" s="3">
-        <v>45400</v>
+        <v>45900</v>
       </c>
       <c r="G58" s="3">
-        <v>41700</v>
+        <v>42200</v>
       </c>
       <c r="H58" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="I58" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="J58" s="3">
-        <v>112700</v>
+        <v>114000</v>
       </c>
       <c r="K58" s="3">
         <v>70300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="F59" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="G59" s="3">
-        <v>24200</v>
+        <v>24500</v>
       </c>
       <c r="H59" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="I59" s="3">
-        <v>967900</v>
+        <v>979000</v>
       </c>
       <c r="J59" s="3">
-        <v>193100</v>
+        <v>195300</v>
       </c>
       <c r="K59" s="3">
         <v>176300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>210000</v>
+        <v>212400</v>
       </c>
       <c r="E60" s="3">
-        <v>172700</v>
+        <v>174700</v>
       </c>
       <c r="F60" s="3">
-        <v>164800</v>
+        <v>166700</v>
       </c>
       <c r="G60" s="3">
-        <v>158700</v>
+        <v>160500</v>
       </c>
       <c r="H60" s="3">
-        <v>165900</v>
+        <v>167800</v>
       </c>
       <c r="I60" s="3">
-        <v>986000</v>
+        <v>997300</v>
       </c>
       <c r="J60" s="3">
-        <v>329400</v>
+        <v>333200</v>
       </c>
       <c r="K60" s="3">
         <v>273400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>321600</v>
+        <v>325300</v>
       </c>
       <c r="E61" s="3">
-        <v>345800</v>
+        <v>349800</v>
       </c>
       <c r="F61" s="3">
-        <v>362600</v>
+        <v>366700</v>
       </c>
       <c r="G61" s="3">
-        <v>341500</v>
+        <v>345500</v>
       </c>
       <c r="H61" s="3">
-        <v>326300</v>
+        <v>330000</v>
       </c>
       <c r="I61" s="3">
-        <v>344900</v>
+        <v>348900</v>
       </c>
       <c r="J61" s="3">
-        <v>775100</v>
+        <v>784000</v>
       </c>
       <c r="K61" s="3">
         <v>783300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57100</v>
+        <v>57700</v>
       </c>
       <c r="E62" s="3">
-        <v>67700</v>
+        <v>68500</v>
       </c>
       <c r="F62" s="3">
-        <v>85500</v>
+        <v>86500</v>
       </c>
       <c r="G62" s="3">
-        <v>119200</v>
+        <v>120600</v>
       </c>
       <c r="H62" s="3">
-        <v>158400</v>
+        <v>160200</v>
       </c>
       <c r="I62" s="3">
-        <v>128700</v>
+        <v>130100</v>
       </c>
       <c r="J62" s="3">
-        <v>340800</v>
+        <v>344700</v>
       </c>
       <c r="K62" s="3">
         <v>263200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>588600</v>
+        <v>595400</v>
       </c>
       <c r="E66" s="3">
-        <v>586300</v>
+        <v>593000</v>
       </c>
       <c r="F66" s="3">
-        <v>612900</v>
+        <v>620000</v>
       </c>
       <c r="G66" s="3">
-        <v>619400</v>
+        <v>626500</v>
       </c>
       <c r="H66" s="3">
-        <v>650600</v>
+        <v>658100</v>
       </c>
       <c r="I66" s="3">
-        <v>1459600</v>
+        <v>1476400</v>
       </c>
       <c r="J66" s="3">
-        <v>1378900</v>
+        <v>1394700</v>
       </c>
       <c r="K66" s="3">
         <v>1319800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-290900</v>
+        <v>-294200</v>
       </c>
       <c r="E72" s="3">
-        <v>-280200</v>
+        <v>-283400</v>
       </c>
       <c r="F72" s="3">
-        <v>-277900</v>
+        <v>-281000</v>
       </c>
       <c r="G72" s="3">
-        <v>-245100</v>
+        <v>-247900</v>
       </c>
       <c r="H72" s="3">
-        <v>-239800</v>
+        <v>-242500</v>
       </c>
       <c r="I72" s="3">
-        <v>-382900</v>
+        <v>-387300</v>
       </c>
       <c r="J72" s="3">
-        <v>-336600</v>
+        <v>-340500</v>
       </c>
       <c r="K72" s="3">
         <v>-297400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87800</v>
+        <v>88800</v>
       </c>
       <c r="E76" s="3">
-        <v>95900</v>
+        <v>97000</v>
       </c>
       <c r="F76" s="3">
-        <v>98100</v>
+        <v>99300</v>
       </c>
       <c r="G76" s="3">
-        <v>133000</v>
+        <v>134500</v>
       </c>
       <c r="H76" s="3">
-        <v>131000</v>
+        <v>132500</v>
       </c>
       <c r="I76" s="3">
         <v>-1900</v>
       </c>
       <c r="J76" s="3">
-        <v>28400</v>
+        <v>28800</v>
       </c>
       <c r="K76" s="3">
         <v>41100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="E81" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="F81" s="3">
         <v>1600</v>
       </c>
       <c r="G81" s="3">
-        <v>27000</v>
+        <v>27300</v>
       </c>
       <c r="H81" s="3">
-        <v>176600</v>
+        <v>178700</v>
       </c>
       <c r="I81" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="J81" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K81" s="3">
         <v>47200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30100</v>
+        <v>30500</v>
       </c>
       <c r="E83" s="3">
-        <v>26800</v>
+        <v>27200</v>
       </c>
       <c r="F83" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="G83" s="3">
-        <v>24600</v>
+        <v>24900</v>
       </c>
       <c r="H83" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="I83" s="3">
-        <v>51900</v>
+        <v>52500</v>
       </c>
       <c r="J83" s="3">
-        <v>59300</v>
+        <v>60000</v>
       </c>
       <c r="K83" s="3">
         <v>57800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34400</v>
+        <v>34800</v>
       </c>
       <c r="E89" s="3">
-        <v>30000</v>
+        <v>30400</v>
       </c>
       <c r="F89" s="3">
-        <v>35900</v>
+        <v>36300</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
-        <v>40200</v>
+        <v>40600</v>
       </c>
       <c r="I89" s="3">
-        <v>65200</v>
+        <v>65900</v>
       </c>
       <c r="J89" s="3">
-        <v>74500</v>
+        <v>75400</v>
       </c>
       <c r="K89" s="3">
         <v>81900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25300</v>
+        <v>-25500</v>
       </c>
       <c r="E91" s="3">
-        <v>-38500</v>
+        <v>-39000</v>
       </c>
       <c r="F91" s="3">
-        <v>-31300</v>
+        <v>-31700</v>
       </c>
       <c r="G91" s="3">
-        <v>-29600</v>
+        <v>-29900</v>
       </c>
       <c r="H91" s="3">
-        <v>-27000</v>
+        <v>-27300</v>
       </c>
       <c r="I91" s="3">
-        <v>-23000</v>
+        <v>-23300</v>
       </c>
       <c r="J91" s="3">
-        <v>-42400</v>
+        <v>-42900</v>
       </c>
       <c r="K91" s="3">
         <v>-63300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E94" s="3">
-        <v>-41900</v>
+        <v>-42400</v>
       </c>
       <c r="F94" s="3">
         <v>4300</v>
       </c>
       <c r="G94" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="H94" s="3">
-        <v>-45400</v>
+        <v>-46000</v>
       </c>
       <c r="I94" s="3">
-        <v>-37800</v>
+        <v>-38300</v>
       </c>
       <c r="J94" s="3">
-        <v>-33100</v>
+        <v>-33500</v>
       </c>
       <c r="K94" s="3">
         <v>-24900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28300</v>
+        <v>-28700</v>
       </c>
       <c r="E96" s="3">
-        <v>-28500</v>
+        <v>-28800</v>
       </c>
       <c r="F96" s="3">
-        <v>-28500</v>
+        <v>-28900</v>
       </c>
       <c r="G96" s="3">
-        <v>-27500</v>
+        <v>-27800</v>
       </c>
       <c r="H96" s="3">
-        <v>-27100</v>
+        <v>-27400</v>
       </c>
       <c r="I96" s="3">
-        <v>-27100</v>
+        <v>-27400</v>
       </c>
       <c r="J96" s="3">
-        <v>-34700</v>
+        <v>-35100</v>
       </c>
       <c r="K96" s="3">
         <v>-42900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21800</v>
+        <v>-22100</v>
       </c>
       <c r="E100" s="3">
-        <v>-37100</v>
+        <v>-37500</v>
       </c>
       <c r="F100" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="G100" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="H100" s="3">
         <v>5600</v>
       </c>
       <c r="I100" s="3">
-        <v>-28700</v>
+        <v>-29000</v>
       </c>
       <c r="J100" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="K100" s="3">
         <v>-62600</v>
@@ -3472,13 +3472,13 @@
         <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H101" s="3">
         <v>3400</v>
       </c>
       <c r="I101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
@@ -3496,13 +3496,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21700</v>
+        <v>22000</v>
       </c>
       <c r="E102" s="3">
-        <v>-47400</v>
+        <v>-47900</v>
       </c>
       <c r="F102" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="G102" s="3">
         <v>-1600</v>
@@ -3511,10 +3511,10 @@
         <v>3700</v>
       </c>
       <c r="I102" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J102" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="K102" s="3">
         <v>-6500</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>EXETF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>38717</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>871400</v>
+        <v>918500</v>
       </c>
       <c r="E8" s="3">
-        <v>862200</v>
+        <v>897700</v>
       </c>
       <c r="F8" s="3">
-        <v>844700</v>
+        <v>888200</v>
       </c>
       <c r="G8" s="3">
-        <v>816600</v>
+        <v>870200</v>
       </c>
       <c r="H8" s="3">
-        <v>726200</v>
+        <v>841200</v>
       </c>
       <c r="I8" s="3">
-        <v>628300</v>
+        <v>748000</v>
       </c>
       <c r="J8" s="3">
+        <v>647200</v>
+      </c>
+      <c r="K8" s="3">
         <v>603400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1533700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1507900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>768700</v>
+        <v>774100</v>
       </c>
       <c r="E9" s="3">
-        <v>759100</v>
+        <v>791800</v>
       </c>
       <c r="F9" s="3">
-        <v>745400</v>
+        <v>781900</v>
       </c>
       <c r="G9" s="3">
-        <v>721500</v>
+        <v>767900</v>
       </c>
       <c r="H9" s="3">
-        <v>638500</v>
+        <v>743300</v>
       </c>
       <c r="I9" s="3">
-        <v>549000</v>
+        <v>657800</v>
       </c>
       <c r="J9" s="3">
+        <v>565600</v>
+      </c>
+      <c r="K9" s="3">
         <v>525700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1348300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1278800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>102700</v>
+        <v>144400</v>
       </c>
       <c r="E10" s="3">
-        <v>103100</v>
+        <v>105800</v>
       </c>
       <c r="F10" s="3">
-        <v>99400</v>
+        <v>106300</v>
       </c>
       <c r="G10" s="3">
-        <v>95100</v>
+        <v>102400</v>
       </c>
       <c r="H10" s="3">
-        <v>87600</v>
+        <v>97900</v>
       </c>
       <c r="I10" s="3">
-        <v>79300</v>
+        <v>90300</v>
       </c>
       <c r="J10" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K10" s="3">
         <v>77700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>229200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
-        <v>15500</v>
-      </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G14" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5200</v>
+        <v>3200</v>
       </c>
       <c r="I14" s="3">
-        <v>11000</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30500</v>
+        <v>30800</v>
       </c>
       <c r="E15" s="3">
-        <v>27200</v>
+        <v>62800</v>
       </c>
       <c r="F15" s="3">
-        <v>24200</v>
+        <v>28000</v>
       </c>
       <c r="G15" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H15" s="3">
-        <v>18200</v>
+        <v>24700</v>
       </c>
       <c r="I15" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="J15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K15" s="3">
         <v>16700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>57800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>833600</v>
+        <v>847900</v>
       </c>
       <c r="E17" s="3">
-        <v>832400</v>
+        <v>857800</v>
       </c>
       <c r="F17" s="3">
-        <v>793800</v>
+        <v>857400</v>
       </c>
       <c r="G17" s="3">
-        <v>772100</v>
+        <v>817700</v>
       </c>
       <c r="H17" s="3">
-        <v>685100</v>
+        <v>795400</v>
       </c>
       <c r="I17" s="3">
-        <v>591600</v>
+        <v>705800</v>
       </c>
       <c r="J17" s="3">
+        <v>609500</v>
+      </c>
+      <c r="K17" s="3">
         <v>568000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1459600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1394400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37800</v>
+        <v>70600</v>
       </c>
       <c r="E18" s="3">
-        <v>29800</v>
+        <v>39900</v>
       </c>
       <c r="F18" s="3">
-        <v>51000</v>
+        <v>30700</v>
       </c>
       <c r="G18" s="3">
-        <v>44500</v>
+        <v>52500</v>
       </c>
       <c r="H18" s="3">
-        <v>41000</v>
+        <v>45800</v>
       </c>
       <c r="I18" s="3">
-        <v>36600</v>
+        <v>42300</v>
       </c>
       <c r="J18" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K18" s="3">
         <v>35400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>113500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
-        <v>3400</v>
-      </c>
       <c r="G20" s="3">
-        <v>6300</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>6400</v>
       </c>
       <c r="I20" s="3">
-        <v>1500</v>
+        <v>12100</v>
       </c>
       <c r="J20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71200</v>
+        <v>100100</v>
       </c>
       <c r="E21" s="3">
-        <v>57800</v>
+        <v>71700</v>
       </c>
       <c r="F21" s="3">
-        <v>78500</v>
+        <v>59700</v>
       </c>
       <c r="G21" s="3">
-        <v>75600</v>
+        <v>81000</v>
       </c>
       <c r="H21" s="3">
-        <v>73800</v>
+        <v>78000</v>
       </c>
       <c r="I21" s="3">
-        <v>90500</v>
+        <v>76100</v>
       </c>
       <c r="J21" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K21" s="3">
         <v>99000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>135800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>166200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="E22" s="3">
-        <v>21200</v>
+        <v>22800</v>
       </c>
       <c r="F22" s="3">
-        <v>21600</v>
+        <v>21900</v>
       </c>
       <c r="G22" s="3">
-        <v>20800</v>
+        <v>22300</v>
       </c>
       <c r="H22" s="3">
-        <v>23900</v>
+        <v>21400</v>
       </c>
       <c r="I22" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="J22" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K22" s="3">
         <v>26600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49200</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>18700</v>
+        <v>46700</v>
       </c>
       <c r="E23" s="3">
-        <v>9500</v>
+        <v>17400</v>
       </c>
       <c r="F23" s="3">
-        <v>32800</v>
+        <v>9800</v>
       </c>
       <c r="G23" s="3">
-        <v>29900</v>
+        <v>33800</v>
       </c>
       <c r="H23" s="3">
-        <v>28900</v>
+        <v>30800</v>
       </c>
       <c r="I23" s="3">
-        <v>12800</v>
+        <v>29800</v>
       </c>
       <c r="J23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>113500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5500</v>
+        <v>12900</v>
       </c>
       <c r="E24" s="3">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="F24" s="3">
-        <v>8400</v>
+        <v>3400</v>
       </c>
       <c r="G24" s="3">
-        <v>5700</v>
+        <v>8600</v>
       </c>
       <c r="H24" s="3">
-        <v>10700</v>
+        <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>4300</v>
+        <v>11000</v>
       </c>
       <c r="J24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13100</v>
+        <v>33800</v>
       </c>
       <c r="E26" s="3">
-        <v>6200</v>
+        <v>11700</v>
       </c>
       <c r="F26" s="3">
-        <v>24400</v>
+        <v>6400</v>
       </c>
       <c r="G26" s="3">
-        <v>24200</v>
+        <v>25100</v>
       </c>
       <c r="H26" s="3">
-        <v>18300</v>
+        <v>24900</v>
       </c>
       <c r="I26" s="3">
-        <v>8500</v>
+        <v>18800</v>
       </c>
       <c r="J26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K26" s="3">
         <v>7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13100</v>
+        <v>33800</v>
       </c>
       <c r="E27" s="3">
-        <v>6200</v>
+        <v>11700</v>
       </c>
       <c r="F27" s="3">
-        <v>24400</v>
+        <v>6400</v>
       </c>
       <c r="G27" s="3">
-        <v>24200</v>
+        <v>25100</v>
       </c>
       <c r="H27" s="3">
-        <v>18300</v>
+        <v>24900</v>
       </c>
       <c r="I27" s="3">
-        <v>8500</v>
+        <v>18800</v>
       </c>
       <c r="J27" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K27" s="3">
         <v>7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>77400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="E29" s="3">
-        <v>18200</v>
+        <v>11000</v>
       </c>
       <c r="F29" s="3">
-        <v>-22800</v>
+        <v>18800</v>
       </c>
       <c r="G29" s="3">
-        <v>3100</v>
+        <v>-23500</v>
       </c>
       <c r="H29" s="3">
-        <v>160400</v>
+        <v>3200</v>
       </c>
       <c r="I29" s="3">
-        <v>-23000</v>
+        <v>165200</v>
       </c>
       <c r="J29" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>26400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3400</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6300</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-6400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1500</v>
+        <v>-12100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="E33" s="3">
-        <v>24400</v>
+        <v>22700</v>
       </c>
       <c r="F33" s="3">
-        <v>1600</v>
+        <v>25200</v>
       </c>
       <c r="G33" s="3">
-        <v>27300</v>
+        <v>1700</v>
       </c>
       <c r="H33" s="3">
-        <v>178700</v>
+        <v>28100</v>
       </c>
       <c r="I33" s="3">
-        <v>-14400</v>
+        <v>184000</v>
       </c>
       <c r="J33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="E35" s="3">
-        <v>24400</v>
+        <v>22700</v>
       </c>
       <c r="F35" s="3">
-        <v>1600</v>
+        <v>25200</v>
       </c>
       <c r="G35" s="3">
-        <v>27300</v>
+        <v>1700</v>
       </c>
       <c r="H35" s="3">
-        <v>178700</v>
+        <v>28100</v>
       </c>
       <c r="I35" s="3">
-        <v>-14400</v>
+        <v>184000</v>
       </c>
       <c r="J35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>38717</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>72700</v>
+        <v>142700</v>
       </c>
       <c r="E41" s="3">
-        <v>50700</v>
+        <v>74900</v>
       </c>
       <c r="F41" s="3">
-        <v>98700</v>
+        <v>52300</v>
       </c>
       <c r="G41" s="3">
-        <v>78200</v>
+        <v>101600</v>
       </c>
       <c r="H41" s="3">
-        <v>79800</v>
+        <v>80600</v>
       </c>
       <c r="I41" s="3">
-        <v>27300</v>
+        <v>82200</v>
       </c>
       <c r="J41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K41" s="3">
         <v>73900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1709,44 +1798,50 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51100</v>
+        <v>58200</v>
       </c>
       <c r="E43" s="3">
-        <v>52300</v>
+        <v>52600</v>
       </c>
       <c r="F43" s="3">
-        <v>38200</v>
+        <v>53800</v>
       </c>
       <c r="G43" s="3">
-        <v>42600</v>
+        <v>39400</v>
       </c>
       <c r="H43" s="3">
-        <v>40600</v>
+        <v>43800</v>
       </c>
       <c r="I43" s="3">
-        <v>63200</v>
+        <v>41800</v>
       </c>
       <c r="J43" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K43" s="3">
         <v>331800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>160800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>140100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,75 +1872,84 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17800</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
         <v>18300</v>
       </c>
       <c r="F45" s="3">
-        <v>17700</v>
+        <v>18800</v>
       </c>
       <c r="G45" s="3">
-        <v>21200</v>
+        <v>18200</v>
       </c>
       <c r="H45" s="3">
-        <v>42300</v>
+        <v>21800</v>
       </c>
       <c r="I45" s="3">
-        <v>974600</v>
+        <v>43600</v>
       </c>
       <c r="J45" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="K45" s="3">
         <v>62000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>141600</v>
+        <v>234800</v>
       </c>
       <c r="E46" s="3">
-        <v>121300</v>
+        <v>145800</v>
       </c>
       <c r="F46" s="3">
-        <v>154600</v>
+        <v>124900</v>
       </c>
       <c r="G46" s="3">
-        <v>141900</v>
+        <v>159200</v>
       </c>
       <c r="H46" s="3">
-        <v>162700</v>
+        <v>146200</v>
       </c>
       <c r="I46" s="3">
-        <v>1033600</v>
+        <v>167600</v>
       </c>
       <c r="J46" s="3">
+        <v>1064700</v>
+      </c>
+      <c r="K46" s="3">
         <v>305400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>259800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>210600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1871,80 +1975,89 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>132800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>408400</v>
+        <v>417100</v>
       </c>
       <c r="E48" s="3">
-        <v>396300</v>
+        <v>420700</v>
       </c>
       <c r="F48" s="3">
-        <v>369500</v>
+        <v>408300</v>
       </c>
       <c r="G48" s="3">
-        <v>358300</v>
+        <v>380600</v>
       </c>
       <c r="H48" s="3">
-        <v>328100</v>
+        <v>369100</v>
       </c>
       <c r="I48" s="3">
-        <v>114700</v>
+        <v>338000</v>
       </c>
       <c r="J48" s="3">
+        <v>118100</v>
+      </c>
+      <c r="K48" s="3">
         <v>576500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>889500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>853600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>69200</v>
+        <v>69900</v>
       </c>
       <c r="E49" s="3">
-        <v>73300</v>
+        <v>71300</v>
       </c>
       <c r="F49" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="G49" s="3">
-        <v>69100</v>
+        <v>76100</v>
       </c>
       <c r="H49" s="3">
-        <v>74200</v>
+        <v>71200</v>
       </c>
       <c r="I49" s="3">
-        <v>25000</v>
+        <v>76400</v>
       </c>
       <c r="J49" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K49" s="3">
         <v>122000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65000</v>
+        <v>42000</v>
       </c>
       <c r="E52" s="3">
-        <v>99100</v>
+        <v>67000</v>
       </c>
       <c r="F52" s="3">
-        <v>121400</v>
+        <v>102100</v>
       </c>
       <c r="G52" s="3">
-        <v>191700</v>
+        <v>125000</v>
       </c>
       <c r="H52" s="3">
-        <v>225600</v>
+        <v>197500</v>
       </c>
       <c r="I52" s="3">
-        <v>173400</v>
+        <v>232400</v>
       </c>
       <c r="J52" s="3">
+        <v>178700</v>
+      </c>
+      <c r="K52" s="3">
         <v>170200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>684200</v>
+        <v>763800</v>
       </c>
       <c r="E54" s="3">
-        <v>690000</v>
+        <v>704800</v>
       </c>
       <c r="F54" s="3">
-        <v>719200</v>
+        <v>710800</v>
       </c>
       <c r="G54" s="3">
-        <v>761100</v>
+        <v>740900</v>
       </c>
       <c r="H54" s="3">
-        <v>790600</v>
+        <v>784000</v>
       </c>
       <c r="I54" s="3">
-        <v>1474400</v>
+        <v>814400</v>
       </c>
       <c r="J54" s="3">
+        <v>1518900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1423500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1361000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1306300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>105400</v>
+        <v>148400</v>
       </c>
       <c r="E57" s="3">
-        <v>102900</v>
+        <v>108600</v>
       </c>
       <c r="F57" s="3">
-        <v>95000</v>
+        <v>106000</v>
       </c>
       <c r="G57" s="3">
-        <v>93800</v>
+        <v>97900</v>
       </c>
       <c r="H57" s="3">
-        <v>107600</v>
+        <v>96600</v>
       </c>
       <c r="I57" s="3">
-        <v>87700</v>
+        <v>110900</v>
       </c>
       <c r="J57" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K57" s="3">
         <v>23900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>103000</v>
+        <v>56600</v>
       </c>
       <c r="E58" s="3">
-        <v>57400</v>
+        <v>106100</v>
       </c>
       <c r="F58" s="3">
-        <v>45900</v>
+        <v>59200</v>
       </c>
       <c r="G58" s="3">
-        <v>42200</v>
+        <v>47300</v>
       </c>
       <c r="H58" s="3">
-        <v>19500</v>
+        <v>43500</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
+        <v>20100</v>
       </c>
       <c r="J58" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K58" s="3">
         <v>114000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>70300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>16700</v>
       </c>
       <c r="E59" s="3">
-        <v>14400</v>
+        <v>4100</v>
       </c>
       <c r="F59" s="3">
-        <v>25700</v>
+        <v>14800</v>
       </c>
       <c r="G59" s="3">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="H59" s="3">
-        <v>40700</v>
+        <v>25300</v>
       </c>
       <c r="I59" s="3">
-        <v>979000</v>
+        <v>41900</v>
       </c>
       <c r="J59" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="K59" s="3">
         <v>195300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>176300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>175700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212400</v>
+        <v>221700</v>
       </c>
       <c r="E60" s="3">
-        <v>174700</v>
+        <v>218800</v>
       </c>
       <c r="F60" s="3">
-        <v>166700</v>
+        <v>180000</v>
       </c>
       <c r="G60" s="3">
-        <v>160500</v>
+        <v>171700</v>
       </c>
       <c r="H60" s="3">
-        <v>167800</v>
+        <v>165300</v>
       </c>
       <c r="I60" s="3">
-        <v>997300</v>
+        <v>172900</v>
       </c>
       <c r="J60" s="3">
+        <v>1027400</v>
+      </c>
+      <c r="K60" s="3">
         <v>333200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>233500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>325300</v>
+        <v>391100</v>
       </c>
       <c r="E61" s="3">
-        <v>349800</v>
+        <v>335100</v>
       </c>
       <c r="F61" s="3">
-        <v>366700</v>
+        <v>360300</v>
       </c>
       <c r="G61" s="3">
-        <v>345500</v>
+        <v>377800</v>
       </c>
       <c r="H61" s="3">
-        <v>330000</v>
+        <v>355900</v>
       </c>
       <c r="I61" s="3">
-        <v>348900</v>
+        <v>340000</v>
       </c>
       <c r="J61" s="3">
+        <v>359400</v>
+      </c>
+      <c r="K61" s="3">
         <v>784000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>783300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>595600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57700</v>
+        <v>49300</v>
       </c>
       <c r="E62" s="3">
-        <v>68500</v>
+        <v>59500</v>
       </c>
       <c r="F62" s="3">
-        <v>86500</v>
+        <v>70600</v>
       </c>
       <c r="G62" s="3">
-        <v>120600</v>
+        <v>89100</v>
       </c>
       <c r="H62" s="3">
-        <v>160200</v>
+        <v>124200</v>
       </c>
       <c r="I62" s="3">
-        <v>130100</v>
+        <v>165000</v>
       </c>
       <c r="J62" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K62" s="3">
         <v>344700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>263200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>595400</v>
+        <v>662100</v>
       </c>
       <c r="E66" s="3">
-        <v>593000</v>
+        <v>613300</v>
       </c>
       <c r="F66" s="3">
-        <v>620000</v>
+        <v>610900</v>
       </c>
       <c r="G66" s="3">
-        <v>626500</v>
+        <v>638600</v>
       </c>
       <c r="H66" s="3">
-        <v>658100</v>
+        <v>645400</v>
       </c>
       <c r="I66" s="3">
-        <v>1476400</v>
+        <v>677900</v>
       </c>
       <c r="J66" s="3">
+        <v>1520800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1394700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1319800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>932600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,9 +2784,12 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2624,32 +2797,35 @@
         <v>-294200</v>
       </c>
       <c r="E72" s="3">
-        <v>-283400</v>
+        <v>-303100</v>
       </c>
       <c r="F72" s="3">
-        <v>-281000</v>
+        <v>-291900</v>
       </c>
       <c r="G72" s="3">
-        <v>-247900</v>
+        <v>-289500</v>
       </c>
       <c r="H72" s="3">
-        <v>-242500</v>
+        <v>-255400</v>
       </c>
       <c r="I72" s="3">
-        <v>-387300</v>
+        <v>-249800</v>
       </c>
       <c r="J72" s="3">
+        <v>-399000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-340500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-297400</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88800</v>
+        <v>101700</v>
       </c>
       <c r="E76" s="3">
-        <v>97000</v>
+        <v>91500</v>
       </c>
       <c r="F76" s="3">
-        <v>99300</v>
+        <v>99900</v>
       </c>
       <c r="G76" s="3">
-        <v>134500</v>
+        <v>102300</v>
       </c>
       <c r="H76" s="3">
-        <v>132500</v>
+        <v>138600</v>
       </c>
       <c r="I76" s="3">
-        <v>-1900</v>
+        <v>136500</v>
       </c>
       <c r="J76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K76" s="3">
         <v>28800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>373800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>38717</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="E81" s="3">
-        <v>24400</v>
+        <v>22700</v>
       </c>
       <c r="F81" s="3">
-        <v>1600</v>
+        <v>25200</v>
       </c>
       <c r="G81" s="3">
-        <v>27300</v>
+        <v>1700</v>
       </c>
       <c r="H81" s="3">
-        <v>178700</v>
+        <v>28100</v>
       </c>
       <c r="I81" s="3">
-        <v>-14400</v>
+        <v>184000</v>
       </c>
       <c r="J81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30500</v>
+        <v>30800</v>
       </c>
       <c r="E83" s="3">
-        <v>27200</v>
+        <v>31400</v>
       </c>
       <c r="F83" s="3">
-        <v>24200</v>
+        <v>28000</v>
       </c>
       <c r="G83" s="3">
         <v>24900</v>
       </c>
       <c r="H83" s="3">
-        <v>21000</v>
+        <v>25700</v>
       </c>
       <c r="I83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>57800</v>
+      </c>
+      <c r="M83" s="3">
         <v>52500</v>
       </c>
-      <c r="J83" s="3">
-        <v>60000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>57800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>52500</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34800</v>
+        <v>96200</v>
       </c>
       <c r="E89" s="3">
-        <v>30400</v>
+        <v>35800</v>
       </c>
       <c r="F89" s="3">
-        <v>36300</v>
+        <v>31300</v>
       </c>
       <c r="G89" s="3">
+        <v>37400</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>40600</v>
-      </c>
       <c r="I89" s="3">
-        <v>65900</v>
+        <v>41900</v>
       </c>
       <c r="J89" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K89" s="3">
         <v>75400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>104600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="E91" s="3">
-        <v>-39000</v>
+        <v>-26300</v>
       </c>
       <c r="F91" s="3">
-        <v>-31700</v>
+        <v>-40200</v>
       </c>
       <c r="G91" s="3">
-        <v>-29900</v>
+        <v>-32600</v>
       </c>
       <c r="H91" s="3">
-        <v>-27300</v>
+        <v>-30800</v>
       </c>
       <c r="I91" s="3">
-        <v>-23300</v>
+        <v>-28100</v>
       </c>
       <c r="J91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-42900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9800</v>
+        <v>1600</v>
       </c>
       <c r="E94" s="3">
-        <v>-42400</v>
+        <v>10100</v>
       </c>
       <c r="F94" s="3">
-        <v>4300</v>
+        <v>-43700</v>
       </c>
       <c r="G94" s="3">
-        <v>-13400</v>
+        <v>4400</v>
       </c>
       <c r="H94" s="3">
-        <v>-46000</v>
+        <v>-13800</v>
       </c>
       <c r="I94" s="3">
-        <v>-38300</v>
+        <v>-47400</v>
       </c>
       <c r="J94" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-183900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28700</v>
+        <v>-32700</v>
       </c>
       <c r="E96" s="3">
-        <v>-28800</v>
+        <v>-29500</v>
       </c>
       <c r="F96" s="3">
-        <v>-28900</v>
+        <v>-29700</v>
       </c>
       <c r="G96" s="3">
-        <v>-27800</v>
+        <v>-29700</v>
       </c>
       <c r="H96" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="I96" s="3">
-        <v>-27400</v>
+        <v>-28200</v>
       </c>
       <c r="J96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-35100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-42900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22100</v>
+        <v>-30300</v>
       </c>
       <c r="E100" s="3">
-        <v>-37500</v>
+        <v>-22700</v>
       </c>
       <c r="F100" s="3">
-        <v>-18200</v>
+        <v>-38700</v>
       </c>
       <c r="G100" s="3">
-        <v>12200</v>
+        <v>-18700</v>
       </c>
       <c r="H100" s="3">
-        <v>5600</v>
+        <v>12500</v>
       </c>
       <c r="I100" s="3">
-        <v>-29000</v>
+        <v>5800</v>
       </c>
       <c r="J100" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-24900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>3400</v>
-      </c>
       <c r="I101" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22000</v>
+        <v>67800</v>
       </c>
       <c r="E102" s="3">
-        <v>-47900</v>
+        <v>22700</v>
       </c>
       <c r="F102" s="3">
-        <v>20500</v>
+        <v>-49400</v>
       </c>
       <c r="G102" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
-        <v>3700</v>
-      </c>
       <c r="I102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-102600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>918500</v>
+        <v>960300</v>
       </c>
       <c r="E8" s="3">
-        <v>897700</v>
+        <v>938400</v>
       </c>
       <c r="F8" s="3">
-        <v>888200</v>
+        <v>928500</v>
       </c>
       <c r="G8" s="3">
-        <v>870200</v>
+        <v>909700</v>
       </c>
       <c r="H8" s="3">
-        <v>841200</v>
+        <v>879400</v>
       </c>
       <c r="I8" s="3">
-        <v>748000</v>
+        <v>782000</v>
       </c>
       <c r="J8" s="3">
-        <v>647200</v>
+        <v>676600</v>
       </c>
       <c r="K8" s="3">
         <v>603400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>774100</v>
+        <v>809300</v>
       </c>
       <c r="E9" s="3">
-        <v>791800</v>
+        <v>827800</v>
       </c>
       <c r="F9" s="3">
-        <v>781900</v>
+        <v>817500</v>
       </c>
       <c r="G9" s="3">
-        <v>767900</v>
+        <v>802700</v>
       </c>
       <c r="H9" s="3">
-        <v>743300</v>
+        <v>777000</v>
       </c>
       <c r="I9" s="3">
-        <v>657800</v>
+        <v>687700</v>
       </c>
       <c r="J9" s="3">
-        <v>565600</v>
+        <v>591200</v>
       </c>
       <c r="K9" s="3">
         <v>525700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>144400</v>
+        <v>151000</v>
       </c>
       <c r="E10" s="3">
-        <v>105800</v>
+        <v>110600</v>
       </c>
       <c r="F10" s="3">
-        <v>106300</v>
+        <v>111100</v>
       </c>
       <c r="G10" s="3">
+        <v>107000</v>
+      </c>
+      <c r="H10" s="3">
         <v>102400</v>
       </c>
-      <c r="H10" s="3">
-        <v>97900</v>
-      </c>
       <c r="I10" s="3">
-        <v>90300</v>
+        <v>94400</v>
       </c>
       <c r="J10" s="3">
-        <v>81600</v>
+        <v>85400</v>
       </c>
       <c r="K10" s="3">
         <v>77700</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E14" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I14" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="J14" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="K14" s="3">
         <v>1500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="E15" s="3">
-        <v>62800</v>
+        <v>65600</v>
       </c>
       <c r="F15" s="3">
-        <v>28000</v>
+        <v>29200</v>
       </c>
       <c r="G15" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="H15" s="3">
-        <v>24700</v>
+        <v>25800</v>
       </c>
       <c r="I15" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="J15" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="K15" s="3">
         <v>16700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>847900</v>
+        <v>886400</v>
       </c>
       <c r="E17" s="3">
-        <v>857800</v>
+        <v>896700</v>
       </c>
       <c r="F17" s="3">
-        <v>857400</v>
+        <v>896400</v>
       </c>
       <c r="G17" s="3">
-        <v>817700</v>
+        <v>854800</v>
       </c>
       <c r="H17" s="3">
-        <v>795400</v>
+        <v>831500</v>
       </c>
       <c r="I17" s="3">
-        <v>705800</v>
+        <v>737800</v>
       </c>
       <c r="J17" s="3">
-        <v>609500</v>
+        <v>637200</v>
       </c>
       <c r="K17" s="3">
         <v>568000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>70600</v>
+        <v>73800</v>
       </c>
       <c r="E18" s="3">
-        <v>39900</v>
+        <v>41700</v>
       </c>
       <c r="F18" s="3">
-        <v>30700</v>
+        <v>32100</v>
       </c>
       <c r="G18" s="3">
-        <v>52500</v>
+        <v>54900</v>
       </c>
       <c r="H18" s="3">
-        <v>45800</v>
+        <v>47900</v>
       </c>
       <c r="I18" s="3">
-        <v>42300</v>
+        <v>44200</v>
       </c>
       <c r="J18" s="3">
-        <v>37700</v>
+        <v>39400</v>
       </c>
       <c r="K18" s="3">
         <v>35400</v>
@@ -1098,13 +1098,13 @@
         <v>900</v>
       </c>
       <c r="G20" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H20" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I20" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="J20" s="3">
         <v>1600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100100</v>
+        <v>104600</v>
       </c>
       <c r="E21" s="3">
-        <v>71700</v>
+        <v>74900</v>
       </c>
       <c r="F21" s="3">
-        <v>59700</v>
+        <v>62400</v>
       </c>
       <c r="G21" s="3">
-        <v>81000</v>
+        <v>84600</v>
       </c>
       <c r="H21" s="3">
-        <v>78000</v>
+        <v>81500</v>
       </c>
       <c r="I21" s="3">
-        <v>76100</v>
+        <v>79600</v>
       </c>
       <c r="J21" s="3">
-        <v>93500</v>
+        <v>97700</v>
       </c>
       <c r="K21" s="3">
         <v>99000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22600</v>
+        <v>23600</v>
       </c>
       <c r="E22" s="3">
-        <v>22800</v>
+        <v>23800</v>
       </c>
       <c r="F22" s="3">
-        <v>21900</v>
+        <v>22900</v>
       </c>
       <c r="G22" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="H22" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="I22" s="3">
-        <v>24700</v>
+        <v>25800</v>
       </c>
       <c r="J22" s="3">
-        <v>26100</v>
+        <v>27300</v>
       </c>
       <c r="K22" s="3">
         <v>26600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46700</v>
+        <v>48800</v>
       </c>
       <c r="E23" s="3">
-        <v>17400</v>
+        <v>18200</v>
       </c>
       <c r="F23" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="G23" s="3">
-        <v>33800</v>
+        <v>35300</v>
       </c>
       <c r="H23" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="I23" s="3">
-        <v>29800</v>
+        <v>31100</v>
       </c>
       <c r="J23" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="E24" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G24" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H24" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I24" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="J24" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K24" s="3">
         <v>4700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33800</v>
+        <v>35300</v>
       </c>
       <c r="E26" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="F26" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="G26" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="H26" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="I26" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="K26" s="3">
         <v>7800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33800</v>
+        <v>35300</v>
       </c>
       <c r="E27" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="F27" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="G27" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="H27" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="I27" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="J27" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="K27" s="3">
         <v>7800</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="E29" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="F29" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="G29" s="3">
-        <v>-23500</v>
+        <v>-24500</v>
       </c>
       <c r="H29" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I29" s="3">
-        <v>165200</v>
+        <v>172700</v>
       </c>
       <c r="J29" s="3">
-        <v>-23600</v>
+        <v>-24700</v>
       </c>
       <c r="K29" s="3">
         <v>-3800</v>
@@ -1530,13 +1530,13 @@
         <v>-900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="I32" s="3">
-        <v>-12100</v>
+        <v>-12700</v>
       </c>
       <c r="J32" s="3">
         <v>-1600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43000</v>
+        <v>44900</v>
       </c>
       <c r="E33" s="3">
-        <v>22700</v>
+        <v>23700</v>
       </c>
       <c r="F33" s="3">
-        <v>25200</v>
+        <v>26300</v>
       </c>
       <c r="G33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H33" s="3">
-        <v>28100</v>
+        <v>29400</v>
       </c>
       <c r="I33" s="3">
-        <v>184000</v>
+        <v>192400</v>
       </c>
       <c r="J33" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="K33" s="3">
         <v>4100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43000</v>
+        <v>44900</v>
       </c>
       <c r="E35" s="3">
-        <v>22700</v>
+        <v>23700</v>
       </c>
       <c r="F35" s="3">
-        <v>25200</v>
+        <v>26300</v>
       </c>
       <c r="G35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H35" s="3">
-        <v>28100</v>
+        <v>29400</v>
       </c>
       <c r="I35" s="3">
-        <v>184000</v>
+        <v>192400</v>
       </c>
       <c r="J35" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="K35" s="3">
         <v>4100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142700</v>
+        <v>149200</v>
       </c>
       <c r="E41" s="3">
-        <v>74900</v>
+        <v>78300</v>
       </c>
       <c r="F41" s="3">
-        <v>52300</v>
+        <v>54600</v>
       </c>
       <c r="G41" s="3">
-        <v>101600</v>
+        <v>106200</v>
       </c>
       <c r="H41" s="3">
-        <v>80600</v>
+        <v>84200</v>
       </c>
       <c r="I41" s="3">
-        <v>82200</v>
+        <v>85900</v>
       </c>
       <c r="J41" s="3">
-        <v>28100</v>
+        <v>29400</v>
       </c>
       <c r="K41" s="3">
         <v>73900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>58200</v>
+        <v>60800</v>
       </c>
       <c r="E43" s="3">
-        <v>52600</v>
+        <v>55000</v>
       </c>
       <c r="F43" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="G43" s="3">
-        <v>39400</v>
+        <v>41200</v>
       </c>
       <c r="H43" s="3">
-        <v>43800</v>
+        <v>45800</v>
       </c>
       <c r="I43" s="3">
-        <v>41800</v>
+        <v>43700</v>
       </c>
       <c r="J43" s="3">
-        <v>65100</v>
+        <v>68100</v>
       </c>
       <c r="K43" s="3">
         <v>331800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33900</v>
+        <v>35400</v>
       </c>
       <c r="E45" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="F45" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="G45" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="H45" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="I45" s="3">
-        <v>43600</v>
+        <v>45600</v>
       </c>
       <c r="J45" s="3">
-        <v>1004000</v>
+        <v>1049600</v>
       </c>
       <c r="K45" s="3">
         <v>62000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>234800</v>
+        <v>245500</v>
       </c>
       <c r="E46" s="3">
-        <v>145800</v>
+        <v>152500</v>
       </c>
       <c r="F46" s="3">
-        <v>124900</v>
+        <v>130600</v>
       </c>
       <c r="G46" s="3">
-        <v>159200</v>
+        <v>166500</v>
       </c>
       <c r="H46" s="3">
-        <v>146200</v>
+        <v>152800</v>
       </c>
       <c r="I46" s="3">
-        <v>167600</v>
+        <v>175200</v>
       </c>
       <c r="J46" s="3">
-        <v>1064700</v>
+        <v>1113100</v>
       </c>
       <c r="K46" s="3">
         <v>305400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>417100</v>
+        <v>436000</v>
       </c>
       <c r="E48" s="3">
-        <v>420700</v>
+        <v>439800</v>
       </c>
       <c r="F48" s="3">
-        <v>408300</v>
+        <v>426800</v>
       </c>
       <c r="G48" s="3">
-        <v>380600</v>
+        <v>397900</v>
       </c>
       <c r="H48" s="3">
-        <v>369100</v>
+        <v>385900</v>
       </c>
       <c r="I48" s="3">
-        <v>338000</v>
+        <v>353300</v>
       </c>
       <c r="J48" s="3">
-        <v>118100</v>
+        <v>123500</v>
       </c>
       <c r="K48" s="3">
         <v>576500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>69900</v>
+        <v>73100</v>
       </c>
       <c r="E49" s="3">
-        <v>71300</v>
+        <v>74500</v>
       </c>
       <c r="F49" s="3">
-        <v>75500</v>
+        <v>78900</v>
       </c>
       <c r="G49" s="3">
-        <v>76100</v>
+        <v>79500</v>
       </c>
       <c r="H49" s="3">
-        <v>71200</v>
+        <v>74400</v>
       </c>
       <c r="I49" s="3">
-        <v>76400</v>
+        <v>79900</v>
       </c>
       <c r="J49" s="3">
-        <v>25700</v>
+        <v>26900</v>
       </c>
       <c r="K49" s="3">
         <v>122000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42000</v>
+        <v>43900</v>
       </c>
       <c r="E52" s="3">
-        <v>67000</v>
+        <v>70100</v>
       </c>
       <c r="F52" s="3">
-        <v>102100</v>
+        <v>106700</v>
       </c>
       <c r="G52" s="3">
-        <v>125000</v>
+        <v>130700</v>
       </c>
       <c r="H52" s="3">
-        <v>197500</v>
+        <v>206500</v>
       </c>
       <c r="I52" s="3">
-        <v>232400</v>
+        <v>242900</v>
       </c>
       <c r="J52" s="3">
-        <v>178700</v>
+        <v>186800</v>
       </c>
       <c r="K52" s="3">
         <v>170200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>763800</v>
+        <v>798500</v>
       </c>
       <c r="E54" s="3">
-        <v>704800</v>
+        <v>736900</v>
       </c>
       <c r="F54" s="3">
-        <v>710800</v>
+        <v>743100</v>
       </c>
       <c r="G54" s="3">
-        <v>740900</v>
+        <v>774600</v>
       </c>
       <c r="H54" s="3">
-        <v>784000</v>
+        <v>819600</v>
       </c>
       <c r="I54" s="3">
-        <v>814400</v>
+        <v>851400</v>
       </c>
       <c r="J54" s="3">
-        <v>1518900</v>
+        <v>1587900</v>
       </c>
       <c r="K54" s="3">
         <v>1423500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>148400</v>
+        <v>155100</v>
       </c>
       <c r="E57" s="3">
-        <v>108600</v>
+        <v>113500</v>
       </c>
       <c r="F57" s="3">
-        <v>106000</v>
+        <v>110800</v>
       </c>
       <c r="G57" s="3">
-        <v>97900</v>
+        <v>102300</v>
       </c>
       <c r="H57" s="3">
-        <v>96600</v>
+        <v>101000</v>
       </c>
       <c r="I57" s="3">
-        <v>110900</v>
+        <v>115900</v>
       </c>
       <c r="J57" s="3">
-        <v>90300</v>
+        <v>94400</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56600</v>
+        <v>59200</v>
       </c>
       <c r="E58" s="3">
-        <v>106100</v>
+        <v>110900</v>
       </c>
       <c r="F58" s="3">
-        <v>59200</v>
+        <v>61900</v>
       </c>
       <c r="G58" s="3">
-        <v>47300</v>
+        <v>49500</v>
       </c>
       <c r="H58" s="3">
-        <v>43500</v>
+        <v>45500</v>
       </c>
       <c r="I58" s="3">
-        <v>20100</v>
+        <v>21100</v>
       </c>
       <c r="J58" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="K58" s="3">
         <v>114000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="E59" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="F59" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="G59" s="3">
-        <v>26500</v>
+        <v>27700</v>
       </c>
       <c r="H59" s="3">
-        <v>25300</v>
+        <v>26400</v>
       </c>
       <c r="I59" s="3">
-        <v>41900</v>
+        <v>43800</v>
       </c>
       <c r="J59" s="3">
-        <v>1008500</v>
+        <v>1054300</v>
       </c>
       <c r="K59" s="3">
         <v>195300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221700</v>
+        <v>231700</v>
       </c>
       <c r="E60" s="3">
-        <v>218800</v>
+        <v>228700</v>
       </c>
       <c r="F60" s="3">
-        <v>180000</v>
+        <v>188200</v>
       </c>
       <c r="G60" s="3">
-        <v>171700</v>
+        <v>179500</v>
       </c>
       <c r="H60" s="3">
-        <v>165300</v>
+        <v>172900</v>
       </c>
       <c r="I60" s="3">
-        <v>172900</v>
+        <v>180700</v>
       </c>
       <c r="J60" s="3">
-        <v>1027400</v>
+        <v>1074100</v>
       </c>
       <c r="K60" s="3">
         <v>333200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>391100</v>
+        <v>408900</v>
       </c>
       <c r="E61" s="3">
-        <v>335100</v>
+        <v>350300</v>
       </c>
       <c r="F61" s="3">
-        <v>360300</v>
+        <v>376700</v>
       </c>
       <c r="G61" s="3">
-        <v>377800</v>
+        <v>395000</v>
       </c>
       <c r="H61" s="3">
-        <v>355900</v>
+        <v>372000</v>
       </c>
       <c r="I61" s="3">
-        <v>340000</v>
+        <v>355400</v>
       </c>
       <c r="J61" s="3">
-        <v>359400</v>
+        <v>375700</v>
       </c>
       <c r="K61" s="3">
         <v>784000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49300</v>
+        <v>51600</v>
       </c>
       <c r="E62" s="3">
-        <v>59500</v>
+        <v>62200</v>
       </c>
       <c r="F62" s="3">
-        <v>70600</v>
+        <v>73800</v>
       </c>
       <c r="G62" s="3">
-        <v>89100</v>
+        <v>93200</v>
       </c>
       <c r="H62" s="3">
-        <v>124200</v>
+        <v>129800</v>
       </c>
       <c r="I62" s="3">
-        <v>165000</v>
+        <v>172500</v>
       </c>
       <c r="J62" s="3">
-        <v>134100</v>
+        <v>140200</v>
       </c>
       <c r="K62" s="3">
         <v>344700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>662100</v>
+        <v>692200</v>
       </c>
       <c r="E66" s="3">
-        <v>613300</v>
+        <v>641200</v>
       </c>
       <c r="F66" s="3">
-        <v>610900</v>
+        <v>638600</v>
       </c>
       <c r="G66" s="3">
-        <v>638600</v>
+        <v>667700</v>
       </c>
       <c r="H66" s="3">
-        <v>645400</v>
+        <v>674700</v>
       </c>
       <c r="I66" s="3">
-        <v>677900</v>
+        <v>708700</v>
       </c>
       <c r="J66" s="3">
-        <v>1520800</v>
+        <v>1589900</v>
       </c>
       <c r="K66" s="3">
         <v>1394700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-294200</v>
+        <v>-307500</v>
       </c>
       <c r="E72" s="3">
-        <v>-303100</v>
+        <v>-316900</v>
       </c>
       <c r="F72" s="3">
-        <v>-291900</v>
+        <v>-305200</v>
       </c>
       <c r="G72" s="3">
-        <v>-289500</v>
+        <v>-302700</v>
       </c>
       <c r="H72" s="3">
-        <v>-255400</v>
+        <v>-267000</v>
       </c>
       <c r="I72" s="3">
-        <v>-249800</v>
+        <v>-261200</v>
       </c>
       <c r="J72" s="3">
-        <v>-399000</v>
+        <v>-417100</v>
       </c>
       <c r="K72" s="3">
         <v>-340500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101700</v>
+        <v>106300</v>
       </c>
       <c r="E76" s="3">
-        <v>91500</v>
+        <v>95700</v>
       </c>
       <c r="F76" s="3">
-        <v>99900</v>
+        <v>104500</v>
       </c>
       <c r="G76" s="3">
-        <v>102300</v>
+        <v>106900</v>
       </c>
       <c r="H76" s="3">
-        <v>138600</v>
+        <v>144900</v>
       </c>
       <c r="I76" s="3">
-        <v>136500</v>
+        <v>142700</v>
       </c>
       <c r="J76" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="K76" s="3">
         <v>28800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43000</v>
+        <v>44900</v>
       </c>
       <c r="E81" s="3">
-        <v>22700</v>
+        <v>23700</v>
       </c>
       <c r="F81" s="3">
-        <v>25200</v>
+        <v>26300</v>
       </c>
       <c r="G81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H81" s="3">
-        <v>28100</v>
+        <v>29400</v>
       </c>
       <c r="I81" s="3">
-        <v>184000</v>
+        <v>192400</v>
       </c>
       <c r="J81" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="K81" s="3">
         <v>4100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="E83" s="3">
-        <v>31400</v>
+        <v>32800</v>
       </c>
       <c r="F83" s="3">
-        <v>28000</v>
+        <v>29200</v>
       </c>
       <c r="G83" s="3">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="H83" s="3">
-        <v>25700</v>
+        <v>26800</v>
       </c>
       <c r="I83" s="3">
-        <v>21600</v>
+        <v>22600</v>
       </c>
       <c r="J83" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="K83" s="3">
         <v>60000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96200</v>
+        <v>100500</v>
       </c>
       <c r="E89" s="3">
-        <v>35800</v>
+        <v>37500</v>
       </c>
       <c r="F89" s="3">
-        <v>31300</v>
+        <v>32700</v>
       </c>
       <c r="G89" s="3">
-        <v>37400</v>
+        <v>39100</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>41900</v>
+        <v>43800</v>
       </c>
       <c r="J89" s="3">
-        <v>67900</v>
+        <v>71000</v>
       </c>
       <c r="K89" s="3">
         <v>75400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26200</v>
+        <v>-27400</v>
       </c>
       <c r="E91" s="3">
-        <v>-26300</v>
+        <v>-27500</v>
       </c>
       <c r="F91" s="3">
-        <v>-40200</v>
+        <v>-42000</v>
       </c>
       <c r="G91" s="3">
-        <v>-32600</v>
+        <v>-34100</v>
       </c>
       <c r="H91" s="3">
-        <v>-30800</v>
+        <v>-32200</v>
       </c>
       <c r="I91" s="3">
-        <v>-28100</v>
+        <v>-29400</v>
       </c>
       <c r="J91" s="3">
-        <v>-24000</v>
+        <v>-25100</v>
       </c>
       <c r="K91" s="3">
         <v>-42900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E94" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="F94" s="3">
-        <v>-43700</v>
+        <v>-45600</v>
       </c>
       <c r="G94" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H94" s="3">
-        <v>-13800</v>
+        <v>-14500</v>
       </c>
       <c r="I94" s="3">
-        <v>-47400</v>
+        <v>-49500</v>
       </c>
       <c r="J94" s="3">
-        <v>-39400</v>
+        <v>-41200</v>
       </c>
       <c r="K94" s="3">
         <v>-33500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32700</v>
+        <v>-34200</v>
       </c>
       <c r="E96" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-29500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-28600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-28200</v>
-      </c>
       <c r="J96" s="3">
-        <v>-28300</v>
+        <v>-29500</v>
       </c>
       <c r="K96" s="3">
         <v>-35100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30300</v>
+        <v>-31600</v>
       </c>
       <c r="E100" s="3">
-        <v>-22700</v>
+        <v>-23800</v>
       </c>
       <c r="F100" s="3">
-        <v>-38700</v>
+        <v>-40400</v>
       </c>
       <c r="G100" s="3">
-        <v>-18700</v>
+        <v>-19600</v>
       </c>
       <c r="H100" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="I100" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J100" s="3">
-        <v>-29900</v>
+        <v>-31300</v>
       </c>
       <c r="K100" s="3">
         <v>-24900</v>
@@ -3717,19 +3717,19 @@
         <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
         <v>-600</v>
       </c>
       <c r="I101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67800</v>
+        <v>70900</v>
       </c>
       <c r="E102" s="3">
-        <v>22700</v>
+        <v>23700</v>
       </c>
       <c r="F102" s="3">
-        <v>-49400</v>
+        <v>-51600</v>
       </c>
       <c r="G102" s="3">
-        <v>21100</v>
+        <v>22000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I102" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J102" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>18900</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>960300</v>
+        <v>903100</v>
       </c>
       <c r="E8" s="3">
-        <v>938400</v>
+        <v>882500</v>
       </c>
       <c r="F8" s="3">
-        <v>928500</v>
+        <v>873200</v>
       </c>
       <c r="G8" s="3">
-        <v>909700</v>
+        <v>855600</v>
       </c>
       <c r="H8" s="3">
-        <v>879400</v>
+        <v>827000</v>
       </c>
       <c r="I8" s="3">
-        <v>782000</v>
+        <v>735400</v>
       </c>
       <c r="J8" s="3">
-        <v>676600</v>
+        <v>636300</v>
       </c>
       <c r="K8" s="3">
         <v>603400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>809300</v>
+        <v>761100</v>
       </c>
       <c r="E9" s="3">
-        <v>827800</v>
+        <v>778500</v>
       </c>
       <c r="F9" s="3">
-        <v>817500</v>
+        <v>768800</v>
       </c>
       <c r="G9" s="3">
-        <v>802700</v>
+        <v>754900</v>
       </c>
       <c r="H9" s="3">
-        <v>777000</v>
+        <v>730800</v>
       </c>
       <c r="I9" s="3">
-        <v>687700</v>
+        <v>646700</v>
       </c>
       <c r="J9" s="3">
-        <v>591200</v>
+        <v>556000</v>
       </c>
       <c r="K9" s="3">
         <v>525700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>151000</v>
+        <v>142000</v>
       </c>
       <c r="E10" s="3">
-        <v>110600</v>
+        <v>104000</v>
       </c>
       <c r="F10" s="3">
-        <v>111100</v>
+        <v>104500</v>
       </c>
       <c r="G10" s="3">
-        <v>107000</v>
+        <v>100600</v>
       </c>
       <c r="H10" s="3">
-        <v>102400</v>
+        <v>96300</v>
       </c>
       <c r="I10" s="3">
-        <v>94400</v>
+        <v>88800</v>
       </c>
       <c r="J10" s="3">
-        <v>85400</v>
+        <v>80300</v>
       </c>
       <c r="K10" s="3">
         <v>77700</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F14" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I14" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="J14" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="K14" s="3">
         <v>1500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32200</v>
+        <v>30200</v>
       </c>
       <c r="E15" s="3">
-        <v>65600</v>
+        <v>61700</v>
       </c>
       <c r="F15" s="3">
-        <v>29200</v>
+        <v>27500</v>
       </c>
       <c r="G15" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="H15" s="3">
-        <v>25800</v>
+        <v>24300</v>
       </c>
       <c r="I15" s="3">
-        <v>19600</v>
+        <v>18500</v>
       </c>
       <c r="J15" s="3">
-        <v>19800</v>
+        <v>18600</v>
       </c>
       <c r="K15" s="3">
         <v>16700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>886400</v>
+        <v>833600</v>
       </c>
       <c r="E17" s="3">
-        <v>896700</v>
+        <v>843300</v>
       </c>
       <c r="F17" s="3">
-        <v>896400</v>
+        <v>843000</v>
       </c>
       <c r="G17" s="3">
-        <v>854800</v>
+        <v>803900</v>
       </c>
       <c r="H17" s="3">
-        <v>831500</v>
+        <v>782000</v>
       </c>
       <c r="I17" s="3">
-        <v>737800</v>
+        <v>693900</v>
       </c>
       <c r="J17" s="3">
-        <v>637200</v>
+        <v>599200</v>
       </c>
       <c r="K17" s="3">
         <v>568000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>73800</v>
+        <v>69500</v>
       </c>
       <c r="E18" s="3">
-        <v>41700</v>
+        <v>39200</v>
       </c>
       <c r="F18" s="3">
-        <v>32100</v>
+        <v>30200</v>
       </c>
       <c r="G18" s="3">
-        <v>54900</v>
+        <v>51600</v>
       </c>
       <c r="H18" s="3">
-        <v>47900</v>
+        <v>45000</v>
       </c>
       <c r="I18" s="3">
-        <v>44200</v>
+        <v>41600</v>
       </c>
       <c r="J18" s="3">
-        <v>39400</v>
+        <v>37100</v>
       </c>
       <c r="K18" s="3">
         <v>35400</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1098,16 +1098,16 @@
         <v>900</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="I20" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="J20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K20" s="3">
         <v>3700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>104600</v>
+        <v>98800</v>
       </c>
       <c r="E21" s="3">
-        <v>74900</v>
+        <v>70800</v>
       </c>
       <c r="F21" s="3">
-        <v>62400</v>
+        <v>59000</v>
       </c>
       <c r="G21" s="3">
-        <v>84600</v>
+        <v>79900</v>
       </c>
       <c r="H21" s="3">
-        <v>81500</v>
+        <v>76900</v>
       </c>
       <c r="I21" s="3">
-        <v>79600</v>
+        <v>75100</v>
       </c>
       <c r="J21" s="3">
-        <v>97700</v>
+        <v>92500</v>
       </c>
       <c r="K21" s="3">
         <v>99000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="E22" s="3">
-        <v>23800</v>
+        <v>22400</v>
       </c>
       <c r="F22" s="3">
-        <v>22900</v>
+        <v>21500</v>
       </c>
       <c r="G22" s="3">
-        <v>23300</v>
+        <v>21900</v>
       </c>
       <c r="H22" s="3">
-        <v>22400</v>
+        <v>21100</v>
       </c>
       <c r="I22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="J22" s="3">
-        <v>27300</v>
+        <v>25700</v>
       </c>
       <c r="K22" s="3">
         <v>26600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48800</v>
+        <v>45900</v>
       </c>
       <c r="E23" s="3">
-        <v>18200</v>
+        <v>17100</v>
       </c>
       <c r="F23" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="G23" s="3">
-        <v>35300</v>
+        <v>33200</v>
       </c>
       <c r="H23" s="3">
-        <v>32200</v>
+        <v>30300</v>
       </c>
       <c r="I23" s="3">
-        <v>31100</v>
+        <v>29300</v>
       </c>
       <c r="J23" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G24" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="H24" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="J24" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="K24" s="3">
         <v>4700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35300</v>
+        <v>33200</v>
       </c>
       <c r="E26" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="F26" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G26" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="H26" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="J26" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="K26" s="3">
         <v>7800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35300</v>
+        <v>33200</v>
       </c>
       <c r="E27" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="F27" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G27" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="H27" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="I27" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="J27" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="K27" s="3">
         <v>7800</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="E29" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="F29" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="G29" s="3">
-        <v>-24500</v>
+        <v>-23100</v>
       </c>
       <c r="H29" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I29" s="3">
-        <v>172700</v>
+        <v>162500</v>
       </c>
       <c r="J29" s="3">
-        <v>-24700</v>
+        <v>-23300</v>
       </c>
       <c r="K29" s="3">
         <v>-3800</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1530,16 +1530,16 @@
         <v>-900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="I32" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K32" s="3">
         <v>-3700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44900</v>
+        <v>42200</v>
       </c>
       <c r="E33" s="3">
-        <v>23700</v>
+        <v>22300</v>
       </c>
       <c r="F33" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="G33" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H33" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="I33" s="3">
-        <v>192400</v>
+        <v>180900</v>
       </c>
       <c r="J33" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="K33" s="3">
         <v>4100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44900</v>
+        <v>42200</v>
       </c>
       <c r="E35" s="3">
-        <v>23700</v>
+        <v>22300</v>
       </c>
       <c r="F35" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="G35" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H35" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="I35" s="3">
-        <v>192400</v>
+        <v>180900</v>
       </c>
       <c r="J35" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="K35" s="3">
         <v>4100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149200</v>
+        <v>140300</v>
       </c>
       <c r="E41" s="3">
-        <v>78300</v>
+        <v>73600</v>
       </c>
       <c r="F41" s="3">
-        <v>54600</v>
+        <v>51400</v>
       </c>
       <c r="G41" s="3">
-        <v>106200</v>
+        <v>99900</v>
       </c>
       <c r="H41" s="3">
-        <v>84200</v>
+        <v>79200</v>
       </c>
       <c r="I41" s="3">
-        <v>85900</v>
+        <v>80800</v>
       </c>
       <c r="J41" s="3">
-        <v>29400</v>
+        <v>27700</v>
       </c>
       <c r="K41" s="3">
         <v>73900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60800</v>
+        <v>57200</v>
       </c>
       <c r="E43" s="3">
-        <v>55000</v>
+        <v>51700</v>
       </c>
       <c r="F43" s="3">
-        <v>56300</v>
+        <v>52900</v>
       </c>
       <c r="G43" s="3">
-        <v>41200</v>
+        <v>38700</v>
       </c>
       <c r="H43" s="3">
-        <v>45800</v>
+        <v>43100</v>
       </c>
       <c r="I43" s="3">
-        <v>43700</v>
+        <v>41100</v>
       </c>
       <c r="J43" s="3">
-        <v>68100</v>
+        <v>64000</v>
       </c>
       <c r="K43" s="3">
         <v>331800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35400</v>
+        <v>33300</v>
       </c>
       <c r="E45" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="F45" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="G45" s="3">
-        <v>19000</v>
+        <v>17900</v>
       </c>
       <c r="H45" s="3">
-        <v>22800</v>
+        <v>21400</v>
       </c>
       <c r="I45" s="3">
-        <v>45600</v>
+        <v>42900</v>
       </c>
       <c r="J45" s="3">
-        <v>1049600</v>
+        <v>987100</v>
       </c>
       <c r="K45" s="3">
         <v>62000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>245500</v>
+        <v>230800</v>
       </c>
       <c r="E46" s="3">
-        <v>152500</v>
+        <v>143400</v>
       </c>
       <c r="F46" s="3">
-        <v>130600</v>
+        <v>122800</v>
       </c>
       <c r="G46" s="3">
-        <v>166500</v>
+        <v>156500</v>
       </c>
       <c r="H46" s="3">
-        <v>152800</v>
+        <v>143700</v>
       </c>
       <c r="I46" s="3">
-        <v>175200</v>
+        <v>164800</v>
       </c>
       <c r="J46" s="3">
-        <v>1113100</v>
+        <v>1046800</v>
       </c>
       <c r="K46" s="3">
         <v>305400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>436000</v>
+        <v>410000</v>
       </c>
       <c r="E48" s="3">
-        <v>439800</v>
+        <v>413600</v>
       </c>
       <c r="F48" s="3">
-        <v>426800</v>
+        <v>401400</v>
       </c>
       <c r="G48" s="3">
-        <v>397900</v>
+        <v>374200</v>
       </c>
       <c r="H48" s="3">
-        <v>385900</v>
+        <v>362900</v>
       </c>
       <c r="I48" s="3">
-        <v>353300</v>
+        <v>332300</v>
       </c>
       <c r="J48" s="3">
-        <v>123500</v>
+        <v>116100</v>
       </c>
       <c r="K48" s="3">
         <v>576500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>73100</v>
+        <v>68700</v>
       </c>
       <c r="E49" s="3">
-        <v>74500</v>
+        <v>70100</v>
       </c>
       <c r="F49" s="3">
-        <v>78900</v>
+        <v>74200</v>
       </c>
       <c r="G49" s="3">
-        <v>79500</v>
+        <v>74800</v>
       </c>
       <c r="H49" s="3">
-        <v>74400</v>
+        <v>70000</v>
       </c>
       <c r="I49" s="3">
-        <v>79900</v>
+        <v>75100</v>
       </c>
       <c r="J49" s="3">
-        <v>26900</v>
+        <v>25300</v>
       </c>
       <c r="K49" s="3">
         <v>122000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43900</v>
+        <v>41300</v>
       </c>
       <c r="E52" s="3">
-        <v>70100</v>
+        <v>65900</v>
       </c>
       <c r="F52" s="3">
-        <v>106700</v>
+        <v>100400</v>
       </c>
       <c r="G52" s="3">
-        <v>130700</v>
+        <v>122900</v>
       </c>
       <c r="H52" s="3">
-        <v>206500</v>
+        <v>194200</v>
       </c>
       <c r="I52" s="3">
-        <v>242900</v>
+        <v>228500</v>
       </c>
       <c r="J52" s="3">
-        <v>186800</v>
+        <v>175700</v>
       </c>
       <c r="K52" s="3">
         <v>170200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>798500</v>
+        <v>750900</v>
       </c>
       <c r="E54" s="3">
-        <v>736900</v>
+        <v>693000</v>
       </c>
       <c r="F54" s="3">
-        <v>743100</v>
+        <v>698800</v>
       </c>
       <c r="G54" s="3">
-        <v>774600</v>
+        <v>728400</v>
       </c>
       <c r="H54" s="3">
-        <v>819600</v>
+        <v>770800</v>
       </c>
       <c r="I54" s="3">
-        <v>851400</v>
+        <v>800700</v>
       </c>
       <c r="J54" s="3">
-        <v>1587900</v>
+        <v>1493300</v>
       </c>
       <c r="K54" s="3">
         <v>1423500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>155100</v>
+        <v>145900</v>
       </c>
       <c r="E57" s="3">
-        <v>113500</v>
+        <v>106800</v>
       </c>
       <c r="F57" s="3">
-        <v>110800</v>
+        <v>104200</v>
       </c>
       <c r="G57" s="3">
-        <v>102300</v>
+        <v>96200</v>
       </c>
       <c r="H57" s="3">
-        <v>101000</v>
+        <v>95000</v>
       </c>
       <c r="I57" s="3">
-        <v>115900</v>
+        <v>109000</v>
       </c>
       <c r="J57" s="3">
-        <v>94400</v>
+        <v>88800</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59200</v>
+        <v>55700</v>
       </c>
       <c r="E58" s="3">
-        <v>110900</v>
+        <v>104300</v>
       </c>
       <c r="F58" s="3">
-        <v>61900</v>
+        <v>58200</v>
       </c>
       <c r="G58" s="3">
-        <v>49500</v>
+        <v>46500</v>
       </c>
       <c r="H58" s="3">
-        <v>45500</v>
+        <v>42700</v>
       </c>
       <c r="I58" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="J58" s="3">
-        <v>15600</v>
+        <v>14700</v>
       </c>
       <c r="K58" s="3">
         <v>114000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="E59" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="F59" s="3">
-        <v>15500</v>
+        <v>14600</v>
       </c>
       <c r="G59" s="3">
-        <v>27700</v>
+        <v>26100</v>
       </c>
       <c r="H59" s="3">
-        <v>26400</v>
+        <v>24800</v>
       </c>
       <c r="I59" s="3">
-        <v>43800</v>
+        <v>41200</v>
       </c>
       <c r="J59" s="3">
-        <v>1054300</v>
+        <v>991500</v>
       </c>
       <c r="K59" s="3">
         <v>195300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>231700</v>
+        <v>217900</v>
       </c>
       <c r="E60" s="3">
-        <v>228700</v>
+        <v>215100</v>
       </c>
       <c r="F60" s="3">
-        <v>188200</v>
+        <v>177000</v>
       </c>
       <c r="G60" s="3">
-        <v>179500</v>
+        <v>168800</v>
       </c>
       <c r="H60" s="3">
-        <v>172900</v>
+        <v>162600</v>
       </c>
       <c r="I60" s="3">
-        <v>180700</v>
+        <v>170000</v>
       </c>
       <c r="J60" s="3">
-        <v>1074100</v>
+        <v>1010100</v>
       </c>
       <c r="K60" s="3">
         <v>333200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>408900</v>
+        <v>384500</v>
       </c>
       <c r="E61" s="3">
-        <v>350300</v>
+        <v>329400</v>
       </c>
       <c r="F61" s="3">
-        <v>376700</v>
+        <v>354200</v>
       </c>
       <c r="G61" s="3">
-        <v>395000</v>
+        <v>371400</v>
       </c>
       <c r="H61" s="3">
-        <v>372000</v>
+        <v>349900</v>
       </c>
       <c r="I61" s="3">
-        <v>355400</v>
+        <v>334200</v>
       </c>
       <c r="J61" s="3">
-        <v>375700</v>
+        <v>353300</v>
       </c>
       <c r="K61" s="3">
         <v>784000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51600</v>
+        <v>48500</v>
       </c>
       <c r="E62" s="3">
-        <v>62200</v>
+        <v>58500</v>
       </c>
       <c r="F62" s="3">
-        <v>73800</v>
+        <v>69400</v>
       </c>
       <c r="G62" s="3">
-        <v>93200</v>
+        <v>87600</v>
       </c>
       <c r="H62" s="3">
-        <v>129800</v>
+        <v>122100</v>
       </c>
       <c r="I62" s="3">
-        <v>172500</v>
+        <v>162300</v>
       </c>
       <c r="J62" s="3">
-        <v>140200</v>
+        <v>131800</v>
       </c>
       <c r="K62" s="3">
         <v>344700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>692200</v>
+        <v>651000</v>
       </c>
       <c r="E66" s="3">
-        <v>641200</v>
+        <v>603000</v>
       </c>
       <c r="F66" s="3">
-        <v>638600</v>
+        <v>600600</v>
       </c>
       <c r="G66" s="3">
-        <v>667700</v>
+        <v>627900</v>
       </c>
       <c r="H66" s="3">
-        <v>674700</v>
+        <v>634500</v>
       </c>
       <c r="I66" s="3">
-        <v>708700</v>
+        <v>666500</v>
       </c>
       <c r="J66" s="3">
-        <v>1589900</v>
+        <v>1495200</v>
       </c>
       <c r="K66" s="3">
         <v>1394700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-307500</v>
+        <v>-289200</v>
       </c>
       <c r="E72" s="3">
-        <v>-316900</v>
+        <v>-298000</v>
       </c>
       <c r="F72" s="3">
-        <v>-305200</v>
+        <v>-287000</v>
       </c>
       <c r="G72" s="3">
-        <v>-302700</v>
+        <v>-284600</v>
       </c>
       <c r="H72" s="3">
-        <v>-267000</v>
+        <v>-251100</v>
       </c>
       <c r="I72" s="3">
-        <v>-261200</v>
+        <v>-245600</v>
       </c>
       <c r="J72" s="3">
-        <v>-417100</v>
+        <v>-392300</v>
       </c>
       <c r="K72" s="3">
         <v>-340500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>106300</v>
+        <v>99900</v>
       </c>
       <c r="E76" s="3">
-        <v>95700</v>
+        <v>90000</v>
       </c>
       <c r="F76" s="3">
-        <v>104500</v>
+        <v>98200</v>
       </c>
       <c r="G76" s="3">
-        <v>106900</v>
+        <v>100500</v>
       </c>
       <c r="H76" s="3">
-        <v>144900</v>
+        <v>136300</v>
       </c>
       <c r="I76" s="3">
-        <v>142700</v>
+        <v>134200</v>
       </c>
       <c r="J76" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K76" s="3">
         <v>28800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44900</v>
+        <v>42200</v>
       </c>
       <c r="E81" s="3">
-        <v>23700</v>
+        <v>22300</v>
       </c>
       <c r="F81" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="G81" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H81" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="I81" s="3">
-        <v>192400</v>
+        <v>180900</v>
       </c>
       <c r="J81" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="K81" s="3">
         <v>4100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32200</v>
+        <v>30200</v>
       </c>
       <c r="E83" s="3">
-        <v>32800</v>
+        <v>30900</v>
       </c>
       <c r="F83" s="3">
-        <v>29200</v>
+        <v>27500</v>
       </c>
       <c r="G83" s="3">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="H83" s="3">
-        <v>26800</v>
+        <v>25200</v>
       </c>
       <c r="I83" s="3">
-        <v>22600</v>
+        <v>21300</v>
       </c>
       <c r="J83" s="3">
-        <v>56500</v>
+        <v>53100</v>
       </c>
       <c r="K83" s="3">
         <v>60000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100500</v>
+        <v>94500</v>
       </c>
       <c r="E89" s="3">
-        <v>37500</v>
+        <v>35200</v>
       </c>
       <c r="F89" s="3">
-        <v>32700</v>
+        <v>30800</v>
       </c>
       <c r="G89" s="3">
-        <v>39100</v>
+        <v>36800</v>
       </c>
       <c r="H89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>43800</v>
+        <v>41200</v>
       </c>
       <c r="J89" s="3">
-        <v>71000</v>
+        <v>66700</v>
       </c>
       <c r="K89" s="3">
         <v>75400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27400</v>
+        <v>-25800</v>
       </c>
       <c r="E91" s="3">
-        <v>-27500</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-42000</v>
+        <v>-39500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34100</v>
+        <v>-32100</v>
       </c>
       <c r="H91" s="3">
-        <v>-32200</v>
+        <v>-30300</v>
       </c>
       <c r="I91" s="3">
-        <v>-29400</v>
+        <v>-27700</v>
       </c>
       <c r="J91" s="3">
-        <v>-25100</v>
+        <v>-23600</v>
       </c>
       <c r="K91" s="3">
         <v>-42900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E94" s="3">
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="F94" s="3">
-        <v>-45600</v>
+        <v>-42900</v>
       </c>
       <c r="G94" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H94" s="3">
-        <v>-14500</v>
+        <v>-13600</v>
       </c>
       <c r="I94" s="3">
-        <v>-49500</v>
+        <v>-46600</v>
       </c>
       <c r="J94" s="3">
-        <v>-41200</v>
+        <v>-38800</v>
       </c>
       <c r="K94" s="3">
         <v>-33500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-34200</v>
+        <v>-32200</v>
       </c>
       <c r="E96" s="3">
-        <v>-30900</v>
+        <v>-29000</v>
       </c>
       <c r="F96" s="3">
-        <v>-31000</v>
+        <v>-29200</v>
       </c>
       <c r="G96" s="3">
-        <v>-31100</v>
+        <v>-29200</v>
       </c>
       <c r="H96" s="3">
-        <v>-29900</v>
+        <v>-28200</v>
       </c>
       <c r="I96" s="3">
-        <v>-29500</v>
+        <v>-27800</v>
       </c>
       <c r="J96" s="3">
-        <v>-29500</v>
+        <v>-27800</v>
       </c>
       <c r="K96" s="3">
         <v>-35100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31600</v>
+        <v>-29800</v>
       </c>
       <c r="E100" s="3">
-        <v>-23800</v>
+        <v>-22400</v>
       </c>
       <c r="F100" s="3">
-        <v>-40400</v>
+        <v>-38000</v>
       </c>
       <c r="G100" s="3">
-        <v>-19600</v>
+        <v>-18400</v>
       </c>
       <c r="H100" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="I100" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J100" s="3">
-        <v>-31300</v>
+        <v>-29400</v>
       </c>
       <c r="K100" s="3">
         <v>-24900</v>
@@ -3717,19 +3717,19 @@
         <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H101" s="3">
         <v>-600</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70900</v>
+        <v>66700</v>
       </c>
       <c r="E102" s="3">
-        <v>23700</v>
+        <v>22300</v>
       </c>
       <c r="F102" s="3">
-        <v>-51600</v>
+        <v>-48500</v>
       </c>
       <c r="G102" s="3">
-        <v>22000</v>
+        <v>20700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I102" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K102" s="3">
         <v>18900</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>903100</v>
+        <v>909300</v>
       </c>
       <c r="E8" s="3">
-        <v>882500</v>
+        <v>888600</v>
       </c>
       <c r="F8" s="3">
-        <v>873200</v>
+        <v>879300</v>
       </c>
       <c r="G8" s="3">
-        <v>855600</v>
+        <v>861500</v>
       </c>
       <c r="H8" s="3">
-        <v>827000</v>
+        <v>832700</v>
       </c>
       <c r="I8" s="3">
-        <v>735400</v>
+        <v>740500</v>
       </c>
       <c r="J8" s="3">
-        <v>636300</v>
+        <v>640700</v>
       </c>
       <c r="K8" s="3">
         <v>603400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>761100</v>
+        <v>766400</v>
       </c>
       <c r="E9" s="3">
-        <v>778500</v>
+        <v>783900</v>
       </c>
       <c r="F9" s="3">
-        <v>768800</v>
+        <v>774100</v>
       </c>
       <c r="G9" s="3">
-        <v>754900</v>
+        <v>760100</v>
       </c>
       <c r="H9" s="3">
-        <v>730800</v>
+        <v>735800</v>
       </c>
       <c r="I9" s="3">
-        <v>646700</v>
+        <v>651200</v>
       </c>
       <c r="J9" s="3">
-        <v>556000</v>
+        <v>559900</v>
       </c>
       <c r="K9" s="3">
         <v>525700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>142000</v>
+        <v>143000</v>
       </c>
       <c r="E10" s="3">
-        <v>104000</v>
+        <v>104800</v>
       </c>
       <c r="F10" s="3">
-        <v>104500</v>
+        <v>105200</v>
       </c>
       <c r="G10" s="3">
-        <v>100600</v>
+        <v>101300</v>
       </c>
       <c r="H10" s="3">
-        <v>96300</v>
+        <v>96900</v>
       </c>
       <c r="I10" s="3">
-        <v>88800</v>
+        <v>89400</v>
       </c>
       <c r="J10" s="3">
-        <v>80300</v>
+        <v>80800</v>
       </c>
       <c r="K10" s="3">
         <v>77700</v>
@@ -922,19 +922,19 @@
         <v>1900</v>
       </c>
       <c r="F14" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K14" s="3">
         <v>1500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30200</v>
+        <v>30500</v>
       </c>
       <c r="E15" s="3">
-        <v>61700</v>
+        <v>62200</v>
       </c>
       <c r="F15" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="G15" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H15" s="3">
         <v>24500</v>
       </c>
-      <c r="H15" s="3">
-        <v>24300</v>
-      </c>
       <c r="I15" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J15" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="K15" s="3">
         <v>16700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>833600</v>
+        <v>839400</v>
       </c>
       <c r="E17" s="3">
-        <v>843300</v>
+        <v>849100</v>
       </c>
       <c r="F17" s="3">
-        <v>843000</v>
+        <v>848800</v>
       </c>
       <c r="G17" s="3">
-        <v>803900</v>
+        <v>809500</v>
       </c>
       <c r="H17" s="3">
-        <v>782000</v>
+        <v>787400</v>
       </c>
       <c r="I17" s="3">
-        <v>693900</v>
+        <v>698700</v>
       </c>
       <c r="J17" s="3">
-        <v>599200</v>
+        <v>603400</v>
       </c>
       <c r="K17" s="3">
         <v>568000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>69500</v>
+        <v>69900</v>
       </c>
       <c r="E18" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="F18" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G18" s="3">
-        <v>51600</v>
+        <v>52000</v>
       </c>
       <c r="H18" s="3">
-        <v>45000</v>
+        <v>45300</v>
       </c>
       <c r="I18" s="3">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="J18" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="K18" s="3">
         <v>35400</v>
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1101,10 +1101,10 @@
         <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I20" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
         <v>1500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98800</v>
+        <v>98900</v>
       </c>
       <c r="E21" s="3">
         <v>70800</v>
       </c>
       <c r="F21" s="3">
-        <v>59000</v>
+        <v>58900</v>
       </c>
       <c r="G21" s="3">
-        <v>79900</v>
+        <v>80000</v>
       </c>
       <c r="H21" s="3">
-        <v>76900</v>
+        <v>77000</v>
       </c>
       <c r="I21" s="3">
-        <v>75100</v>
+        <v>75200</v>
       </c>
       <c r="J21" s="3">
-        <v>92500</v>
+        <v>92200</v>
       </c>
       <c r="K21" s="3">
         <v>99000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="E22" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="F22" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="G22" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="H22" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="I22" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="J22" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="K22" s="3">
         <v>26600</v>
@@ -1197,22 +1197,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="E23" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="F23" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="G23" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="H23" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="I23" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="J23" s="3">
         <v>13000</v>
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E24" s="3">
         <v>5600</v>
@@ -1248,10 +1248,10 @@
         <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="J24" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K24" s="3">
         <v>4700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="E26" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="F26" s="3">
         <v>6300</v>
       </c>
       <c r="G26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H26" s="3">
         <v>24700</v>
       </c>
-      <c r="H26" s="3">
-        <v>24500</v>
-      </c>
       <c r="I26" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J26" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="K26" s="3">
         <v>7800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="E27" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="F27" s="3">
         <v>6300</v>
       </c>
       <c r="G27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H27" s="3">
         <v>24700</v>
       </c>
-      <c r="H27" s="3">
-        <v>24500</v>
-      </c>
       <c r="I27" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J27" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="K27" s="3">
         <v>7800</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="E29" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F29" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="G29" s="3">
-        <v>-23100</v>
+        <v>-23200</v>
       </c>
       <c r="H29" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I29" s="3">
-        <v>162500</v>
+        <v>163600</v>
       </c>
       <c r="J29" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="K29" s="3">
         <v>-3800</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1533,10 +1533,10 @@
         <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="I32" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
         <v>-1500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42200</v>
+        <v>42500</v>
       </c>
       <c r="E33" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="F33" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="G33" s="3">
         <v>1700</v>
       </c>
       <c r="H33" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="I33" s="3">
-        <v>180900</v>
+        <v>182200</v>
       </c>
       <c r="J33" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="K33" s="3">
         <v>4100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42200</v>
+        <v>42500</v>
       </c>
       <c r="E35" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="F35" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="G35" s="3">
         <v>1700</v>
       </c>
       <c r="H35" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="I35" s="3">
-        <v>180900</v>
+        <v>182200</v>
       </c>
       <c r="J35" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="K35" s="3">
         <v>4100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>140300</v>
+        <v>141300</v>
       </c>
       <c r="E41" s="3">
-        <v>73600</v>
+        <v>74200</v>
       </c>
       <c r="F41" s="3">
-        <v>51400</v>
+        <v>51700</v>
       </c>
       <c r="G41" s="3">
-        <v>99900</v>
+        <v>100600</v>
       </c>
       <c r="H41" s="3">
-        <v>79200</v>
+        <v>79700</v>
       </c>
       <c r="I41" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="J41" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="K41" s="3">
         <v>73900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57200</v>
+        <v>57600</v>
       </c>
       <c r="E43" s="3">
-        <v>51700</v>
+        <v>52100</v>
       </c>
       <c r="F43" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="G43" s="3">
-        <v>38700</v>
+        <v>39000</v>
       </c>
       <c r="H43" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="I43" s="3">
-        <v>41100</v>
+        <v>41400</v>
       </c>
       <c r="J43" s="3">
-        <v>64000</v>
+        <v>64500</v>
       </c>
       <c r="K43" s="3">
         <v>331800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="E45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
-        <v>18500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>17900</v>
-      </c>
       <c r="H45" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="I45" s="3">
-        <v>42900</v>
+        <v>43200</v>
       </c>
       <c r="J45" s="3">
-        <v>987100</v>
+        <v>993900</v>
       </c>
       <c r="K45" s="3">
         <v>62000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>230800</v>
+        <v>232400</v>
       </c>
       <c r="E46" s="3">
-        <v>143400</v>
+        <v>144400</v>
       </c>
       <c r="F46" s="3">
-        <v>122800</v>
+        <v>123700</v>
       </c>
       <c r="G46" s="3">
-        <v>156500</v>
+        <v>157600</v>
       </c>
       <c r="H46" s="3">
-        <v>143700</v>
+        <v>144700</v>
       </c>
       <c r="I46" s="3">
-        <v>164800</v>
+        <v>165900</v>
       </c>
       <c r="J46" s="3">
-        <v>1046800</v>
+        <v>1054000</v>
       </c>
       <c r="K46" s="3">
         <v>305400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>410000</v>
+        <v>412900</v>
       </c>
       <c r="E48" s="3">
-        <v>413600</v>
+        <v>416500</v>
       </c>
       <c r="F48" s="3">
-        <v>401400</v>
+        <v>404200</v>
       </c>
       <c r="G48" s="3">
-        <v>374200</v>
+        <v>376800</v>
       </c>
       <c r="H48" s="3">
-        <v>362900</v>
+        <v>365400</v>
       </c>
       <c r="I48" s="3">
-        <v>332300</v>
+        <v>334600</v>
       </c>
       <c r="J48" s="3">
-        <v>116100</v>
+        <v>116900</v>
       </c>
       <c r="K48" s="3">
         <v>576500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>68700</v>
+        <v>69200</v>
       </c>
       <c r="E49" s="3">
-        <v>70100</v>
+        <v>70600</v>
       </c>
       <c r="F49" s="3">
-        <v>74200</v>
+        <v>74700</v>
       </c>
       <c r="G49" s="3">
-        <v>74800</v>
+        <v>75300</v>
       </c>
       <c r="H49" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="I49" s="3">
-        <v>75100</v>
+        <v>75600</v>
       </c>
       <c r="J49" s="3">
-        <v>25300</v>
+        <v>25500</v>
       </c>
       <c r="K49" s="3">
         <v>122000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="E52" s="3">
-        <v>65900</v>
+        <v>66300</v>
       </c>
       <c r="F52" s="3">
-        <v>100400</v>
+        <v>101100</v>
       </c>
       <c r="G52" s="3">
-        <v>122900</v>
+        <v>123800</v>
       </c>
       <c r="H52" s="3">
-        <v>194200</v>
+        <v>195500</v>
       </c>
       <c r="I52" s="3">
-        <v>228500</v>
+        <v>230000</v>
       </c>
       <c r="J52" s="3">
-        <v>175700</v>
+        <v>176900</v>
       </c>
       <c r="K52" s="3">
         <v>170200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>750900</v>
+        <v>756100</v>
       </c>
       <c r="E54" s="3">
-        <v>693000</v>
+        <v>697800</v>
       </c>
       <c r="F54" s="3">
-        <v>698800</v>
+        <v>703700</v>
       </c>
       <c r="G54" s="3">
-        <v>728400</v>
+        <v>733500</v>
       </c>
       <c r="H54" s="3">
-        <v>770800</v>
+        <v>776100</v>
       </c>
       <c r="I54" s="3">
-        <v>800700</v>
+        <v>806200</v>
       </c>
       <c r="J54" s="3">
-        <v>1493300</v>
+        <v>1503600</v>
       </c>
       <c r="K54" s="3">
         <v>1423500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145900</v>
+        <v>146900</v>
       </c>
       <c r="E57" s="3">
-        <v>106800</v>
+        <v>107500</v>
       </c>
       <c r="F57" s="3">
-        <v>104200</v>
+        <v>104900</v>
       </c>
       <c r="G57" s="3">
-        <v>96200</v>
+        <v>96900</v>
       </c>
       <c r="H57" s="3">
-        <v>95000</v>
+        <v>95600</v>
       </c>
       <c r="I57" s="3">
-        <v>109000</v>
+        <v>109800</v>
       </c>
       <c r="J57" s="3">
-        <v>88800</v>
+        <v>89400</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55700</v>
+        <v>56000</v>
       </c>
       <c r="E58" s="3">
-        <v>104300</v>
+        <v>105000</v>
       </c>
       <c r="F58" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="G58" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="H58" s="3">
-        <v>42700</v>
+        <v>43000</v>
       </c>
       <c r="I58" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="J58" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="K58" s="3">
         <v>114000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="E59" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F59" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G59" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="H59" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="I59" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="J59" s="3">
-        <v>991500</v>
+        <v>998400</v>
       </c>
       <c r="K59" s="3">
         <v>195300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>217900</v>
+        <v>219400</v>
       </c>
       <c r="E60" s="3">
-        <v>215100</v>
+        <v>216600</v>
       </c>
       <c r="F60" s="3">
-        <v>177000</v>
+        <v>178200</v>
       </c>
       <c r="G60" s="3">
-        <v>168800</v>
+        <v>170000</v>
       </c>
       <c r="H60" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="I60" s="3">
-        <v>170000</v>
+        <v>171200</v>
       </c>
       <c r="J60" s="3">
-        <v>1010100</v>
+        <v>1017100</v>
       </c>
       <c r="K60" s="3">
         <v>333200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>384500</v>
+        <v>387200</v>
       </c>
       <c r="E61" s="3">
-        <v>329400</v>
+        <v>331700</v>
       </c>
       <c r="F61" s="3">
-        <v>354200</v>
+        <v>356700</v>
       </c>
       <c r="G61" s="3">
-        <v>371400</v>
+        <v>374000</v>
       </c>
       <c r="H61" s="3">
-        <v>349900</v>
+        <v>352300</v>
       </c>
       <c r="I61" s="3">
-        <v>334200</v>
+        <v>336500</v>
       </c>
       <c r="J61" s="3">
-        <v>353300</v>
+        <v>355800</v>
       </c>
       <c r="K61" s="3">
         <v>784000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>48500</v>
+        <v>48800</v>
       </c>
       <c r="E62" s="3">
-        <v>58500</v>
+        <v>58900</v>
       </c>
       <c r="F62" s="3">
-        <v>69400</v>
+        <v>69900</v>
       </c>
       <c r="G62" s="3">
-        <v>87600</v>
+        <v>88200</v>
       </c>
       <c r="H62" s="3">
-        <v>122100</v>
+        <v>122900</v>
       </c>
       <c r="I62" s="3">
-        <v>162300</v>
+        <v>163400</v>
       </c>
       <c r="J62" s="3">
-        <v>131800</v>
+        <v>132700</v>
       </c>
       <c r="K62" s="3">
         <v>344700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>651000</v>
+        <v>655500</v>
       </c>
       <c r="E66" s="3">
-        <v>603000</v>
+        <v>607100</v>
       </c>
       <c r="F66" s="3">
-        <v>600600</v>
+        <v>604700</v>
       </c>
       <c r="G66" s="3">
-        <v>627900</v>
+        <v>632200</v>
       </c>
       <c r="H66" s="3">
-        <v>634500</v>
+        <v>638900</v>
       </c>
       <c r="I66" s="3">
-        <v>666500</v>
+        <v>671100</v>
       </c>
       <c r="J66" s="3">
-        <v>1495200</v>
+        <v>1505600</v>
       </c>
       <c r="K66" s="3">
         <v>1394700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-289200</v>
+        <v>-291200</v>
       </c>
       <c r="E72" s="3">
-        <v>-298000</v>
+        <v>-300000</v>
       </c>
       <c r="F72" s="3">
-        <v>-287000</v>
+        <v>-289000</v>
       </c>
       <c r="G72" s="3">
-        <v>-284600</v>
+        <v>-286600</v>
       </c>
       <c r="H72" s="3">
-        <v>-251100</v>
+        <v>-252800</v>
       </c>
       <c r="I72" s="3">
-        <v>-245600</v>
+        <v>-247300</v>
       </c>
       <c r="J72" s="3">
-        <v>-392300</v>
+        <v>-395000</v>
       </c>
       <c r="K72" s="3">
         <v>-340500</v>
@@ -2938,22 +2938,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>99900</v>
+        <v>100600</v>
       </c>
       <c r="E76" s="3">
-        <v>90000</v>
+        <v>90600</v>
       </c>
       <c r="F76" s="3">
-        <v>98200</v>
+        <v>98900</v>
       </c>
       <c r="G76" s="3">
-        <v>100500</v>
+        <v>101200</v>
       </c>
       <c r="H76" s="3">
-        <v>136300</v>
+        <v>137200</v>
       </c>
       <c r="I76" s="3">
-        <v>134200</v>
+        <v>135100</v>
       </c>
       <c r="J76" s="3">
         <v>-2000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42200</v>
+        <v>42500</v>
       </c>
       <c r="E81" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="F81" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="G81" s="3">
         <v>1700</v>
       </c>
       <c r="H81" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="I81" s="3">
-        <v>180900</v>
+        <v>182200</v>
       </c>
       <c r="J81" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="K81" s="3">
         <v>4100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30200</v>
+        <v>30500</v>
       </c>
       <c r="E83" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="F83" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="G83" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="H83" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="I83" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="J83" s="3">
-        <v>53100</v>
+        <v>53500</v>
       </c>
       <c r="K83" s="3">
         <v>60000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>94500</v>
+        <v>95200</v>
       </c>
       <c r="E89" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="F89" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="G89" s="3">
-        <v>36800</v>
+        <v>37000</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>41200</v>
+        <v>41400</v>
       </c>
       <c r="J89" s="3">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="K89" s="3">
         <v>75400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-26000</v>
       </c>
       <c r="F91" s="3">
-        <v>-39500</v>
+        <v>-39800</v>
       </c>
       <c r="G91" s="3">
-        <v>-32100</v>
+        <v>-32300</v>
       </c>
       <c r="H91" s="3">
-        <v>-30300</v>
+        <v>-30500</v>
       </c>
       <c r="I91" s="3">
-        <v>-27700</v>
+        <v>-27900</v>
       </c>
       <c r="J91" s="3">
-        <v>-23600</v>
+        <v>-23700</v>
       </c>
       <c r="K91" s="3">
         <v>-42900</v>
@@ -3485,19 +3485,19 @@
         <v>10000</v>
       </c>
       <c r="F94" s="3">
-        <v>-42900</v>
+        <v>-43200</v>
       </c>
       <c r="G94" s="3">
         <v>4400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="I94" s="3">
-        <v>-46600</v>
+        <v>-46900</v>
       </c>
       <c r="J94" s="3">
-        <v>-38800</v>
+        <v>-39000</v>
       </c>
       <c r="K94" s="3">
         <v>-33500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32200</v>
+        <v>-32400</v>
       </c>
       <c r="E96" s="3">
-        <v>-29000</v>
+        <v>-29200</v>
       </c>
       <c r="F96" s="3">
-        <v>-29200</v>
+        <v>-29400</v>
       </c>
       <c r="G96" s="3">
-        <v>-29200</v>
+        <v>-29400</v>
       </c>
       <c r="H96" s="3">
-        <v>-28200</v>
+        <v>-28400</v>
       </c>
       <c r="I96" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="J96" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="K96" s="3">
         <v>-35100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29800</v>
+        <v>-30000</v>
       </c>
       <c r="E100" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="F100" s="3">
-        <v>-38000</v>
+        <v>-38300</v>
       </c>
       <c r="G100" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="H100" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="I100" s="3">
         <v>5700</v>
       </c>
       <c r="J100" s="3">
-        <v>-29400</v>
+        <v>-29600</v>
       </c>
       <c r="K100" s="3">
         <v>-24900</v>
@@ -3747,16 +3747,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>66700</v>
+        <v>67100</v>
       </c>
       <c r="E102" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="F102" s="3">
-        <v>-48500</v>
+        <v>-48900</v>
       </c>
       <c r="G102" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="H102" s="3">
         <v>-1600</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>EXETF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>38717</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>909300</v>
+        <v>954800</v>
       </c>
       <c r="E8" s="3">
-        <v>888600</v>
+        <v>866000</v>
       </c>
       <c r="F8" s="3">
-        <v>879300</v>
+        <v>888300</v>
       </c>
       <c r="G8" s="3">
-        <v>861500</v>
+        <v>878900</v>
       </c>
       <c r="H8" s="3">
-        <v>832700</v>
+        <v>861100</v>
       </c>
       <c r="I8" s="3">
-        <v>740500</v>
+        <v>832400</v>
       </c>
       <c r="J8" s="3">
+        <v>740200</v>
+      </c>
+      <c r="K8" s="3">
         <v>640700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>603400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1533700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1507900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>766400</v>
+        <v>840000</v>
       </c>
       <c r="E9" s="3">
-        <v>783900</v>
+        <v>723900</v>
       </c>
       <c r="F9" s="3">
-        <v>774100</v>
+        <v>783600</v>
       </c>
       <c r="G9" s="3">
-        <v>760100</v>
+        <v>773800</v>
       </c>
       <c r="H9" s="3">
-        <v>735800</v>
+        <v>759800</v>
       </c>
       <c r="I9" s="3">
-        <v>651200</v>
+        <v>735500</v>
       </c>
       <c r="J9" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K9" s="3">
         <v>559900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>525700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1348300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1278800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>143000</v>
+        <v>114800</v>
       </c>
       <c r="E10" s="3">
-        <v>104800</v>
+        <v>142100</v>
       </c>
       <c r="F10" s="3">
-        <v>105200</v>
+        <v>104700</v>
       </c>
       <c r="G10" s="3">
+        <v>105100</v>
+      </c>
+      <c r="H10" s="3">
         <v>101300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>96900</v>
       </c>
-      <c r="I10" s="3">
-        <v>89400</v>
-      </c>
       <c r="J10" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K10" s="3">
         <v>80800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>229200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
-        <v>15900</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>15800</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J14" s="3">
         <v>5300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30500</v>
+        <v>29700</v>
       </c>
       <c r="E15" s="3">
-        <v>62200</v>
+        <v>60300</v>
       </c>
       <c r="F15" s="3">
+        <v>62100</v>
+      </c>
+      <c r="G15" s="3">
         <v>27700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>57800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>839400</v>
+        <v>922600</v>
       </c>
       <c r="E17" s="3">
-        <v>849100</v>
+        <v>796400</v>
       </c>
       <c r="F17" s="3">
         <v>848800</v>
       </c>
       <c r="G17" s="3">
-        <v>809500</v>
+        <v>848500</v>
       </c>
       <c r="H17" s="3">
-        <v>787400</v>
+        <v>809200</v>
       </c>
       <c r="I17" s="3">
-        <v>698700</v>
+        <v>787100</v>
       </c>
       <c r="J17" s="3">
+        <v>698400</v>
+      </c>
+      <c r="K17" s="3">
         <v>603400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>568000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1459600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1394400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>69900</v>
+        <v>32200</v>
       </c>
       <c r="E18" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F18" s="3">
         <v>39500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>52000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45300</v>
       </c>
-      <c r="I18" s="3">
-        <v>41900</v>
-      </c>
       <c r="J18" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K18" s="3">
         <v>37300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98900</v>
+        <v>64100</v>
       </c>
       <c r="E21" s="3">
-        <v>70800</v>
+        <v>98600</v>
       </c>
       <c r="F21" s="3">
+        <v>70700</v>
+      </c>
+      <c r="G21" s="3">
         <v>58900</v>
       </c>
-      <c r="G21" s="3">
-        <v>80000</v>
-      </c>
       <c r="H21" s="3">
+        <v>79900</v>
+      </c>
+      <c r="I21" s="3">
         <v>77000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>75200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>92200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>135800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>166200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="E22" s="3">
-        <v>22600</v>
+        <v>22200</v>
       </c>
       <c r="F22" s="3">
-        <v>21700</v>
+        <v>22500</v>
       </c>
       <c r="G22" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H22" s="3">
         <v>22000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49200</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46200</v>
+        <v>12600</v>
       </c>
       <c r="E23" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F23" s="3">
         <v>17300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12800</v>
+        <v>5500</v>
       </c>
       <c r="E24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33400</v>
+        <v>7100</v>
       </c>
       <c r="E26" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F26" s="3">
         <v>11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>75400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33400</v>
+        <v>7100</v>
       </c>
       <c r="E27" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F27" s="3">
         <v>11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9100</v>
+        <v>2000</v>
       </c>
       <c r="E29" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F29" s="3">
         <v>10900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>18600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-23200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3200</v>
       </c>
-      <c r="I29" s="3">
-        <v>163600</v>
-      </c>
       <c r="J29" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-23400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>26400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>42500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27800</v>
       </c>
-      <c r="I33" s="3">
-        <v>182200</v>
-      </c>
       <c r="J33" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>42500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27800</v>
       </c>
-      <c r="I35" s="3">
-        <v>182200</v>
-      </c>
       <c r="J35" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>38717</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141300</v>
+        <v>82100</v>
       </c>
       <c r="E41" s="3">
-        <v>74200</v>
+        <v>141200</v>
       </c>
       <c r="F41" s="3">
+        <v>74100</v>
+      </c>
+      <c r="G41" s="3">
         <v>51700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1801,47 +1890,53 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E43" s="3">
         <v>57600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>331800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>160800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>140100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,81 +1970,90 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E45" s="3">
         <v>33500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>993900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>232400</v>
+        <v>176500</v>
       </c>
       <c r="E46" s="3">
-        <v>144400</v>
+        <v>232300</v>
       </c>
       <c r="F46" s="3">
-        <v>123700</v>
+        <v>144300</v>
       </c>
       <c r="G46" s="3">
+        <v>123600</v>
+      </c>
+      <c r="H46" s="3">
         <v>157600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>144700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>165900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1054000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>305400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>259800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>210600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1978,86 +2082,95 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>132800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>412900</v>
+        <v>420300</v>
       </c>
       <c r="E48" s="3">
-        <v>416500</v>
+        <v>412700</v>
       </c>
       <c r="F48" s="3">
-        <v>404200</v>
+        <v>416300</v>
       </c>
       <c r="G48" s="3">
-        <v>376800</v>
+        <v>404000</v>
       </c>
       <c r="H48" s="3">
-        <v>365400</v>
+        <v>376700</v>
       </c>
       <c r="I48" s="3">
-        <v>334600</v>
+        <v>365200</v>
       </c>
       <c r="J48" s="3">
+        <v>334400</v>
+      </c>
+      <c r="K48" s="3">
         <v>116900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>576500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>889500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>853600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E49" s="3">
         <v>69200</v>
       </c>
-      <c r="E49" s="3">
-        <v>70600</v>
-      </c>
       <c r="F49" s="3">
+        <v>70500</v>
+      </c>
+      <c r="G49" s="3">
         <v>74700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>75300</v>
       </c>
-      <c r="H49" s="3">
-        <v>70500</v>
-      </c>
       <c r="I49" s="3">
+        <v>70400</v>
+      </c>
+      <c r="J49" s="3">
         <v>75600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>25500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E52" s="3">
         <v>41600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66300</v>
       </c>
-      <c r="F52" s="3">
-        <v>101100</v>
-      </c>
       <c r="G52" s="3">
-        <v>123800</v>
+        <v>101000</v>
       </c>
       <c r="H52" s="3">
-        <v>195500</v>
+        <v>123700</v>
       </c>
       <c r="I52" s="3">
+        <v>195400</v>
+      </c>
+      <c r="J52" s="3">
         <v>230000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>176900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>170200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>756100</v>
+        <v>706500</v>
       </c>
       <c r="E54" s="3">
-        <v>697800</v>
+        <v>755800</v>
       </c>
       <c r="F54" s="3">
-        <v>703700</v>
+        <v>697500</v>
       </c>
       <c r="G54" s="3">
-        <v>733500</v>
+        <v>703400</v>
       </c>
       <c r="H54" s="3">
-        <v>776100</v>
+        <v>733200</v>
       </c>
       <c r="I54" s="3">
-        <v>806200</v>
+        <v>775800</v>
       </c>
       <c r="J54" s="3">
+        <v>805900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1503600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1423500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1361000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1306300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>146900</v>
+        <v>151500</v>
       </c>
       <c r="E57" s="3">
-        <v>107500</v>
+        <v>146800</v>
       </c>
       <c r="F57" s="3">
+        <v>107400</v>
+      </c>
+      <c r="G57" s="3">
         <v>104900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>96900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>95600</v>
       </c>
-      <c r="I57" s="3">
-        <v>109800</v>
-      </c>
       <c r="J57" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K57" s="3">
         <v>89400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E58" s="3">
         <v>56000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>105000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>58600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>114000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>70300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25000</v>
       </c>
-      <c r="I59" s="3">
-        <v>41500</v>
-      </c>
       <c r="J59" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K59" s="3">
         <v>998400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>195300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>175700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E60" s="3">
         <v>219400</v>
       </c>
-      <c r="E60" s="3">
-        <v>216600</v>
-      </c>
       <c r="F60" s="3">
-        <v>178200</v>
+        <v>216500</v>
       </c>
       <c r="G60" s="3">
-        <v>170000</v>
+        <v>178100</v>
       </c>
       <c r="H60" s="3">
-        <v>163700</v>
+        <v>169900</v>
       </c>
       <c r="I60" s="3">
-        <v>171200</v>
+        <v>163600</v>
       </c>
       <c r="J60" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1017100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>333200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>273400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>233500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>387200</v>
+        <v>363500</v>
       </c>
       <c r="E61" s="3">
-        <v>331700</v>
+        <v>387000</v>
       </c>
       <c r="F61" s="3">
-        <v>356700</v>
+        <v>331600</v>
       </c>
       <c r="G61" s="3">
-        <v>374000</v>
+        <v>356500</v>
       </c>
       <c r="H61" s="3">
-        <v>352300</v>
+        <v>373900</v>
       </c>
       <c r="I61" s="3">
-        <v>336500</v>
+        <v>352100</v>
       </c>
       <c r="J61" s="3">
+        <v>336400</v>
+      </c>
+      <c r="K61" s="3">
         <v>355800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>784000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>783300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>595600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E62" s="3">
         <v>48800</v>
       </c>
-      <c r="E62" s="3">
-        <v>58900</v>
-      </c>
       <c r="F62" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G62" s="3">
         <v>69900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>122900</v>
       </c>
-      <c r="I62" s="3">
-        <v>163400</v>
-      </c>
       <c r="J62" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K62" s="3">
         <v>132700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>344700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>263200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>655500</v>
+        <v>626500</v>
       </c>
       <c r="E66" s="3">
-        <v>607100</v>
+        <v>655200</v>
       </c>
       <c r="F66" s="3">
-        <v>604700</v>
+        <v>606900</v>
       </c>
       <c r="G66" s="3">
-        <v>632200</v>
+        <v>604500</v>
       </c>
       <c r="H66" s="3">
-        <v>638900</v>
+        <v>632000</v>
       </c>
       <c r="I66" s="3">
-        <v>671100</v>
+        <v>638700</v>
       </c>
       <c r="J66" s="3">
+        <v>670800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1505600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1394700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1319800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>932600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-291200</v>
+        <v>-315800</v>
       </c>
       <c r="E72" s="3">
-        <v>-300000</v>
+        <v>-291100</v>
       </c>
       <c r="F72" s="3">
-        <v>-289000</v>
+        <v>-299900</v>
       </c>
       <c r="G72" s="3">
-        <v>-286600</v>
+        <v>-288900</v>
       </c>
       <c r="H72" s="3">
-        <v>-252800</v>
+        <v>-286500</v>
       </c>
       <c r="I72" s="3">
-        <v>-247300</v>
+        <v>-252700</v>
       </c>
       <c r="J72" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-395000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-340500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-297400</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E76" s="3">
         <v>100600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101200</v>
       </c>
-      <c r="H76" s="3">
-        <v>137200</v>
-      </c>
       <c r="I76" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J76" s="3">
         <v>135100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>373800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>38717</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>42500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27800</v>
       </c>
-      <c r="I81" s="3">
-        <v>182200</v>
-      </c>
       <c r="J81" s="3">
+        <v>182100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="E83" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F83" s="3">
         <v>31100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E89" s="3">
         <v>95200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>75400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26000</v>
+        <v>-54600</v>
       </c>
       <c r="E91" s="3">
         <v>-26000</v>
       </c>
       <c r="F91" s="3">
-        <v>-39800</v>
+        <v>-26000</v>
       </c>
       <c r="G91" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-32300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-27900</v>
-      </c>
       <c r="J91" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-183900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-32400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-29200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-29400</v>
       </c>
       <c r="G96" s="3">
         <v>-29400</v>
       </c>
       <c r="H96" s="3">
-        <v>-28400</v>
+        <v>-29400</v>
       </c>
       <c r="I96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-28000</v>
       </c>
-      <c r="J96" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-42900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30000</v>
+        <v>-58700</v>
       </c>
       <c r="E100" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-22500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E102" s="3">
         <v>67100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>954800</v>
+        <v>932800</v>
       </c>
       <c r="E8" s="3">
-        <v>866000</v>
+        <v>846000</v>
       </c>
       <c r="F8" s="3">
-        <v>888300</v>
+        <v>867800</v>
       </c>
       <c r="G8" s="3">
-        <v>878900</v>
+        <v>858600</v>
       </c>
       <c r="H8" s="3">
-        <v>861100</v>
+        <v>841300</v>
       </c>
       <c r="I8" s="3">
-        <v>832400</v>
+        <v>813200</v>
       </c>
       <c r="J8" s="3">
-        <v>740200</v>
+        <v>723200</v>
       </c>
       <c r="K8" s="3">
         <v>640700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>840000</v>
+        <v>820600</v>
       </c>
       <c r="E9" s="3">
-        <v>723900</v>
+        <v>707200</v>
       </c>
       <c r="F9" s="3">
-        <v>783600</v>
+        <v>765500</v>
       </c>
       <c r="G9" s="3">
-        <v>773800</v>
+        <v>755900</v>
       </c>
       <c r="H9" s="3">
-        <v>759800</v>
+        <v>737100</v>
       </c>
       <c r="I9" s="3">
-        <v>735500</v>
+        <v>718600</v>
       </c>
       <c r="J9" s="3">
-        <v>650900</v>
+        <v>635900</v>
       </c>
       <c r="K9" s="3">
         <v>559900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>114800</v>
+        <v>112200</v>
       </c>
       <c r="E10" s="3">
-        <v>142100</v>
+        <v>138800</v>
       </c>
       <c r="F10" s="3">
-        <v>104700</v>
+        <v>102300</v>
       </c>
       <c r="G10" s="3">
-        <v>105100</v>
+        <v>102700</v>
       </c>
       <c r="H10" s="3">
-        <v>101300</v>
+        <v>104100</v>
       </c>
       <c r="I10" s="3">
-        <v>96900</v>
+        <v>94700</v>
       </c>
       <c r="J10" s="3">
-        <v>89300</v>
+        <v>87300</v>
       </c>
       <c r="K10" s="3">
         <v>80800</v>
@@ -935,16 +935,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="E14" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G14" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>3100</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K14" s="3">
         <v>11200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29700</v>
+        <v>29000</v>
       </c>
       <c r="E15" s="3">
-        <v>60300</v>
+        <v>58900</v>
       </c>
       <c r="F15" s="3">
-        <v>62100</v>
+        <v>60700</v>
       </c>
       <c r="G15" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
       <c r="H15" s="3">
-        <v>24600</v>
+        <v>24100</v>
       </c>
       <c r="I15" s="3">
-        <v>24500</v>
+        <v>23900</v>
       </c>
       <c r="J15" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="K15" s="3">
         <v>18700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>922600</v>
+        <v>901300</v>
       </c>
       <c r="E17" s="3">
-        <v>796400</v>
+        <v>778000</v>
       </c>
       <c r="F17" s="3">
-        <v>848800</v>
+        <v>829200</v>
       </c>
       <c r="G17" s="3">
-        <v>848500</v>
+        <v>828900</v>
       </c>
       <c r="H17" s="3">
-        <v>809200</v>
+        <v>790500</v>
       </c>
       <c r="I17" s="3">
-        <v>787100</v>
+        <v>769000</v>
       </c>
       <c r="J17" s="3">
-        <v>698400</v>
+        <v>682300</v>
       </c>
       <c r="K17" s="3">
         <v>603400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32200</v>
+        <v>31500</v>
       </c>
       <c r="E18" s="3">
-        <v>69600</v>
+        <v>68000</v>
       </c>
       <c r="F18" s="3">
-        <v>39500</v>
+        <v>38600</v>
       </c>
       <c r="G18" s="3">
-        <v>30400</v>
+        <v>29700</v>
       </c>
       <c r="H18" s="3">
-        <v>52000</v>
+        <v>50800</v>
       </c>
       <c r="I18" s="3">
-        <v>45300</v>
+        <v>44300</v>
       </c>
       <c r="J18" s="3">
-        <v>41800</v>
+        <v>40900</v>
       </c>
       <c r="K18" s="3">
         <v>37300</v>
@@ -1125,7 +1125,7 @@
         <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
@@ -1134,13 +1134,13 @@
         <v>900</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I20" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="J20" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="K20" s="3">
         <v>1500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>64100</v>
+        <v>62800</v>
       </c>
       <c r="E21" s="3">
-        <v>98600</v>
+        <v>96600</v>
       </c>
       <c r="F21" s="3">
-        <v>70700</v>
+        <v>69400</v>
       </c>
       <c r="G21" s="3">
-        <v>58900</v>
+        <v>57700</v>
       </c>
       <c r="H21" s="3">
-        <v>79900</v>
+        <v>78300</v>
       </c>
       <c r="I21" s="3">
-        <v>77000</v>
+        <v>75400</v>
       </c>
       <c r="J21" s="3">
-        <v>75200</v>
+        <v>73600</v>
       </c>
       <c r="K21" s="3">
         <v>92200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>21700</v>
       </c>
       <c r="F22" s="3">
-        <v>22500</v>
+        <v>22000</v>
       </c>
       <c r="G22" s="3">
-        <v>21600</v>
+        <v>21100</v>
       </c>
       <c r="H22" s="3">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="I22" s="3">
-        <v>21200</v>
+        <v>20700</v>
       </c>
       <c r="J22" s="3">
-        <v>24400</v>
+        <v>23800</v>
       </c>
       <c r="K22" s="3">
         <v>25800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="E23" s="3">
-        <v>46100</v>
+        <v>45000</v>
       </c>
       <c r="F23" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="G23" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H23" s="3">
-        <v>33400</v>
+        <v>32600</v>
       </c>
       <c r="I23" s="3">
-        <v>30500</v>
+        <v>29800</v>
       </c>
       <c r="J23" s="3">
-        <v>29500</v>
+        <v>28800</v>
       </c>
       <c r="K23" s="3">
         <v>13000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
-        <v>12700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5600</v>
-      </c>
       <c r="G24" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H24" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J24" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="K24" s="3">
         <v>4400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E26" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="F26" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="G26" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H26" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="I26" s="3">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="J26" s="3">
-        <v>18600</v>
+        <v>18200</v>
       </c>
       <c r="K26" s="3">
         <v>8700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E27" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="F27" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="G27" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H27" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="I27" s="3">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="J27" s="3">
-        <v>18600</v>
+        <v>18200</v>
       </c>
       <c r="K27" s="3">
         <v>8700</v>
@@ -1473,25 +1473,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E29" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="F29" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="G29" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="H29" s="3">
-        <v>-23200</v>
+        <v>-22700</v>
       </c>
       <c r="I29" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J29" s="3">
-        <v>163500</v>
+        <v>159700</v>
       </c>
       <c r="K29" s="3">
         <v>-23400</v>
@@ -1593,7 +1593,7 @@
         <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
@@ -1602,13 +1602,13 @@
         <v>-900</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="J32" s="3">
-        <v>-12000</v>
+        <v>-11700</v>
       </c>
       <c r="K32" s="3">
         <v>-1500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="E33" s="3">
-        <v>42500</v>
+        <v>41500</v>
       </c>
       <c r="F33" s="3">
-        <v>22500</v>
+        <v>21900</v>
       </c>
       <c r="G33" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="H33" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I33" s="3">
-        <v>27800</v>
+        <v>27200</v>
       </c>
       <c r="J33" s="3">
-        <v>182100</v>
+        <v>177900</v>
       </c>
       <c r="K33" s="3">
         <v>-14700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="E35" s="3">
-        <v>42500</v>
+        <v>41500</v>
       </c>
       <c r="F35" s="3">
-        <v>22500</v>
+        <v>21900</v>
       </c>
       <c r="G35" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="H35" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I35" s="3">
-        <v>27800</v>
+        <v>27200</v>
       </c>
       <c r="J35" s="3">
-        <v>182100</v>
+        <v>177900</v>
       </c>
       <c r="K35" s="3">
         <v>-14700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82100</v>
+        <v>80200</v>
       </c>
       <c r="E41" s="3">
-        <v>141200</v>
+        <v>138000</v>
       </c>
       <c r="F41" s="3">
-        <v>74100</v>
+        <v>72400</v>
       </c>
       <c r="G41" s="3">
-        <v>51700</v>
+        <v>50500</v>
       </c>
       <c r="H41" s="3">
-        <v>100600</v>
+        <v>98200</v>
       </c>
       <c r="I41" s="3">
-        <v>79700</v>
+        <v>77900</v>
       </c>
       <c r="J41" s="3">
-        <v>81300</v>
+        <v>79400</v>
       </c>
       <c r="K41" s="3">
         <v>27900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65600</v>
+        <v>64000</v>
       </c>
       <c r="E43" s="3">
-        <v>57600</v>
+        <v>56300</v>
       </c>
       <c r="F43" s="3">
-        <v>52100</v>
+        <v>50900</v>
       </c>
       <c r="G43" s="3">
-        <v>53300</v>
+        <v>52000</v>
       </c>
       <c r="H43" s="3">
-        <v>39000</v>
+        <v>38100</v>
       </c>
       <c r="I43" s="3">
-        <v>43400</v>
+        <v>42400</v>
       </c>
       <c r="J43" s="3">
-        <v>41400</v>
+        <v>40400</v>
       </c>
       <c r="K43" s="3">
         <v>64500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28800</v>
+        <v>28200</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>32800</v>
       </c>
       <c r="F45" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="G45" s="3">
-        <v>18600</v>
+        <v>18200</v>
       </c>
       <c r="H45" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="I45" s="3">
-        <v>21600</v>
+        <v>21100</v>
       </c>
       <c r="J45" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="K45" s="3">
         <v>993900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>176500</v>
+        <v>172400</v>
       </c>
       <c r="E46" s="3">
-        <v>232300</v>
+        <v>227000</v>
       </c>
       <c r="F46" s="3">
-        <v>144300</v>
+        <v>141000</v>
       </c>
       <c r="G46" s="3">
-        <v>123600</v>
+        <v>120800</v>
       </c>
       <c r="H46" s="3">
-        <v>157600</v>
+        <v>153900</v>
       </c>
       <c r="I46" s="3">
-        <v>144700</v>
+        <v>141300</v>
       </c>
       <c r="J46" s="3">
-        <v>165900</v>
+        <v>162000</v>
       </c>
       <c r="K46" s="3">
         <v>1054000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>420300</v>
+        <v>410600</v>
       </c>
       <c r="E48" s="3">
-        <v>412700</v>
+        <v>403200</v>
       </c>
       <c r="F48" s="3">
-        <v>416300</v>
+        <v>406700</v>
       </c>
       <c r="G48" s="3">
-        <v>404000</v>
+        <v>394700</v>
       </c>
       <c r="H48" s="3">
-        <v>376700</v>
+        <v>368000</v>
       </c>
       <c r="I48" s="3">
-        <v>365200</v>
+        <v>356800</v>
       </c>
       <c r="J48" s="3">
-        <v>334400</v>
+        <v>326700</v>
       </c>
       <c r="K48" s="3">
         <v>116900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72600</v>
+        <v>70900</v>
       </c>
       <c r="E49" s="3">
-        <v>69200</v>
+        <v>67600</v>
       </c>
       <c r="F49" s="3">
-        <v>70500</v>
+        <v>68900</v>
       </c>
       <c r="G49" s="3">
-        <v>74700</v>
+        <v>73000</v>
       </c>
       <c r="H49" s="3">
-        <v>75300</v>
+        <v>73500</v>
       </c>
       <c r="I49" s="3">
-        <v>70400</v>
+        <v>68800</v>
       </c>
       <c r="J49" s="3">
-        <v>75600</v>
+        <v>73900</v>
       </c>
       <c r="K49" s="3">
         <v>25500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37100</v>
+        <v>36300</v>
       </c>
       <c r="E52" s="3">
-        <v>41600</v>
+        <v>40600</v>
       </c>
       <c r="F52" s="3">
-        <v>66300</v>
+        <v>64800</v>
       </c>
       <c r="G52" s="3">
-        <v>101000</v>
+        <v>98700</v>
       </c>
       <c r="H52" s="3">
-        <v>123700</v>
+        <v>120900</v>
       </c>
       <c r="I52" s="3">
-        <v>195400</v>
+        <v>190900</v>
       </c>
       <c r="J52" s="3">
-        <v>230000</v>
+        <v>224600</v>
       </c>
       <c r="K52" s="3">
         <v>176900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>706500</v>
+        <v>690200</v>
       </c>
       <c r="E54" s="3">
-        <v>755800</v>
+        <v>738400</v>
       </c>
       <c r="F54" s="3">
-        <v>697500</v>
+        <v>681400</v>
       </c>
       <c r="G54" s="3">
-        <v>703400</v>
+        <v>687200</v>
       </c>
       <c r="H54" s="3">
-        <v>733200</v>
+        <v>716300</v>
       </c>
       <c r="I54" s="3">
-        <v>775800</v>
+        <v>757900</v>
       </c>
       <c r="J54" s="3">
-        <v>805900</v>
+        <v>787300</v>
       </c>
       <c r="K54" s="3">
         <v>1503600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151500</v>
+        <v>148000</v>
       </c>
       <c r="E57" s="3">
-        <v>146800</v>
+        <v>143400</v>
       </c>
       <c r="F57" s="3">
-        <v>107400</v>
+        <v>105000</v>
       </c>
       <c r="G57" s="3">
-        <v>104900</v>
+        <v>102500</v>
       </c>
       <c r="H57" s="3">
-        <v>96900</v>
+        <v>94600</v>
       </c>
       <c r="I57" s="3">
-        <v>95600</v>
+        <v>93400</v>
       </c>
       <c r="J57" s="3">
-        <v>109700</v>
+        <v>107200</v>
       </c>
       <c r="K57" s="3">
         <v>89400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57700</v>
+        <v>56400</v>
       </c>
       <c r="E58" s="3">
-        <v>56000</v>
+        <v>54700</v>
       </c>
       <c r="F58" s="3">
-        <v>105000</v>
+        <v>102600</v>
       </c>
       <c r="G58" s="3">
-        <v>58600</v>
+        <v>57200</v>
       </c>
       <c r="H58" s="3">
-        <v>46800</v>
+        <v>45700</v>
       </c>
       <c r="I58" s="3">
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="J58" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="K58" s="3">
         <v>14800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="E59" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="F59" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G59" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="H59" s="3">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="I59" s="3">
-        <v>25000</v>
+        <v>24400</v>
       </c>
       <c r="J59" s="3">
-        <v>41400</v>
+        <v>40500</v>
       </c>
       <c r="K59" s="3">
         <v>998400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221200</v>
+        <v>216100</v>
       </c>
       <c r="E60" s="3">
-        <v>219400</v>
+        <v>214300</v>
       </c>
       <c r="F60" s="3">
-        <v>216500</v>
+        <v>211500</v>
       </c>
       <c r="G60" s="3">
-        <v>178100</v>
+        <v>174000</v>
       </c>
       <c r="H60" s="3">
-        <v>169900</v>
+        <v>166000</v>
       </c>
       <c r="I60" s="3">
-        <v>163600</v>
+        <v>159800</v>
       </c>
       <c r="J60" s="3">
-        <v>171100</v>
+        <v>167100</v>
       </c>
       <c r="K60" s="3">
         <v>1017100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>363500</v>
+        <v>355200</v>
       </c>
       <c r="E61" s="3">
-        <v>387000</v>
+        <v>378100</v>
       </c>
       <c r="F61" s="3">
-        <v>331600</v>
+        <v>323900</v>
       </c>
       <c r="G61" s="3">
-        <v>356500</v>
+        <v>348300</v>
       </c>
       <c r="H61" s="3">
-        <v>373900</v>
+        <v>365200</v>
       </c>
       <c r="I61" s="3">
-        <v>352100</v>
+        <v>344000</v>
       </c>
       <c r="J61" s="3">
-        <v>336400</v>
+        <v>328600</v>
       </c>
       <c r="K61" s="3">
         <v>355800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41800</v>
+        <v>40800</v>
       </c>
       <c r="E62" s="3">
-        <v>48800</v>
+        <v>47700</v>
       </c>
       <c r="F62" s="3">
-        <v>58800</v>
+        <v>57500</v>
       </c>
       <c r="G62" s="3">
-        <v>69900</v>
+        <v>68200</v>
       </c>
       <c r="H62" s="3">
-        <v>88200</v>
+        <v>86200</v>
       </c>
       <c r="I62" s="3">
-        <v>122900</v>
+        <v>120100</v>
       </c>
       <c r="J62" s="3">
-        <v>163300</v>
+        <v>159600</v>
       </c>
       <c r="K62" s="3">
         <v>132700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>626500</v>
+        <v>612100</v>
       </c>
       <c r="E66" s="3">
-        <v>655200</v>
+        <v>640100</v>
       </c>
       <c r="F66" s="3">
-        <v>606900</v>
+        <v>592900</v>
       </c>
       <c r="G66" s="3">
-        <v>604500</v>
+        <v>590600</v>
       </c>
       <c r="H66" s="3">
-        <v>632000</v>
+        <v>617400</v>
       </c>
       <c r="I66" s="3">
-        <v>638700</v>
+        <v>623900</v>
       </c>
       <c r="J66" s="3">
-        <v>670800</v>
+        <v>655300</v>
       </c>
       <c r="K66" s="3">
         <v>1505600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-315800</v>
+        <v>-308500</v>
       </c>
       <c r="E72" s="3">
-        <v>-291100</v>
+        <v>-284400</v>
       </c>
       <c r="F72" s="3">
-        <v>-299900</v>
+        <v>-293000</v>
       </c>
       <c r="G72" s="3">
-        <v>-288900</v>
+        <v>-282200</v>
       </c>
       <c r="H72" s="3">
-        <v>-286500</v>
+        <v>-279900</v>
       </c>
       <c r="I72" s="3">
-        <v>-252700</v>
+        <v>-246900</v>
       </c>
       <c r="J72" s="3">
-        <v>-247200</v>
+        <v>-241500</v>
       </c>
       <c r="K72" s="3">
         <v>-395000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80000</v>
+        <v>78100</v>
       </c>
       <c r="E76" s="3">
-        <v>100600</v>
+        <v>98300</v>
       </c>
       <c r="F76" s="3">
-        <v>90600</v>
+        <v>88500</v>
       </c>
       <c r="G76" s="3">
+        <v>96600</v>
+      </c>
+      <c r="H76" s="3">
         <v>98900</v>
       </c>
-      <c r="H76" s="3">
-        <v>101200</v>
-      </c>
       <c r="I76" s="3">
-        <v>137100</v>
+        <v>134000</v>
       </c>
       <c r="J76" s="3">
-        <v>135100</v>
+        <v>132000</v>
       </c>
       <c r="K76" s="3">
         <v>-2000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="E81" s="3">
-        <v>42500</v>
+        <v>41500</v>
       </c>
       <c r="F81" s="3">
-        <v>22500</v>
+        <v>21900</v>
       </c>
       <c r="G81" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="H81" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I81" s="3">
-        <v>27800</v>
+        <v>27200</v>
       </c>
       <c r="J81" s="3">
-        <v>182100</v>
+        <v>177900</v>
       </c>
       <c r="K81" s="3">
         <v>-14700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="E83" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F83" s="3">
         <v>30400</v>
       </c>
-      <c r="F83" s="3">
-        <v>31100</v>
-      </c>
       <c r="G83" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
       <c r="H83" s="3">
-        <v>24600</v>
+        <v>24100</v>
       </c>
       <c r="I83" s="3">
-        <v>25400</v>
+        <v>24800</v>
       </c>
       <c r="J83" s="3">
-        <v>21400</v>
+        <v>20900</v>
       </c>
       <c r="K83" s="3">
         <v>53500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49800</v>
+        <v>48600</v>
       </c>
       <c r="E89" s="3">
-        <v>95200</v>
+        <v>93000</v>
       </c>
       <c r="F89" s="3">
-        <v>35500</v>
+        <v>34600</v>
       </c>
       <c r="G89" s="3">
-        <v>31000</v>
+        <v>30300</v>
       </c>
       <c r="H89" s="3">
-        <v>37000</v>
+        <v>36200</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>41400</v>
+        <v>40500</v>
       </c>
       <c r="K89" s="3">
         <v>67200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54600</v>
+        <v>-53300</v>
       </c>
       <c r="E91" s="3">
-        <v>-26000</v>
+        <v>-25400</v>
       </c>
       <c r="F91" s="3">
-        <v>-26000</v>
+        <v>-25400</v>
       </c>
       <c r="G91" s="3">
-        <v>-39700</v>
+        <v>-38800</v>
       </c>
       <c r="H91" s="3">
-        <v>-32300</v>
+        <v>-31500</v>
       </c>
       <c r="I91" s="3">
-        <v>-30500</v>
+        <v>-29800</v>
       </c>
       <c r="J91" s="3">
-        <v>-27800</v>
+        <v>-27200</v>
       </c>
       <c r="K91" s="3">
         <v>-23700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50000</v>
+        <v>-48900</v>
       </c>
       <c r="E94" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="G94" s="3">
-        <v>-43200</v>
+        <v>-42200</v>
       </c>
       <c r="H94" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I94" s="3">
-        <v>-13700</v>
+        <v>-13400</v>
       </c>
       <c r="J94" s="3">
-        <v>-46900</v>
+        <v>-45800</v>
       </c>
       <c r="K94" s="3">
         <v>-39000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33700</v>
+        <v>-33000</v>
       </c>
       <c r="E96" s="3">
-        <v>-32400</v>
+        <v>-31600</v>
       </c>
       <c r="F96" s="3">
-        <v>-29200</v>
+        <v>-28500</v>
       </c>
       <c r="G96" s="3">
-        <v>-29400</v>
+        <v>-28700</v>
       </c>
       <c r="H96" s="3">
-        <v>-29400</v>
+        <v>-28800</v>
       </c>
       <c r="I96" s="3">
-        <v>-28300</v>
+        <v>-27700</v>
       </c>
       <c r="J96" s="3">
-        <v>-27900</v>
+        <v>-27300</v>
       </c>
       <c r="K96" s="3">
         <v>-28000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58700</v>
+        <v>-57400</v>
       </c>
       <c r="E100" s="3">
-        <v>-29900</v>
+        <v>-29300</v>
       </c>
       <c r="F100" s="3">
-        <v>-22500</v>
+        <v>-22000</v>
       </c>
       <c r="G100" s="3">
-        <v>-38300</v>
+        <v>-37400</v>
       </c>
       <c r="H100" s="3">
-        <v>-18500</v>
+        <v>-18100</v>
       </c>
       <c r="I100" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="J100" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K100" s="3">
         <v>-29600</v>
@@ -3974,10 +3974,10 @@
         <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59100</v>
+        <v>-57800</v>
       </c>
       <c r="E102" s="3">
-        <v>67100</v>
+        <v>65500</v>
       </c>
       <c r="F102" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="G102" s="3">
-        <v>-48900</v>
+        <v>-47700</v>
       </c>
       <c r="H102" s="3">
-        <v>20900</v>
+        <v>20400</v>
       </c>
       <c r="I102" s="3">
         <v>-1600</v>
       </c>
       <c r="J102" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>932800</v>
+        <v>941500</v>
       </c>
       <c r="E8" s="3">
-        <v>846000</v>
+        <v>853900</v>
       </c>
       <c r="F8" s="3">
-        <v>867800</v>
+        <v>875800</v>
       </c>
       <c r="G8" s="3">
-        <v>858600</v>
+        <v>866600</v>
       </c>
       <c r="H8" s="3">
-        <v>841300</v>
+        <v>849100</v>
       </c>
       <c r="I8" s="3">
-        <v>813200</v>
+        <v>820800</v>
       </c>
       <c r="J8" s="3">
-        <v>723200</v>
+        <v>729900</v>
       </c>
       <c r="K8" s="3">
         <v>640700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>820600</v>
+        <v>828200</v>
       </c>
       <c r="E9" s="3">
-        <v>707200</v>
+        <v>713800</v>
       </c>
       <c r="F9" s="3">
-        <v>765500</v>
+        <v>772600</v>
       </c>
       <c r="G9" s="3">
-        <v>755900</v>
+        <v>762900</v>
       </c>
       <c r="H9" s="3">
-        <v>737100</v>
+        <v>744000</v>
       </c>
       <c r="I9" s="3">
-        <v>718600</v>
+        <v>725200</v>
       </c>
       <c r="J9" s="3">
-        <v>635900</v>
+        <v>641800</v>
       </c>
       <c r="K9" s="3">
         <v>559900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>112200</v>
+        <v>113200</v>
       </c>
       <c r="E10" s="3">
-        <v>138800</v>
+        <v>140100</v>
       </c>
       <c r="F10" s="3">
-        <v>102300</v>
+        <v>103300</v>
       </c>
       <c r="G10" s="3">
-        <v>102700</v>
+        <v>103700</v>
       </c>
       <c r="H10" s="3">
-        <v>104100</v>
+        <v>105100</v>
       </c>
       <c r="I10" s="3">
-        <v>94700</v>
+        <v>95500</v>
       </c>
       <c r="J10" s="3">
-        <v>87300</v>
+        <v>88100</v>
       </c>
       <c r="K10" s="3">
         <v>80800</v>
@@ -935,16 +935,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G14" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>3100</v>
       </c>
       <c r="J14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K14" s="3">
         <v>11200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29000</v>
+        <v>29300</v>
       </c>
       <c r="E15" s="3">
-        <v>58900</v>
+        <v>59500</v>
       </c>
       <c r="F15" s="3">
-        <v>60700</v>
+        <v>61300</v>
       </c>
       <c r="G15" s="3">
-        <v>27000</v>
+        <v>27300</v>
       </c>
       <c r="H15" s="3">
+        <v>24300</v>
+      </c>
+      <c r="I15" s="3">
         <v>24100</v>
       </c>
-      <c r="I15" s="3">
-        <v>23900</v>
-      </c>
       <c r="J15" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="K15" s="3">
         <v>18700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>901300</v>
+        <v>909700</v>
       </c>
       <c r="E17" s="3">
-        <v>778000</v>
+        <v>785200</v>
       </c>
       <c r="F17" s="3">
-        <v>829200</v>
+        <v>836900</v>
       </c>
       <c r="G17" s="3">
-        <v>828900</v>
+        <v>836600</v>
       </c>
       <c r="H17" s="3">
-        <v>790500</v>
+        <v>797800</v>
       </c>
       <c r="I17" s="3">
-        <v>769000</v>
+        <v>776100</v>
       </c>
       <c r="J17" s="3">
-        <v>682300</v>
+        <v>688600</v>
       </c>
       <c r="K17" s="3">
         <v>603400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31500</v>
+        <v>31800</v>
       </c>
       <c r="E18" s="3">
-        <v>68000</v>
+        <v>68600</v>
       </c>
       <c r="F18" s="3">
-        <v>38600</v>
+        <v>38900</v>
       </c>
       <c r="G18" s="3">
-        <v>29700</v>
+        <v>30000</v>
       </c>
       <c r="H18" s="3">
-        <v>50800</v>
+        <v>51200</v>
       </c>
       <c r="I18" s="3">
-        <v>44300</v>
+        <v>44700</v>
       </c>
       <c r="J18" s="3">
-        <v>40900</v>
+        <v>41300</v>
       </c>
       <c r="K18" s="3">
         <v>37300</v>
@@ -1137,10 +1137,10 @@
         <v>3400</v>
       </c>
       <c r="I20" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="J20" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="K20" s="3">
         <v>1500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62800</v>
+        <v>63200</v>
       </c>
       <c r="E21" s="3">
-        <v>96600</v>
+        <v>97200</v>
       </c>
       <c r="F21" s="3">
-        <v>69400</v>
+        <v>69800</v>
       </c>
       <c r="G21" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="H21" s="3">
-        <v>78300</v>
+        <v>78900</v>
       </c>
       <c r="I21" s="3">
-        <v>75400</v>
+        <v>75900</v>
       </c>
       <c r="J21" s="3">
-        <v>73600</v>
+        <v>74200</v>
       </c>
       <c r="K21" s="3">
         <v>92200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I22" s="3">
         <v>20900</v>
       </c>
-      <c r="E22" s="3">
-        <v>21700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>21100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20700</v>
-      </c>
       <c r="J22" s="3">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="K22" s="3">
         <v>25800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E23" s="3">
-        <v>45000</v>
+        <v>45400</v>
       </c>
       <c r="F23" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="G23" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H23" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="I23" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="J23" s="3">
-        <v>28800</v>
+        <v>29100</v>
       </c>
       <c r="K23" s="3">
         <v>13000</v>
@@ -1281,22 +1281,22 @@
         <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="F24" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H24" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I24" s="3">
         <v>5700</v>
       </c>
       <c r="J24" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="K24" s="3">
         <v>4400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E26" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="F26" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="G26" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H26" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I26" s="3">
         <v>24300</v>
       </c>
-      <c r="I26" s="3">
-        <v>24100</v>
-      </c>
       <c r="J26" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="K26" s="3">
         <v>8700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E27" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="F27" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="G27" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I27" s="3">
         <v>24300</v>
       </c>
-      <c r="I27" s="3">
-        <v>24100</v>
-      </c>
       <c r="J27" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="K27" s="3">
         <v>8700</v>
@@ -1476,22 +1476,22 @@
         <v>1900</v>
       </c>
       <c r="E29" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F29" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="G29" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="H29" s="3">
-        <v>-22700</v>
+        <v>-22900</v>
       </c>
       <c r="I29" s="3">
         <v>3100</v>
       </c>
       <c r="J29" s="3">
-        <v>159700</v>
+        <v>161200</v>
       </c>
       <c r="K29" s="3">
         <v>-23400</v>
@@ -1605,10 +1605,10 @@
         <v>-3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="J32" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="K32" s="3">
         <v>-1500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E33" s="3">
-        <v>41500</v>
+        <v>41900</v>
       </c>
       <c r="F33" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="G33" s="3">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="H33" s="3">
         <v>1600</v>
       </c>
       <c r="I33" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="J33" s="3">
-        <v>177900</v>
+        <v>179600</v>
       </c>
       <c r="K33" s="3">
         <v>-14700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E35" s="3">
-        <v>41500</v>
+        <v>41900</v>
       </c>
       <c r="F35" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="G35" s="3">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="H35" s="3">
         <v>1600</v>
       </c>
       <c r="I35" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="J35" s="3">
-        <v>177900</v>
+        <v>179600</v>
       </c>
       <c r="K35" s="3">
         <v>-14700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>139200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>73100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>99200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>78600</v>
+      </c>
+      <c r="J41" s="3">
         <v>80200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>138000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>72400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>50500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>98200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>77900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>79400</v>
       </c>
       <c r="K41" s="3">
         <v>27900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64000</v>
+        <v>64600</v>
       </c>
       <c r="E43" s="3">
-        <v>56300</v>
+        <v>56800</v>
       </c>
       <c r="F43" s="3">
-        <v>50900</v>
+        <v>51300</v>
       </c>
       <c r="G43" s="3">
-        <v>52000</v>
+        <v>52500</v>
       </c>
       <c r="H43" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="I43" s="3">
-        <v>42400</v>
+        <v>42800</v>
       </c>
       <c r="J43" s="3">
-        <v>40400</v>
+        <v>40800</v>
       </c>
       <c r="K43" s="3">
         <v>64500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="E45" s="3">
-        <v>32800</v>
+        <v>33100</v>
       </c>
       <c r="F45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H45" s="3">
         <v>17700</v>
       </c>
-      <c r="G45" s="3">
-        <v>18200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>17600</v>
-      </c>
       <c r="I45" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="J45" s="3">
-        <v>42200</v>
+        <v>42600</v>
       </c>
       <c r="K45" s="3">
         <v>993900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>172400</v>
+        <v>174000</v>
       </c>
       <c r="E46" s="3">
-        <v>227000</v>
+        <v>229100</v>
       </c>
       <c r="F46" s="3">
-        <v>141000</v>
+        <v>142300</v>
       </c>
       <c r="G46" s="3">
-        <v>120800</v>
+        <v>121900</v>
       </c>
       <c r="H46" s="3">
-        <v>153900</v>
+        <v>155300</v>
       </c>
       <c r="I46" s="3">
-        <v>141300</v>
+        <v>142600</v>
       </c>
       <c r="J46" s="3">
-        <v>162000</v>
+        <v>163500</v>
       </c>
       <c r="K46" s="3">
         <v>1054000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>410600</v>
+        <v>414400</v>
       </c>
       <c r="E48" s="3">
-        <v>403200</v>
+        <v>406900</v>
       </c>
       <c r="F48" s="3">
-        <v>406700</v>
+        <v>410500</v>
       </c>
       <c r="G48" s="3">
-        <v>394700</v>
+        <v>398400</v>
       </c>
       <c r="H48" s="3">
-        <v>368000</v>
+        <v>371400</v>
       </c>
       <c r="I48" s="3">
-        <v>356800</v>
+        <v>360100</v>
       </c>
       <c r="J48" s="3">
-        <v>326700</v>
+        <v>329800</v>
       </c>
       <c r="K48" s="3">
         <v>116900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70900</v>
+        <v>71600</v>
       </c>
       <c r="E49" s="3">
-        <v>67600</v>
+        <v>68200</v>
       </c>
       <c r="F49" s="3">
-        <v>68900</v>
+        <v>69500</v>
       </c>
       <c r="G49" s="3">
-        <v>73000</v>
+        <v>73700</v>
       </c>
       <c r="H49" s="3">
-        <v>73500</v>
+        <v>74200</v>
       </c>
       <c r="I49" s="3">
-        <v>68800</v>
+        <v>69500</v>
       </c>
       <c r="J49" s="3">
-        <v>73900</v>
+        <v>74600</v>
       </c>
       <c r="K49" s="3">
         <v>25500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="E52" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="F52" s="3">
-        <v>64800</v>
+        <v>65400</v>
       </c>
       <c r="G52" s="3">
-        <v>98700</v>
+        <v>99600</v>
       </c>
       <c r="H52" s="3">
-        <v>120900</v>
+        <v>122000</v>
       </c>
       <c r="I52" s="3">
-        <v>190900</v>
+        <v>192700</v>
       </c>
       <c r="J52" s="3">
-        <v>224600</v>
+        <v>226700</v>
       </c>
       <c r="K52" s="3">
         <v>176900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>690200</v>
+        <v>696600</v>
       </c>
       <c r="E54" s="3">
-        <v>738400</v>
+        <v>745200</v>
       </c>
       <c r="F54" s="3">
-        <v>681400</v>
+        <v>687700</v>
       </c>
       <c r="G54" s="3">
-        <v>687200</v>
+        <v>693500</v>
       </c>
       <c r="H54" s="3">
-        <v>716300</v>
+        <v>722900</v>
       </c>
       <c r="I54" s="3">
-        <v>757900</v>
+        <v>764900</v>
       </c>
       <c r="J54" s="3">
-        <v>787300</v>
+        <v>794600</v>
       </c>
       <c r="K54" s="3">
         <v>1503600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>148000</v>
+        <v>149300</v>
       </c>
       <c r="E57" s="3">
-        <v>143400</v>
+        <v>144700</v>
       </c>
       <c r="F57" s="3">
-        <v>105000</v>
+        <v>105900</v>
       </c>
       <c r="G57" s="3">
-        <v>102500</v>
+        <v>103400</v>
       </c>
       <c r="H57" s="3">
-        <v>94600</v>
+        <v>95500</v>
       </c>
       <c r="I57" s="3">
-        <v>93400</v>
+        <v>94300</v>
       </c>
       <c r="J57" s="3">
-        <v>107200</v>
+        <v>108200</v>
       </c>
       <c r="K57" s="3">
         <v>89400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56400</v>
+        <v>56900</v>
       </c>
       <c r="E58" s="3">
-        <v>54700</v>
+        <v>55200</v>
       </c>
       <c r="F58" s="3">
-        <v>102600</v>
+        <v>103500</v>
       </c>
       <c r="G58" s="3">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="H58" s="3">
-        <v>45700</v>
+        <v>46200</v>
       </c>
       <c r="I58" s="3">
-        <v>42000</v>
+        <v>42400</v>
       </c>
       <c r="J58" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="K58" s="3">
         <v>14800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E59" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="F59" s="3">
         <v>4000</v>
       </c>
       <c r="G59" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="H59" s="3">
-        <v>25600</v>
+        <v>25900</v>
       </c>
       <c r="I59" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="J59" s="3">
-        <v>40500</v>
+        <v>40900</v>
       </c>
       <c r="K59" s="3">
         <v>998400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>216100</v>
+        <v>218100</v>
       </c>
       <c r="E60" s="3">
-        <v>214300</v>
+        <v>216300</v>
       </c>
       <c r="F60" s="3">
-        <v>211500</v>
+        <v>213500</v>
       </c>
       <c r="G60" s="3">
-        <v>174000</v>
+        <v>175600</v>
       </c>
       <c r="H60" s="3">
-        <v>166000</v>
+        <v>167500</v>
       </c>
       <c r="I60" s="3">
-        <v>159800</v>
+        <v>161300</v>
       </c>
       <c r="J60" s="3">
-        <v>167100</v>
+        <v>168700</v>
       </c>
       <c r="K60" s="3">
         <v>1017100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>355200</v>
+        <v>358500</v>
       </c>
       <c r="E61" s="3">
-        <v>378100</v>
+        <v>381600</v>
       </c>
       <c r="F61" s="3">
-        <v>323900</v>
+        <v>326900</v>
       </c>
       <c r="G61" s="3">
-        <v>348300</v>
+        <v>351500</v>
       </c>
       <c r="H61" s="3">
-        <v>365200</v>
+        <v>368600</v>
       </c>
       <c r="I61" s="3">
-        <v>344000</v>
+        <v>347200</v>
       </c>
       <c r="J61" s="3">
-        <v>328600</v>
+        <v>331700</v>
       </c>
       <c r="K61" s="3">
         <v>355800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40800</v>
+        <v>41200</v>
       </c>
       <c r="E62" s="3">
-        <v>47700</v>
+        <v>48100</v>
       </c>
       <c r="F62" s="3">
-        <v>57500</v>
+        <v>58000</v>
       </c>
       <c r="G62" s="3">
-        <v>68200</v>
+        <v>68900</v>
       </c>
       <c r="H62" s="3">
-        <v>86200</v>
+        <v>87000</v>
       </c>
       <c r="I62" s="3">
-        <v>120100</v>
+        <v>121200</v>
       </c>
       <c r="J62" s="3">
-        <v>159600</v>
+        <v>161000</v>
       </c>
       <c r="K62" s="3">
         <v>132700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>612100</v>
+        <v>617800</v>
       </c>
       <c r="E66" s="3">
-        <v>640100</v>
+        <v>646000</v>
       </c>
       <c r="F66" s="3">
-        <v>592900</v>
+        <v>598400</v>
       </c>
       <c r="G66" s="3">
-        <v>590600</v>
+        <v>596000</v>
       </c>
       <c r="H66" s="3">
-        <v>617400</v>
+        <v>623100</v>
       </c>
       <c r="I66" s="3">
-        <v>623900</v>
+        <v>629700</v>
       </c>
       <c r="J66" s="3">
-        <v>655300</v>
+        <v>661400</v>
       </c>
       <c r="K66" s="3">
         <v>1505600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-308500</v>
+        <v>-311400</v>
       </c>
       <c r="E72" s="3">
-        <v>-284400</v>
+        <v>-287000</v>
       </c>
       <c r="F72" s="3">
-        <v>-293000</v>
+        <v>-295700</v>
       </c>
       <c r="G72" s="3">
-        <v>-282200</v>
+        <v>-284900</v>
       </c>
       <c r="H72" s="3">
-        <v>-279900</v>
+        <v>-282500</v>
       </c>
       <c r="I72" s="3">
-        <v>-246900</v>
+        <v>-249200</v>
       </c>
       <c r="J72" s="3">
-        <v>-241500</v>
+        <v>-243800</v>
       </c>
       <c r="K72" s="3">
         <v>-395000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78100</v>
+        <v>78900</v>
       </c>
       <c r="E76" s="3">
-        <v>98300</v>
+        <v>99200</v>
       </c>
       <c r="F76" s="3">
-        <v>88500</v>
+        <v>89300</v>
       </c>
       <c r="G76" s="3">
-        <v>96600</v>
+        <v>97500</v>
       </c>
       <c r="H76" s="3">
-        <v>98900</v>
+        <v>99800</v>
       </c>
       <c r="I76" s="3">
-        <v>134000</v>
+        <v>135200</v>
       </c>
       <c r="J76" s="3">
-        <v>132000</v>
+        <v>133200</v>
       </c>
       <c r="K76" s="3">
         <v>-2000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E81" s="3">
-        <v>41500</v>
+        <v>41900</v>
       </c>
       <c r="F81" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="G81" s="3">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="H81" s="3">
         <v>1600</v>
       </c>
       <c r="I81" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="J81" s="3">
-        <v>177900</v>
+        <v>179600</v>
       </c>
       <c r="K81" s="3">
         <v>-14700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="E83" s="3">
-        <v>29700</v>
+        <v>30000</v>
       </c>
       <c r="F83" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="G83" s="3">
-        <v>27000</v>
+        <v>27300</v>
       </c>
       <c r="H83" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I83" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="J83" s="3">
-        <v>20900</v>
+        <v>21100</v>
       </c>
       <c r="K83" s="3">
         <v>53500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48600</v>
+        <v>49100</v>
       </c>
       <c r="E89" s="3">
-        <v>93000</v>
+        <v>93800</v>
       </c>
       <c r="F89" s="3">
-        <v>34600</v>
+        <v>35000</v>
       </c>
       <c r="G89" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="H89" s="3">
-        <v>36200</v>
+        <v>36500</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>40500</v>
+        <v>40900</v>
       </c>
       <c r="K89" s="3">
         <v>67200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53300</v>
+        <v>-53800</v>
       </c>
       <c r="E91" s="3">
-        <v>-25400</v>
+        <v>-25600</v>
       </c>
       <c r="F91" s="3">
-        <v>-25400</v>
+        <v>-25700</v>
       </c>
       <c r="G91" s="3">
-        <v>-38800</v>
+        <v>-39200</v>
       </c>
       <c r="H91" s="3">
-        <v>-31500</v>
+        <v>-31800</v>
       </c>
       <c r="I91" s="3">
-        <v>-29800</v>
+        <v>-30100</v>
       </c>
       <c r="J91" s="3">
-        <v>-27200</v>
+        <v>-27500</v>
       </c>
       <c r="K91" s="3">
         <v>-23700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-48900</v>
+        <v>-49300</v>
       </c>
       <c r="E94" s="3">
         <v>1500</v>
       </c>
       <c r="F94" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="G94" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="H94" s="3">
         <v>4300</v>
       </c>
       <c r="I94" s="3">
-        <v>-13400</v>
+        <v>-13500</v>
       </c>
       <c r="J94" s="3">
-        <v>-45800</v>
+        <v>-46200</v>
       </c>
       <c r="K94" s="3">
         <v>-39000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33000</v>
+        <v>-33300</v>
       </c>
       <c r="E96" s="3">
-        <v>-31600</v>
+        <v>-31900</v>
       </c>
       <c r="F96" s="3">
-        <v>-28500</v>
+        <v>-28800</v>
       </c>
       <c r="G96" s="3">
-        <v>-28700</v>
+        <v>-29000</v>
       </c>
       <c r="H96" s="3">
-        <v>-28800</v>
+        <v>-29000</v>
       </c>
       <c r="I96" s="3">
-        <v>-27700</v>
+        <v>-27900</v>
       </c>
       <c r="J96" s="3">
-        <v>-27300</v>
+        <v>-27600</v>
       </c>
       <c r="K96" s="3">
         <v>-28000</v>
@@ -3920,22 +3920,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57400</v>
+        <v>-57900</v>
       </c>
       <c r="E100" s="3">
-        <v>-29300</v>
+        <v>-29500</v>
       </c>
       <c r="F100" s="3">
-        <v>-22000</v>
+        <v>-22200</v>
       </c>
       <c r="G100" s="3">
-        <v>-37400</v>
+        <v>-37700</v>
       </c>
       <c r="H100" s="3">
-        <v>-18100</v>
+        <v>-18300</v>
       </c>
       <c r="I100" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="J100" s="3">
         <v>5600</v>
@@ -3974,7 +3974,7 @@
         <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
         <v>3400</v>
@@ -3998,19 +3998,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57800</v>
+        <v>-58300</v>
       </c>
       <c r="E102" s="3">
-        <v>65500</v>
+        <v>66200</v>
       </c>
       <c r="F102" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="G102" s="3">
-        <v>-47700</v>
+        <v>-48200</v>
       </c>
       <c r="H102" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="I102" s="3">
         <v>-1600</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>941500</v>
+        <v>913600</v>
       </c>
       <c r="E8" s="3">
-        <v>853900</v>
+        <v>828600</v>
       </c>
       <c r="F8" s="3">
-        <v>875800</v>
+        <v>849900</v>
       </c>
       <c r="G8" s="3">
-        <v>866600</v>
+        <v>841000</v>
       </c>
       <c r="H8" s="3">
-        <v>849100</v>
+        <v>823900</v>
       </c>
       <c r="I8" s="3">
-        <v>820800</v>
+        <v>796500</v>
       </c>
       <c r="J8" s="3">
-        <v>729900</v>
+        <v>708300</v>
       </c>
       <c r="K8" s="3">
         <v>640700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>828200</v>
+        <v>803700</v>
       </c>
       <c r="E9" s="3">
-        <v>713800</v>
+        <v>692700</v>
       </c>
       <c r="F9" s="3">
-        <v>772600</v>
+        <v>749700</v>
       </c>
       <c r="G9" s="3">
-        <v>762900</v>
+        <v>740400</v>
       </c>
       <c r="H9" s="3">
-        <v>744000</v>
+        <v>722000</v>
       </c>
       <c r="I9" s="3">
-        <v>725200</v>
+        <v>703800</v>
       </c>
       <c r="J9" s="3">
-        <v>641800</v>
+        <v>622800</v>
       </c>
       <c r="K9" s="3">
         <v>559900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>113200</v>
+        <v>109900</v>
       </c>
       <c r="E10" s="3">
-        <v>140100</v>
+        <v>135900</v>
       </c>
       <c r="F10" s="3">
-        <v>103300</v>
+        <v>100200</v>
       </c>
       <c r="G10" s="3">
-        <v>103700</v>
+        <v>100600</v>
       </c>
       <c r="H10" s="3">
-        <v>105100</v>
+        <v>102000</v>
       </c>
       <c r="I10" s="3">
-        <v>95500</v>
+        <v>92700</v>
       </c>
       <c r="J10" s="3">
-        <v>88100</v>
+        <v>85500</v>
       </c>
       <c r="K10" s="3">
         <v>80800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="E14" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G14" s="3">
-        <v>15600</v>
+        <v>15200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J14" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K14" s="3">
         <v>11200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="E15" s="3">
+        <v>57700</v>
+      </c>
+      <c r="F15" s="3">
         <v>59500</v>
       </c>
-      <c r="F15" s="3">
-        <v>61300</v>
-      </c>
       <c r="G15" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="H15" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="I15" s="3">
-        <v>24100</v>
+        <v>23400</v>
       </c>
       <c r="J15" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="K15" s="3">
         <v>18700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>909700</v>
+        <v>882800</v>
       </c>
       <c r="E17" s="3">
-        <v>785200</v>
+        <v>762000</v>
       </c>
       <c r="F17" s="3">
-        <v>836900</v>
+        <v>812200</v>
       </c>
       <c r="G17" s="3">
-        <v>836600</v>
+        <v>811900</v>
       </c>
       <c r="H17" s="3">
-        <v>797800</v>
+        <v>774200</v>
       </c>
       <c r="I17" s="3">
-        <v>776100</v>
+        <v>753100</v>
       </c>
       <c r="J17" s="3">
-        <v>688600</v>
+        <v>668200</v>
       </c>
       <c r="K17" s="3">
         <v>603400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31800</v>
+        <v>30800</v>
       </c>
       <c r="E18" s="3">
-        <v>68600</v>
+        <v>66600</v>
       </c>
       <c r="F18" s="3">
-        <v>38900</v>
+        <v>37800</v>
       </c>
       <c r="G18" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="H18" s="3">
-        <v>51200</v>
+        <v>49700</v>
       </c>
       <c r="I18" s="3">
-        <v>44700</v>
+        <v>43400</v>
       </c>
       <c r="J18" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="K18" s="3">
         <v>37300</v>
@@ -1122,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
         <v>-1300</v>
@@ -1131,16 +1131,16 @@
         <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I20" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="J20" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="K20" s="3">
         <v>1500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63200</v>
+        <v>61000</v>
       </c>
       <c r="E21" s="3">
-        <v>97200</v>
+        <v>94000</v>
       </c>
       <c r="F21" s="3">
-        <v>69800</v>
+        <v>67400</v>
       </c>
       <c r="G21" s="3">
-        <v>58100</v>
+        <v>56000</v>
       </c>
       <c r="H21" s="3">
-        <v>78900</v>
+        <v>76200</v>
       </c>
       <c r="I21" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="J21" s="3">
-        <v>74200</v>
+        <v>71700</v>
       </c>
       <c r="K21" s="3">
         <v>92200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="E22" s="3">
-        <v>21900</v>
+        <v>21300</v>
       </c>
       <c r="F22" s="3">
-        <v>22200</v>
+        <v>21600</v>
       </c>
       <c r="G22" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="H22" s="3">
-        <v>21700</v>
+        <v>21100</v>
       </c>
       <c r="I22" s="3">
-        <v>20900</v>
+        <v>20300</v>
       </c>
       <c r="J22" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="K22" s="3">
         <v>25800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="E23" s="3">
-        <v>45400</v>
+        <v>44100</v>
       </c>
       <c r="F23" s="3">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="G23" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="H23" s="3">
-        <v>32900</v>
+        <v>32000</v>
       </c>
       <c r="I23" s="3">
-        <v>30000</v>
+        <v>29200</v>
       </c>
       <c r="J23" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="K23" s="3">
         <v>13000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5700</v>
-      </c>
       <c r="J24" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="K24" s="3">
         <v>4400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="E26" s="3">
-        <v>32800</v>
+        <v>31900</v>
       </c>
       <c r="F26" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="G26" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H26" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="I26" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="J26" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="K26" s="3">
         <v>8700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="E27" s="3">
-        <v>32800</v>
+        <v>31900</v>
       </c>
       <c r="F27" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="G27" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H27" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="I27" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="J27" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="K27" s="3">
         <v>8700</v>
@@ -1476,22 +1476,22 @@
         <v>1900</v>
       </c>
       <c r="E29" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="F29" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="G29" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="H29" s="3">
-        <v>-22900</v>
+        <v>-22200</v>
       </c>
       <c r="I29" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J29" s="3">
-        <v>161200</v>
+        <v>156500</v>
       </c>
       <c r="K29" s="3">
         <v>-23400</v>
@@ -1590,7 +1590,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
         <v>1300</v>
@@ -1599,16 +1599,16 @@
         <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="I32" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="J32" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="K32" s="3">
         <v>-1500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="E33" s="3">
-        <v>41900</v>
+        <v>40700</v>
       </c>
       <c r="F33" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G33" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="H33" s="3">
         <v>1600</v>
       </c>
       <c r="I33" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="J33" s="3">
-        <v>179600</v>
+        <v>174300</v>
       </c>
       <c r="K33" s="3">
         <v>-14700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="E35" s="3">
-        <v>41900</v>
+        <v>40700</v>
       </c>
       <c r="F35" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G35" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="H35" s="3">
         <v>1600</v>
       </c>
       <c r="I35" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="J35" s="3">
-        <v>179600</v>
+        <v>174300</v>
       </c>
       <c r="K35" s="3">
         <v>-14700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81000</v>
+        <v>78600</v>
       </c>
       <c r="E41" s="3">
-        <v>139200</v>
+        <v>135100</v>
       </c>
       <c r="F41" s="3">
-        <v>73100</v>
+        <v>70900</v>
       </c>
       <c r="G41" s="3">
-        <v>51000</v>
+        <v>49500</v>
       </c>
       <c r="H41" s="3">
-        <v>99200</v>
+        <v>96200</v>
       </c>
       <c r="I41" s="3">
-        <v>78600</v>
+        <v>76300</v>
       </c>
       <c r="J41" s="3">
-        <v>80200</v>
+        <v>77800</v>
       </c>
       <c r="K41" s="3">
         <v>27900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64600</v>
+        <v>62700</v>
       </c>
       <c r="E43" s="3">
-        <v>56800</v>
+        <v>55100</v>
       </c>
       <c r="F43" s="3">
-        <v>51300</v>
+        <v>49800</v>
       </c>
       <c r="G43" s="3">
-        <v>52500</v>
+        <v>51000</v>
       </c>
       <c r="H43" s="3">
-        <v>38400</v>
+        <v>37300</v>
       </c>
       <c r="I43" s="3">
-        <v>42800</v>
+        <v>41500</v>
       </c>
       <c r="J43" s="3">
-        <v>40800</v>
+        <v>39600</v>
       </c>
       <c r="K43" s="3">
         <v>64500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28400</v>
+        <v>27600</v>
       </c>
       <c r="E45" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="F45" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="I45" s="3">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="J45" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="K45" s="3">
         <v>993900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>174000</v>
+        <v>168900</v>
       </c>
       <c r="E46" s="3">
-        <v>229100</v>
+        <v>222300</v>
       </c>
       <c r="F46" s="3">
-        <v>142300</v>
+        <v>138100</v>
       </c>
       <c r="G46" s="3">
-        <v>121900</v>
+        <v>118300</v>
       </c>
       <c r="H46" s="3">
-        <v>155300</v>
+        <v>150800</v>
       </c>
       <c r="I46" s="3">
-        <v>142600</v>
+        <v>138400</v>
       </c>
       <c r="J46" s="3">
-        <v>163500</v>
+        <v>158700</v>
       </c>
       <c r="K46" s="3">
         <v>1054000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>414400</v>
+        <v>402200</v>
       </c>
       <c r="E48" s="3">
-        <v>406900</v>
+        <v>394900</v>
       </c>
       <c r="F48" s="3">
-        <v>410500</v>
+        <v>398400</v>
       </c>
       <c r="G48" s="3">
-        <v>398400</v>
+        <v>386600</v>
       </c>
       <c r="H48" s="3">
-        <v>371400</v>
+        <v>360400</v>
       </c>
       <c r="I48" s="3">
-        <v>360100</v>
+        <v>349500</v>
       </c>
       <c r="J48" s="3">
-        <v>329800</v>
+        <v>320000</v>
       </c>
       <c r="K48" s="3">
         <v>116900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71600</v>
+        <v>69400</v>
       </c>
       <c r="E49" s="3">
-        <v>68200</v>
+        <v>66200</v>
       </c>
       <c r="F49" s="3">
-        <v>69500</v>
+        <v>67500</v>
       </c>
       <c r="G49" s="3">
-        <v>73700</v>
+        <v>71500</v>
       </c>
       <c r="H49" s="3">
-        <v>74200</v>
+        <v>72000</v>
       </c>
       <c r="I49" s="3">
-        <v>69500</v>
+        <v>67400</v>
       </c>
       <c r="J49" s="3">
-        <v>74600</v>
+        <v>72300</v>
       </c>
       <c r="K49" s="3">
         <v>25500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="E52" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="F52" s="3">
-        <v>65400</v>
+        <v>63400</v>
       </c>
       <c r="G52" s="3">
-        <v>99600</v>
+        <v>96700</v>
       </c>
       <c r="H52" s="3">
-        <v>122000</v>
+        <v>118400</v>
       </c>
       <c r="I52" s="3">
-        <v>192700</v>
+        <v>187000</v>
       </c>
       <c r="J52" s="3">
-        <v>226700</v>
+        <v>220000</v>
       </c>
       <c r="K52" s="3">
         <v>176900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>696600</v>
+        <v>676000</v>
       </c>
       <c r="E54" s="3">
-        <v>745200</v>
+        <v>723200</v>
       </c>
       <c r="F54" s="3">
-        <v>687700</v>
+        <v>667400</v>
       </c>
       <c r="G54" s="3">
-        <v>693500</v>
+        <v>673000</v>
       </c>
       <c r="H54" s="3">
-        <v>722900</v>
+        <v>701500</v>
       </c>
       <c r="I54" s="3">
-        <v>764900</v>
+        <v>742300</v>
       </c>
       <c r="J54" s="3">
-        <v>794600</v>
+        <v>771100</v>
       </c>
       <c r="K54" s="3">
         <v>1503600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>149300</v>
+        <v>144900</v>
       </c>
       <c r="E57" s="3">
-        <v>144700</v>
+        <v>140500</v>
       </c>
       <c r="F57" s="3">
-        <v>105900</v>
+        <v>102800</v>
       </c>
       <c r="G57" s="3">
-        <v>103400</v>
+        <v>100400</v>
       </c>
       <c r="H57" s="3">
-        <v>95500</v>
+        <v>92700</v>
       </c>
       <c r="I57" s="3">
-        <v>94300</v>
+        <v>91500</v>
       </c>
       <c r="J57" s="3">
-        <v>108200</v>
+        <v>105000</v>
       </c>
       <c r="K57" s="3">
         <v>89400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56900</v>
+        <v>55200</v>
       </c>
       <c r="E58" s="3">
-        <v>55200</v>
+        <v>53600</v>
       </c>
       <c r="F58" s="3">
-        <v>103500</v>
+        <v>100400</v>
       </c>
       <c r="G58" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="H58" s="3">
-        <v>46200</v>
+        <v>44800</v>
       </c>
       <c r="I58" s="3">
-        <v>42400</v>
+        <v>41200</v>
       </c>
       <c r="J58" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="K58" s="3">
         <v>14800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="E59" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="F59" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G59" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H59" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="I59" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="J59" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="K59" s="3">
         <v>998400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>218100</v>
+        <v>211700</v>
       </c>
       <c r="E60" s="3">
-        <v>216300</v>
+        <v>209900</v>
       </c>
       <c r="F60" s="3">
-        <v>213500</v>
+        <v>207100</v>
       </c>
       <c r="G60" s="3">
-        <v>175600</v>
+        <v>170400</v>
       </c>
       <c r="H60" s="3">
-        <v>167500</v>
+        <v>162600</v>
       </c>
       <c r="I60" s="3">
-        <v>161300</v>
+        <v>156600</v>
       </c>
       <c r="J60" s="3">
-        <v>168700</v>
+        <v>163700</v>
       </c>
       <c r="K60" s="3">
         <v>1017100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>358500</v>
+        <v>347900</v>
       </c>
       <c r="E61" s="3">
-        <v>381600</v>
+        <v>370300</v>
       </c>
       <c r="F61" s="3">
-        <v>326900</v>
+        <v>317300</v>
       </c>
       <c r="G61" s="3">
-        <v>351500</v>
+        <v>341100</v>
       </c>
       <c r="H61" s="3">
-        <v>368600</v>
+        <v>357700</v>
       </c>
       <c r="I61" s="3">
-        <v>347200</v>
+        <v>336900</v>
       </c>
       <c r="J61" s="3">
-        <v>331700</v>
+        <v>321900</v>
       </c>
       <c r="K61" s="3">
         <v>355800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41200</v>
+        <v>40000</v>
       </c>
       <c r="E62" s="3">
-        <v>48100</v>
+        <v>46700</v>
       </c>
       <c r="F62" s="3">
-        <v>58000</v>
+        <v>56300</v>
       </c>
       <c r="G62" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="H62" s="3">
-        <v>87000</v>
+        <v>84400</v>
       </c>
       <c r="I62" s="3">
-        <v>121200</v>
+        <v>117600</v>
       </c>
       <c r="J62" s="3">
-        <v>161000</v>
+        <v>156300</v>
       </c>
       <c r="K62" s="3">
         <v>132700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>617800</v>
+        <v>599500</v>
       </c>
       <c r="E66" s="3">
-        <v>646000</v>
+        <v>626900</v>
       </c>
       <c r="F66" s="3">
-        <v>598400</v>
+        <v>580700</v>
       </c>
       <c r="G66" s="3">
-        <v>596000</v>
+        <v>578400</v>
       </c>
       <c r="H66" s="3">
-        <v>623100</v>
+        <v>604700</v>
       </c>
       <c r="I66" s="3">
-        <v>629700</v>
+        <v>611100</v>
       </c>
       <c r="J66" s="3">
-        <v>661400</v>
+        <v>641800</v>
       </c>
       <c r="K66" s="3">
         <v>1505600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-311400</v>
+        <v>-302200</v>
       </c>
       <c r="E72" s="3">
+        <v>-278500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-287000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-295700</v>
-      </c>
       <c r="G72" s="3">
-        <v>-284900</v>
+        <v>-276400</v>
       </c>
       <c r="H72" s="3">
-        <v>-282500</v>
+        <v>-274100</v>
       </c>
       <c r="I72" s="3">
-        <v>-249200</v>
+        <v>-241800</v>
       </c>
       <c r="J72" s="3">
-        <v>-243800</v>
+        <v>-236600</v>
       </c>
       <c r="K72" s="3">
         <v>-395000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78900</v>
+        <v>76500</v>
       </c>
       <c r="E76" s="3">
-        <v>99200</v>
+        <v>96300</v>
       </c>
       <c r="F76" s="3">
-        <v>89300</v>
+        <v>86700</v>
       </c>
       <c r="G76" s="3">
-        <v>97500</v>
+        <v>94600</v>
       </c>
       <c r="H76" s="3">
-        <v>99800</v>
+        <v>96800</v>
       </c>
       <c r="I76" s="3">
-        <v>135200</v>
+        <v>131200</v>
       </c>
       <c r="J76" s="3">
-        <v>133200</v>
+        <v>129200</v>
       </c>
       <c r="K76" s="3">
         <v>-2000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="E81" s="3">
-        <v>41900</v>
+        <v>40700</v>
       </c>
       <c r="F81" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G81" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="H81" s="3">
         <v>1600</v>
       </c>
       <c r="I81" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="J81" s="3">
-        <v>179600</v>
+        <v>174300</v>
       </c>
       <c r="K81" s="3">
         <v>-14700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29800</v>
+        <v>29000</v>
       </c>
       <c r="E83" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="F83" s="3">
-        <v>30600</v>
+        <v>29700</v>
       </c>
       <c r="G83" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="H83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I83" s="3">
         <v>24300</v>
       </c>
-      <c r="I83" s="3">
-        <v>25000</v>
-      </c>
       <c r="J83" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="K83" s="3">
         <v>53500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49100</v>
+        <v>47600</v>
       </c>
       <c r="E89" s="3">
-        <v>93800</v>
+        <v>91100</v>
       </c>
       <c r="F89" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="G89" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="H89" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>40900</v>
+        <v>39600</v>
       </c>
       <c r="K89" s="3">
         <v>67200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53800</v>
+        <v>-52200</v>
       </c>
       <c r="E91" s="3">
-        <v>-25600</v>
+        <v>-24900</v>
       </c>
       <c r="F91" s="3">
-        <v>-25700</v>
+        <v>-24900</v>
       </c>
       <c r="G91" s="3">
-        <v>-39200</v>
+        <v>-38000</v>
       </c>
       <c r="H91" s="3">
-        <v>-31800</v>
+        <v>-30900</v>
       </c>
       <c r="I91" s="3">
-        <v>-30100</v>
+        <v>-29200</v>
       </c>
       <c r="J91" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="K91" s="3">
         <v>-23700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49300</v>
+        <v>-47900</v>
       </c>
       <c r="E94" s="3">
         <v>1500</v>
       </c>
       <c r="F94" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="G94" s="3">
-        <v>-42600</v>
+        <v>-41300</v>
       </c>
       <c r="H94" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I94" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="J94" s="3">
-        <v>-46200</v>
+        <v>-44800</v>
       </c>
       <c r="K94" s="3">
         <v>-39000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33300</v>
+        <v>-32300</v>
       </c>
       <c r="E96" s="3">
-        <v>-31900</v>
+        <v>-31000</v>
       </c>
       <c r="F96" s="3">
-        <v>-28800</v>
+        <v>-27900</v>
       </c>
       <c r="G96" s="3">
-        <v>-29000</v>
+        <v>-28100</v>
       </c>
       <c r="H96" s="3">
-        <v>-29000</v>
+        <v>-28200</v>
       </c>
       <c r="I96" s="3">
-        <v>-27900</v>
+        <v>-27100</v>
       </c>
       <c r="J96" s="3">
-        <v>-27600</v>
+        <v>-26700</v>
       </c>
       <c r="K96" s="3">
         <v>-28000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57900</v>
+        <v>-56200</v>
       </c>
       <c r="E100" s="3">
-        <v>-29500</v>
+        <v>-28700</v>
       </c>
       <c r="F100" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="G100" s="3">
-        <v>-37700</v>
+        <v>-36600</v>
       </c>
       <c r="H100" s="3">
-        <v>-18300</v>
+        <v>-17700</v>
       </c>
       <c r="I100" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="J100" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="K100" s="3">
         <v>-29600</v>
@@ -3965,19 +3965,19 @@
         <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G101" s="3">
         <v>1600</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K101" s="3">
         <v>3600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-58300</v>
+        <v>-56600</v>
       </c>
       <c r="E102" s="3">
-        <v>66200</v>
+        <v>64200</v>
       </c>
       <c r="F102" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="G102" s="3">
-        <v>-48200</v>
+        <v>-46800</v>
       </c>
       <c r="H102" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J102" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>EXETF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>38717</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>913600</v>
+        <v>883500</v>
       </c>
       <c r="E8" s="3">
-        <v>828600</v>
+        <v>844000</v>
       </c>
       <c r="F8" s="3">
-        <v>849900</v>
+        <v>798100</v>
       </c>
       <c r="G8" s="3">
-        <v>841000</v>
+        <v>818600</v>
       </c>
       <c r="H8" s="3">
-        <v>823900</v>
+        <v>810000</v>
       </c>
       <c r="I8" s="3">
-        <v>796500</v>
+        <v>793600</v>
       </c>
       <c r="J8" s="3">
+        <v>767200</v>
+      </c>
+      <c r="K8" s="3">
         <v>708300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>640700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>603400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1533700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1507900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>803700</v>
+        <v>805000</v>
       </c>
       <c r="E9" s="3">
-        <v>692700</v>
+        <v>747800</v>
       </c>
       <c r="F9" s="3">
-        <v>749700</v>
+        <v>667200</v>
       </c>
       <c r="G9" s="3">
-        <v>740400</v>
+        <v>722100</v>
       </c>
       <c r="H9" s="3">
-        <v>722000</v>
+        <v>713100</v>
       </c>
       <c r="I9" s="3">
-        <v>703800</v>
+        <v>695400</v>
       </c>
       <c r="J9" s="3">
+        <v>677900</v>
+      </c>
+      <c r="K9" s="3">
         <v>622800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>559900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>525700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1348300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1278800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>109900</v>
+        <v>78500</v>
       </c>
       <c r="E10" s="3">
-        <v>135900</v>
+        <v>96200</v>
       </c>
       <c r="F10" s="3">
-        <v>100200</v>
+        <v>130900</v>
       </c>
       <c r="G10" s="3">
-        <v>100600</v>
+        <v>96500</v>
       </c>
       <c r="H10" s="3">
-        <v>102000</v>
+        <v>96900</v>
       </c>
       <c r="I10" s="3">
-        <v>92700</v>
+        <v>98200</v>
       </c>
       <c r="J10" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K10" s="3">
         <v>85500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>229200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L14" s="3">
         <v>11200</v>
       </c>
-      <c r="E14" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11200</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28400</v>
+        <v>22800</v>
       </c>
       <c r="E15" s="3">
-        <v>57700</v>
+        <v>22300</v>
       </c>
       <c r="F15" s="3">
-        <v>59500</v>
+        <v>55600</v>
       </c>
       <c r="G15" s="3">
-        <v>26500</v>
+        <v>57300</v>
       </c>
       <c r="H15" s="3">
-        <v>23600</v>
+        <v>25500</v>
       </c>
       <c r="I15" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="J15" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K15" s="3">
         <v>17800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>57800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>882800</v>
+        <v>874800</v>
       </c>
       <c r="E17" s="3">
-        <v>762000</v>
+        <v>818900</v>
       </c>
       <c r="F17" s="3">
-        <v>812200</v>
+        <v>733900</v>
       </c>
       <c r="G17" s="3">
-        <v>811900</v>
+        <v>782300</v>
       </c>
       <c r="H17" s="3">
-        <v>774200</v>
+        <v>782000</v>
       </c>
       <c r="I17" s="3">
-        <v>753100</v>
+        <v>745700</v>
       </c>
       <c r="J17" s="3">
+        <v>725400</v>
+      </c>
+      <c r="K17" s="3">
         <v>668200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>603400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>568000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1459600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1394400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30800</v>
+        <v>8600</v>
       </c>
       <c r="E18" s="3">
-        <v>66600</v>
+        <v>25100</v>
       </c>
       <c r="F18" s="3">
-        <v>37800</v>
+        <v>64200</v>
       </c>
       <c r="G18" s="3">
-        <v>29100</v>
+        <v>36400</v>
       </c>
       <c r="H18" s="3">
-        <v>49700</v>
+        <v>28000</v>
       </c>
       <c r="I18" s="3">
-        <v>43400</v>
+        <v>47900</v>
       </c>
       <c r="J18" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K18" s="3">
         <v>40000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>3300</v>
-      </c>
       <c r="I20" s="3">
-        <v>6100</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K20" s="3">
         <v>11500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>61000</v>
+        <v>34900</v>
       </c>
       <c r="E21" s="3">
-        <v>94000</v>
+        <v>53600</v>
       </c>
       <c r="F21" s="3">
-        <v>67400</v>
+        <v>91000</v>
       </c>
       <c r="G21" s="3">
-        <v>56000</v>
+        <v>65400</v>
       </c>
       <c r="H21" s="3">
-        <v>76200</v>
+        <v>54400</v>
       </c>
       <c r="I21" s="3">
-        <v>73400</v>
+        <v>73800</v>
       </c>
       <c r="J21" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K21" s="3">
         <v>71700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>99000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>135800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>166200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>14900</v>
       </c>
       <c r="E22" s="3">
-        <v>21300</v>
+        <v>15500</v>
       </c>
       <c r="F22" s="3">
-        <v>21600</v>
+        <v>20500</v>
       </c>
       <c r="G22" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="H22" s="3">
-        <v>21100</v>
+        <v>19900</v>
       </c>
       <c r="I22" s="3">
         <v>20300</v>
       </c>
       <c r="J22" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49200</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12000</v>
+        <v>-3300</v>
       </c>
       <c r="E23" s="3">
-        <v>44100</v>
+        <v>10100</v>
       </c>
       <c r="F23" s="3">
-        <v>16500</v>
+        <v>42400</v>
       </c>
       <c r="G23" s="3">
-        <v>9200</v>
+        <v>15900</v>
       </c>
       <c r="H23" s="3">
-        <v>32000</v>
+        <v>8900</v>
       </c>
       <c r="I23" s="3">
-        <v>29200</v>
+        <v>30800</v>
       </c>
       <c r="J23" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K23" s="3">
         <v>28200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>113500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>12200</v>
+        <v>4700</v>
       </c>
       <c r="F24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6800</v>
+        <v>-3300</v>
       </c>
       <c r="E26" s="3">
-        <v>31900</v>
+        <v>5400</v>
       </c>
       <c r="F26" s="3">
-        <v>11100</v>
+        <v>30700</v>
       </c>
       <c r="G26" s="3">
-        <v>6100</v>
+        <v>10700</v>
       </c>
       <c r="H26" s="3">
-        <v>23800</v>
+        <v>5800</v>
       </c>
       <c r="I26" s="3">
-        <v>23600</v>
+        <v>22900</v>
       </c>
       <c r="J26" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K26" s="3">
         <v>17800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>75400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6800</v>
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
-        <v>31900</v>
+        <v>5400</v>
       </c>
       <c r="F27" s="3">
-        <v>11100</v>
+        <v>30700</v>
       </c>
       <c r="G27" s="3">
-        <v>6100</v>
+        <v>10700</v>
       </c>
       <c r="H27" s="3">
-        <v>23800</v>
+        <v>5800</v>
       </c>
       <c r="I27" s="3">
-        <v>23600</v>
+        <v>22900</v>
       </c>
       <c r="J27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K27" s="3">
         <v>17800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>77400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1900</v>
+        <v>53600</v>
       </c>
       <c r="E29" s="3">
-        <v>8800</v>
+        <v>2900</v>
       </c>
       <c r="F29" s="3">
-        <v>10400</v>
+        <v>8500</v>
       </c>
       <c r="G29" s="3">
-        <v>17800</v>
+        <v>10000</v>
       </c>
       <c r="H29" s="3">
-        <v>-22200</v>
+        <v>17100</v>
       </c>
       <c r="I29" s="3">
-        <v>3000</v>
+        <v>-21400</v>
       </c>
       <c r="J29" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K29" s="3">
         <v>156500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-23400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>26400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3300</v>
-      </c>
       <c r="I32" s="3">
-        <v>-6100</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8600</v>
+        <v>50300</v>
       </c>
       <c r="E33" s="3">
-        <v>40700</v>
+        <v>8300</v>
       </c>
       <c r="F33" s="3">
-        <v>21500</v>
+        <v>39200</v>
       </c>
       <c r="G33" s="3">
-        <v>23800</v>
+        <v>20700</v>
       </c>
       <c r="H33" s="3">
-        <v>1600</v>
+        <v>23000</v>
       </c>
       <c r="I33" s="3">
-        <v>26600</v>
+        <v>1500</v>
       </c>
       <c r="J33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K33" s="3">
         <v>174300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8600</v>
+        <v>50300</v>
       </c>
       <c r="E35" s="3">
-        <v>40700</v>
+        <v>8300</v>
       </c>
       <c r="F35" s="3">
-        <v>21500</v>
+        <v>39200</v>
       </c>
       <c r="G35" s="3">
-        <v>23800</v>
+        <v>20700</v>
       </c>
       <c r="H35" s="3">
-        <v>1600</v>
+        <v>23000</v>
       </c>
       <c r="I35" s="3">
-        <v>26600</v>
+        <v>1500</v>
       </c>
       <c r="J35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K35" s="3">
         <v>174300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>38717</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78600</v>
+        <v>121000</v>
       </c>
       <c r="E41" s="3">
-        <v>135100</v>
+        <v>75700</v>
       </c>
       <c r="F41" s="3">
-        <v>70900</v>
+        <v>130100</v>
       </c>
       <c r="G41" s="3">
-        <v>49500</v>
+        <v>68300</v>
       </c>
       <c r="H41" s="3">
-        <v>96200</v>
+        <v>47700</v>
       </c>
       <c r="I41" s="3">
-        <v>76300</v>
+        <v>92700</v>
       </c>
       <c r="J41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K41" s="3">
         <v>77800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1893,50 +1982,56 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62700</v>
+        <v>46300</v>
       </c>
       <c r="E43" s="3">
-        <v>55100</v>
+        <v>60400</v>
       </c>
       <c r="F43" s="3">
-        <v>49800</v>
+        <v>53100</v>
       </c>
       <c r="G43" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="H43" s="3">
-        <v>37300</v>
+        <v>49100</v>
       </c>
       <c r="I43" s="3">
-        <v>41500</v>
+        <v>35900</v>
       </c>
       <c r="J43" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K43" s="3">
         <v>39600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>331800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>160800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>140100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,87 +2068,96 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27600</v>
+        <v>19300</v>
       </c>
       <c r="E45" s="3">
-        <v>32100</v>
+        <v>26600</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>30900</v>
       </c>
       <c r="G45" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="H45" s="3">
         <v>17200</v>
       </c>
       <c r="I45" s="3">
-        <v>20600</v>
+        <v>16600</v>
       </c>
       <c r="J45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K45" s="3">
         <v>41300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>993900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>168900</v>
+        <v>186600</v>
       </c>
       <c r="E46" s="3">
-        <v>222300</v>
+        <v>162700</v>
       </c>
       <c r="F46" s="3">
-        <v>138100</v>
+        <v>214100</v>
       </c>
       <c r="G46" s="3">
-        <v>118300</v>
+        <v>133000</v>
       </c>
       <c r="H46" s="3">
-        <v>150800</v>
+        <v>113900</v>
       </c>
       <c r="I46" s="3">
-        <v>138400</v>
+        <v>145200</v>
       </c>
       <c r="J46" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K46" s="3">
         <v>158700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1054000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>305400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>259800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>210600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2085,92 +2189,101 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>132800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>402200</v>
+        <v>281100</v>
       </c>
       <c r="E48" s="3">
-        <v>394900</v>
+        <v>387400</v>
       </c>
       <c r="F48" s="3">
-        <v>398400</v>
+        <v>380300</v>
       </c>
       <c r="G48" s="3">
-        <v>386600</v>
+        <v>383700</v>
       </c>
       <c r="H48" s="3">
-        <v>360400</v>
+        <v>372300</v>
       </c>
       <c r="I48" s="3">
-        <v>349500</v>
+        <v>347100</v>
       </c>
       <c r="J48" s="3">
+        <v>336600</v>
+      </c>
+      <c r="K48" s="3">
         <v>320000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>576500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>889500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>853600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>66900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>63800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>65000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>68900</v>
+      </c>
+      <c r="I49" s="3">
         <v>69400</v>
       </c>
-      <c r="E49" s="3">
-        <v>66200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>67500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>71500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>72000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>67400</v>
-      </c>
       <c r="J49" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K49" s="3">
         <v>72300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35500</v>
+        <v>27300</v>
       </c>
       <c r="E52" s="3">
-        <v>39800</v>
+        <v>34200</v>
       </c>
       <c r="F52" s="3">
-        <v>63400</v>
+        <v>38300</v>
       </c>
       <c r="G52" s="3">
-        <v>96700</v>
+        <v>61100</v>
       </c>
       <c r="H52" s="3">
-        <v>118400</v>
+        <v>93100</v>
       </c>
       <c r="I52" s="3">
-        <v>187000</v>
+        <v>114000</v>
       </c>
       <c r="J52" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K52" s="3">
         <v>220000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>176900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>170200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>676000</v>
+        <v>565300</v>
       </c>
       <c r="E54" s="3">
-        <v>723200</v>
+        <v>651100</v>
       </c>
       <c r="F54" s="3">
-        <v>667400</v>
+        <v>696600</v>
       </c>
       <c r="G54" s="3">
-        <v>673000</v>
+        <v>642800</v>
       </c>
       <c r="H54" s="3">
-        <v>701500</v>
+        <v>648200</v>
       </c>
       <c r="I54" s="3">
-        <v>742300</v>
+        <v>675700</v>
       </c>
       <c r="J54" s="3">
+        <v>715000</v>
+      </c>
+      <c r="K54" s="3">
         <v>771100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1503600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1423500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1361000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1306300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>144900</v>
+        <v>180900</v>
       </c>
       <c r="E57" s="3">
-        <v>140500</v>
+        <v>139600</v>
       </c>
       <c r="F57" s="3">
-        <v>102800</v>
+        <v>135300</v>
       </c>
       <c r="G57" s="3">
-        <v>100400</v>
+        <v>99000</v>
       </c>
       <c r="H57" s="3">
-        <v>92700</v>
+        <v>96700</v>
       </c>
       <c r="I57" s="3">
-        <v>91500</v>
+        <v>89300</v>
       </c>
       <c r="J57" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K57" s="3">
         <v>105000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55200</v>
+        <v>13900</v>
       </c>
       <c r="E58" s="3">
-        <v>53600</v>
+        <v>53200</v>
       </c>
       <c r="F58" s="3">
-        <v>100400</v>
+        <v>51600</v>
       </c>
       <c r="G58" s="3">
-        <v>56000</v>
+        <v>96700</v>
       </c>
       <c r="H58" s="3">
-        <v>44800</v>
+        <v>54000</v>
       </c>
       <c r="I58" s="3">
-        <v>41200</v>
+        <v>43200</v>
       </c>
       <c r="J58" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K58" s="3">
         <v>19100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>114000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>70300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11500</v>
+        <v>4100</v>
       </c>
       <c r="E59" s="3">
-        <v>15800</v>
+        <v>11100</v>
       </c>
       <c r="F59" s="3">
-        <v>3900</v>
+        <v>15200</v>
       </c>
       <c r="G59" s="3">
-        <v>14000</v>
+        <v>3700</v>
       </c>
       <c r="H59" s="3">
-        <v>25100</v>
+        <v>13500</v>
       </c>
       <c r="I59" s="3">
-        <v>23900</v>
+        <v>24200</v>
       </c>
       <c r="J59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K59" s="3">
         <v>39700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>998400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>195300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>176300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>175700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>211700</v>
+        <v>198900</v>
       </c>
       <c r="E60" s="3">
-        <v>209900</v>
+        <v>203900</v>
       </c>
       <c r="F60" s="3">
-        <v>207100</v>
+        <v>202200</v>
       </c>
       <c r="G60" s="3">
-        <v>170400</v>
+        <v>199500</v>
       </c>
       <c r="H60" s="3">
-        <v>162600</v>
+        <v>164200</v>
       </c>
       <c r="I60" s="3">
         <v>156600</v>
       </c>
       <c r="J60" s="3">
+        <v>150800</v>
+      </c>
+      <c r="K60" s="3">
         <v>163700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1017100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>333200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>273400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>233500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>347900</v>
+        <v>263800</v>
       </c>
       <c r="E61" s="3">
-        <v>370300</v>
+        <v>335000</v>
       </c>
       <c r="F61" s="3">
-        <v>317300</v>
+        <v>356700</v>
       </c>
       <c r="G61" s="3">
-        <v>341100</v>
+        <v>305600</v>
       </c>
       <c r="H61" s="3">
-        <v>357700</v>
+        <v>328600</v>
       </c>
       <c r="I61" s="3">
-        <v>336900</v>
+        <v>344500</v>
       </c>
       <c r="J61" s="3">
+        <v>324500</v>
+      </c>
+      <c r="K61" s="3">
         <v>321900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>355800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>784000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>783300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>595600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40000</v>
+        <v>29800</v>
       </c>
       <c r="E62" s="3">
-        <v>46700</v>
+        <v>38500</v>
       </c>
       <c r="F62" s="3">
-        <v>56300</v>
+        <v>45000</v>
       </c>
       <c r="G62" s="3">
-        <v>66800</v>
+        <v>54200</v>
       </c>
       <c r="H62" s="3">
-        <v>84400</v>
+        <v>64400</v>
       </c>
       <c r="I62" s="3">
-        <v>117600</v>
+        <v>81300</v>
       </c>
       <c r="J62" s="3">
+        <v>113300</v>
+      </c>
+      <c r="K62" s="3">
         <v>156300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>132700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>344700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>263200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>599500</v>
+        <v>492400</v>
       </c>
       <c r="E66" s="3">
-        <v>626900</v>
+        <v>577400</v>
       </c>
       <c r="F66" s="3">
-        <v>580700</v>
+        <v>603800</v>
       </c>
       <c r="G66" s="3">
-        <v>578400</v>
+        <v>559300</v>
       </c>
       <c r="H66" s="3">
-        <v>604700</v>
+        <v>557100</v>
       </c>
       <c r="I66" s="3">
-        <v>611100</v>
+        <v>582400</v>
       </c>
       <c r="J66" s="3">
+        <v>588600</v>
+      </c>
+      <c r="K66" s="3">
         <v>641800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1505600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1394700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1319800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>932600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-302200</v>
+        <v>-278200</v>
       </c>
       <c r="E72" s="3">
-        <v>-278500</v>
+        <v>-291100</v>
       </c>
       <c r="F72" s="3">
-        <v>-287000</v>
+        <v>-268300</v>
       </c>
       <c r="G72" s="3">
         <v>-276400</v>
       </c>
       <c r="H72" s="3">
-        <v>-274100</v>
+        <v>-266300</v>
       </c>
       <c r="I72" s="3">
-        <v>-241800</v>
+        <v>-264000</v>
       </c>
       <c r="J72" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-236600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-395000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-340500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-297400</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76500</v>
+        <v>72800</v>
       </c>
       <c r="E76" s="3">
-        <v>96300</v>
+        <v>73700</v>
       </c>
       <c r="F76" s="3">
-        <v>86700</v>
+        <v>92700</v>
       </c>
       <c r="G76" s="3">
-        <v>94600</v>
+        <v>83500</v>
       </c>
       <c r="H76" s="3">
-        <v>96800</v>
+        <v>91100</v>
       </c>
       <c r="I76" s="3">
-        <v>131200</v>
+        <v>93300</v>
       </c>
       <c r="J76" s="3">
+        <v>126400</v>
+      </c>
+      <c r="K76" s="3">
         <v>129200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>373800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>38717</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8600</v>
+        <v>50300</v>
       </c>
       <c r="E81" s="3">
-        <v>40700</v>
+        <v>8300</v>
       </c>
       <c r="F81" s="3">
-        <v>21500</v>
+        <v>39200</v>
       </c>
       <c r="G81" s="3">
-        <v>23800</v>
+        <v>20700</v>
       </c>
       <c r="H81" s="3">
-        <v>1600</v>
+        <v>23000</v>
       </c>
       <c r="I81" s="3">
-        <v>26600</v>
+        <v>1500</v>
       </c>
       <c r="J81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K81" s="3">
         <v>174300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29000</v>
+        <v>23200</v>
       </c>
       <c r="E83" s="3">
-        <v>29100</v>
+        <v>27900</v>
       </c>
       <c r="F83" s="3">
-        <v>29700</v>
+        <v>28100</v>
       </c>
       <c r="G83" s="3">
-        <v>26500</v>
+        <v>28600</v>
       </c>
       <c r="H83" s="3">
-        <v>23600</v>
+        <v>25500</v>
       </c>
       <c r="I83" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="J83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47600</v>
+        <v>71400</v>
       </c>
       <c r="E89" s="3">
-        <v>91100</v>
+        <v>45900</v>
       </c>
       <c r="F89" s="3">
-        <v>33900</v>
+        <v>87700</v>
       </c>
       <c r="G89" s="3">
-        <v>29600</v>
+        <v>32700</v>
       </c>
       <c r="H89" s="3">
-        <v>35400</v>
+        <v>28500</v>
       </c>
       <c r="I89" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>75400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-52200</v>
+        <v>-73500</v>
       </c>
       <c r="E91" s="3">
-        <v>-24900</v>
+        <v>-50300</v>
       </c>
       <c r="F91" s="3">
-        <v>-24900</v>
+        <v>-23900</v>
       </c>
       <c r="G91" s="3">
-        <v>-38000</v>
+        <v>-24000</v>
       </c>
       <c r="H91" s="3">
-        <v>-30900</v>
+        <v>-36600</v>
       </c>
       <c r="I91" s="3">
-        <v>-29200</v>
+        <v>-29800</v>
       </c>
       <c r="J91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47900</v>
+        <v>112600</v>
       </c>
       <c r="E94" s="3">
-        <v>1500</v>
+        <v>-46100</v>
       </c>
       <c r="F94" s="3">
-        <v>9600</v>
+        <v>1400</v>
       </c>
       <c r="G94" s="3">
-        <v>-41300</v>
+        <v>9200</v>
       </c>
       <c r="H94" s="3">
-        <v>4200</v>
+        <v>-39800</v>
       </c>
       <c r="I94" s="3">
-        <v>-13100</v>
+        <v>4000</v>
       </c>
       <c r="J94" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-183900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32300</v>
+        <v>-30800</v>
       </c>
       <c r="E96" s="3">
-        <v>-31000</v>
+        <v>-31100</v>
       </c>
       <c r="F96" s="3">
-        <v>-27900</v>
+        <v>-29800</v>
       </c>
       <c r="G96" s="3">
-        <v>-28100</v>
+        <v>-26900</v>
       </c>
       <c r="H96" s="3">
-        <v>-28200</v>
+        <v>-27100</v>
       </c>
       <c r="I96" s="3">
         <v>-27100</v>
       </c>
       <c r="J96" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-26700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-42900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56200</v>
+        <v>-138800</v>
       </c>
       <c r="E100" s="3">
-        <v>-28700</v>
+        <v>-54100</v>
       </c>
       <c r="F100" s="3">
-        <v>-21500</v>
+        <v>-27600</v>
       </c>
       <c r="G100" s="3">
-        <v>-36600</v>
+        <v>-20700</v>
       </c>
       <c r="H100" s="3">
-        <v>-17700</v>
+        <v>-35300</v>
       </c>
       <c r="I100" s="3">
-        <v>11900</v>
+        <v>-17100</v>
       </c>
       <c r="J100" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>1600</v>
-      </c>
       <c r="H101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56600</v>
+        <v>45300</v>
       </c>
       <c r="E102" s="3">
-        <v>64200</v>
+        <v>-54500</v>
       </c>
       <c r="F102" s="3">
-        <v>21400</v>
+        <v>61800</v>
       </c>
       <c r="G102" s="3">
-        <v>-46800</v>
+        <v>20700</v>
       </c>
       <c r="H102" s="3">
-        <v>20000</v>
+        <v>-45000</v>
       </c>
       <c r="I102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-102600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>883500</v>
+        <v>904900</v>
       </c>
       <c r="E8" s="3">
-        <v>844000</v>
+        <v>864400</v>
       </c>
       <c r="F8" s="3">
-        <v>798100</v>
+        <v>817400</v>
       </c>
       <c r="G8" s="3">
-        <v>818600</v>
+        <v>838500</v>
       </c>
       <c r="H8" s="3">
-        <v>810000</v>
+        <v>829600</v>
       </c>
       <c r="I8" s="3">
-        <v>793600</v>
+        <v>812800</v>
       </c>
       <c r="J8" s="3">
-        <v>767200</v>
+        <v>785700</v>
       </c>
       <c r="K8" s="3">
         <v>708300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>805000</v>
+        <v>824500</v>
       </c>
       <c r="E9" s="3">
-        <v>747800</v>
+        <v>765900</v>
       </c>
       <c r="F9" s="3">
-        <v>667200</v>
+        <v>683300</v>
       </c>
       <c r="G9" s="3">
-        <v>722100</v>
+        <v>739600</v>
       </c>
       <c r="H9" s="3">
-        <v>713100</v>
+        <v>730400</v>
       </c>
       <c r="I9" s="3">
-        <v>695400</v>
+        <v>712200</v>
       </c>
       <c r="J9" s="3">
-        <v>677900</v>
+        <v>694300</v>
       </c>
       <c r="K9" s="3">
         <v>622800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>78500</v>
+        <v>80400</v>
       </c>
       <c r="E10" s="3">
-        <v>96200</v>
+        <v>98500</v>
       </c>
       <c r="F10" s="3">
-        <v>130900</v>
+        <v>134100</v>
       </c>
       <c r="G10" s="3">
-        <v>96500</v>
+        <v>98900</v>
       </c>
       <c r="H10" s="3">
-        <v>96900</v>
+        <v>99200</v>
       </c>
       <c r="I10" s="3">
-        <v>98200</v>
+        <v>100600</v>
       </c>
       <c r="J10" s="3">
-        <v>89300</v>
+        <v>91500</v>
       </c>
       <c r="K10" s="3">
         <v>85500</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H14" s="3">
         <v>15000</v>
       </c>
-      <c r="F14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>14600</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K14" s="3">
         <v>5000</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E15" s="3">
         <v>22800</v>
       </c>
-      <c r="E15" s="3">
-        <v>22300</v>
-      </c>
       <c r="F15" s="3">
-        <v>55600</v>
+        <v>56900</v>
       </c>
       <c r="G15" s="3">
-        <v>57300</v>
+        <v>58700</v>
       </c>
       <c r="H15" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="I15" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="J15" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="K15" s="3">
         <v>17800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>874800</v>
+        <v>896000</v>
       </c>
       <c r="E17" s="3">
-        <v>818900</v>
+        <v>838700</v>
       </c>
       <c r="F17" s="3">
-        <v>733900</v>
+        <v>751700</v>
       </c>
       <c r="G17" s="3">
-        <v>782300</v>
+        <v>801200</v>
       </c>
       <c r="H17" s="3">
-        <v>782000</v>
+        <v>800900</v>
       </c>
       <c r="I17" s="3">
-        <v>745700</v>
+        <v>763800</v>
       </c>
       <c r="J17" s="3">
-        <v>725400</v>
+        <v>743000</v>
       </c>
       <c r="K17" s="3">
         <v>668200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="E18" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="F18" s="3">
-        <v>64200</v>
+        <v>65700</v>
       </c>
       <c r="G18" s="3">
-        <v>36400</v>
+        <v>37300</v>
       </c>
       <c r="H18" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="I18" s="3">
-        <v>47900</v>
+        <v>49100</v>
       </c>
       <c r="J18" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="K18" s="3">
         <v>40000</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1170,10 +1170,10 @@
         <v>800</v>
       </c>
       <c r="I20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K20" s="3">
         <v>11500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>34900</v>
+        <v>35800</v>
       </c>
       <c r="E21" s="3">
-        <v>53600</v>
+        <v>54900</v>
       </c>
       <c r="F21" s="3">
-        <v>91000</v>
+        <v>93300</v>
       </c>
       <c r="G21" s="3">
-        <v>65400</v>
+        <v>67000</v>
       </c>
       <c r="H21" s="3">
-        <v>54400</v>
+        <v>55800</v>
       </c>
       <c r="I21" s="3">
-        <v>73800</v>
+        <v>75700</v>
       </c>
       <c r="J21" s="3">
-        <v>71100</v>
+        <v>72900</v>
       </c>
       <c r="K21" s="3">
         <v>71700</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="E22" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="F22" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="G22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I22" s="3">
         <v>20800</v>
       </c>
-      <c r="H22" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20300</v>
-      </c>
       <c r="J22" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="K22" s="3">
         <v>23300</v>
@@ -1284,22 +1284,22 @@
         <v>-3300</v>
       </c>
       <c r="E23" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="F23" s="3">
-        <v>42400</v>
+        <v>43500</v>
       </c>
       <c r="G23" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="H23" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="I23" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="J23" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="K23" s="3">
         <v>28200</v>
@@ -1326,22 +1326,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F24" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H24" s="3">
         <v>3100</v>
       </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J24" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K24" s="3">
         <v>10400</v>
@@ -1410,22 +1410,22 @@
         <v>-3300</v>
       </c>
       <c r="E26" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F26" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="G26" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="H26" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I26" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="J26" s="3">
-        <v>22700</v>
+        <v>23300</v>
       </c>
       <c r="K26" s="3">
         <v>17800</v>
@@ -1452,22 +1452,22 @@
         <v>-3300</v>
       </c>
       <c r="E27" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F27" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="G27" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="H27" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I27" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="J27" s="3">
-        <v>22700</v>
+        <v>23300</v>
       </c>
       <c r="K27" s="3">
         <v>17800</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>53600</v>
+        <v>54900</v>
       </c>
       <c r="E29" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F29" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G29" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="H29" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="I29" s="3">
-        <v>-21400</v>
+        <v>-21900</v>
       </c>
       <c r="J29" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K29" s="3">
         <v>156500</v>
@@ -1659,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -1674,10 +1674,10 @@
         <v>-800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="K32" s="3">
         <v>-11500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50300</v>
+        <v>51500</v>
       </c>
       <c r="E33" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F33" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="G33" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="H33" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="I33" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J33" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="K33" s="3">
         <v>174300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50300</v>
+        <v>51500</v>
       </c>
       <c r="E35" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F35" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="G35" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="H35" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="I35" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J35" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="K35" s="3">
         <v>174300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>121000</v>
+        <v>123900</v>
       </c>
       <c r="E41" s="3">
-        <v>75700</v>
+        <v>77500</v>
       </c>
       <c r="F41" s="3">
-        <v>130100</v>
+        <v>133300</v>
       </c>
       <c r="G41" s="3">
-        <v>68300</v>
+        <v>70000</v>
       </c>
       <c r="H41" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="I41" s="3">
-        <v>92700</v>
+        <v>94900</v>
       </c>
       <c r="J41" s="3">
-        <v>73500</v>
+        <v>75200</v>
       </c>
       <c r="K41" s="3">
         <v>77800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46300</v>
+        <v>47500</v>
       </c>
       <c r="E43" s="3">
-        <v>60400</v>
+        <v>61900</v>
       </c>
       <c r="F43" s="3">
-        <v>53100</v>
+        <v>54400</v>
       </c>
       <c r="G43" s="3">
-        <v>48000</v>
+        <v>49100</v>
       </c>
       <c r="H43" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I43" s="3">
-        <v>35900</v>
+        <v>36800</v>
       </c>
       <c r="J43" s="3">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="E45" s="3">
-        <v>26600</v>
+        <v>27200</v>
       </c>
       <c r="F45" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="G45" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="H45" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="I45" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="J45" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="K45" s="3">
         <v>41300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>186600</v>
+        <v>191100</v>
       </c>
       <c r="E46" s="3">
-        <v>162700</v>
+        <v>166600</v>
       </c>
       <c r="F46" s="3">
-        <v>214100</v>
+        <v>219300</v>
       </c>
       <c r="G46" s="3">
-        <v>133000</v>
+        <v>136200</v>
       </c>
       <c r="H46" s="3">
-        <v>113900</v>
+        <v>116700</v>
       </c>
       <c r="I46" s="3">
-        <v>145200</v>
+        <v>148700</v>
       </c>
       <c r="J46" s="3">
-        <v>133300</v>
+        <v>136600</v>
       </c>
       <c r="K46" s="3">
         <v>158700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>281100</v>
+        <v>287900</v>
       </c>
       <c r="E48" s="3">
-        <v>387400</v>
+        <v>396700</v>
       </c>
       <c r="F48" s="3">
-        <v>380300</v>
+        <v>389600</v>
       </c>
       <c r="G48" s="3">
-        <v>383700</v>
+        <v>393000</v>
       </c>
       <c r="H48" s="3">
-        <v>372300</v>
+        <v>381400</v>
       </c>
       <c r="I48" s="3">
-        <v>347100</v>
+        <v>355500</v>
       </c>
       <c r="J48" s="3">
-        <v>336600</v>
+        <v>344800</v>
       </c>
       <c r="K48" s="3">
         <v>320000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70200</v>
+        <v>71900</v>
       </c>
       <c r="E49" s="3">
-        <v>66900</v>
+        <v>68500</v>
       </c>
       <c r="F49" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="G49" s="3">
-        <v>65000</v>
+        <v>66600</v>
       </c>
       <c r="H49" s="3">
-        <v>68900</v>
+        <v>70500</v>
       </c>
       <c r="I49" s="3">
-        <v>69400</v>
+        <v>71000</v>
       </c>
       <c r="J49" s="3">
-        <v>64900</v>
+        <v>66500</v>
       </c>
       <c r="K49" s="3">
         <v>72300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27300</v>
+        <v>28000</v>
       </c>
       <c r="E52" s="3">
-        <v>34200</v>
+        <v>35100</v>
       </c>
       <c r="F52" s="3">
-        <v>38300</v>
+        <v>39200</v>
       </c>
       <c r="G52" s="3">
-        <v>61100</v>
+        <v>62600</v>
       </c>
       <c r="H52" s="3">
-        <v>93100</v>
+        <v>95400</v>
       </c>
       <c r="I52" s="3">
-        <v>114000</v>
+        <v>116800</v>
       </c>
       <c r="J52" s="3">
-        <v>180100</v>
+        <v>184500</v>
       </c>
       <c r="K52" s="3">
         <v>220000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>565300</v>
+        <v>578900</v>
       </c>
       <c r="E54" s="3">
-        <v>651100</v>
+        <v>666900</v>
       </c>
       <c r="F54" s="3">
-        <v>696600</v>
+        <v>713400</v>
       </c>
       <c r="G54" s="3">
-        <v>642800</v>
+        <v>658400</v>
       </c>
       <c r="H54" s="3">
-        <v>648200</v>
+        <v>663900</v>
       </c>
       <c r="I54" s="3">
-        <v>675700</v>
+        <v>692100</v>
       </c>
       <c r="J54" s="3">
-        <v>715000</v>
+        <v>732300</v>
       </c>
       <c r="K54" s="3">
         <v>771100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>180900</v>
+        <v>185300</v>
       </c>
       <c r="E57" s="3">
-        <v>139600</v>
+        <v>143000</v>
       </c>
       <c r="F57" s="3">
-        <v>135300</v>
+        <v>138600</v>
       </c>
       <c r="G57" s="3">
+        <v>101400</v>
+      </c>
+      <c r="H57" s="3">
         <v>99000</v>
       </c>
-      <c r="H57" s="3">
-        <v>96700</v>
-      </c>
       <c r="I57" s="3">
-        <v>89300</v>
+        <v>91400</v>
       </c>
       <c r="J57" s="3">
-        <v>88100</v>
+        <v>90200</v>
       </c>
       <c r="K57" s="3">
         <v>105000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="E58" s="3">
-        <v>53200</v>
+        <v>54500</v>
       </c>
       <c r="F58" s="3">
-        <v>51600</v>
+        <v>52900</v>
       </c>
       <c r="G58" s="3">
-        <v>96700</v>
+        <v>99100</v>
       </c>
       <c r="H58" s="3">
-        <v>54000</v>
+        <v>55300</v>
       </c>
       <c r="I58" s="3">
-        <v>43200</v>
+        <v>44200</v>
       </c>
       <c r="J58" s="3">
-        <v>39700</v>
+        <v>40600</v>
       </c>
       <c r="K58" s="3">
         <v>19100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="F59" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="G59" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H59" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="I59" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="J59" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="K59" s="3">
         <v>39700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>198900</v>
+        <v>203700</v>
       </c>
       <c r="E60" s="3">
-        <v>203900</v>
+        <v>208800</v>
       </c>
       <c r="F60" s="3">
-        <v>202200</v>
+        <v>207100</v>
       </c>
       <c r="G60" s="3">
-        <v>199500</v>
+        <v>204300</v>
       </c>
       <c r="H60" s="3">
-        <v>164200</v>
+        <v>168100</v>
       </c>
       <c r="I60" s="3">
-        <v>156600</v>
+        <v>160400</v>
       </c>
       <c r="J60" s="3">
-        <v>150800</v>
+        <v>154400</v>
       </c>
       <c r="K60" s="3">
         <v>163700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>263800</v>
+        <v>270200</v>
       </c>
       <c r="E61" s="3">
-        <v>335000</v>
+        <v>343200</v>
       </c>
       <c r="F61" s="3">
-        <v>356700</v>
+        <v>365300</v>
       </c>
       <c r="G61" s="3">
-        <v>305600</v>
+        <v>313000</v>
       </c>
       <c r="H61" s="3">
-        <v>328600</v>
+        <v>336600</v>
       </c>
       <c r="I61" s="3">
-        <v>344500</v>
+        <v>352900</v>
       </c>
       <c r="J61" s="3">
-        <v>324500</v>
+        <v>332400</v>
       </c>
       <c r="K61" s="3">
         <v>321900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="E62" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="F62" s="3">
-        <v>45000</v>
+        <v>46100</v>
       </c>
       <c r="G62" s="3">
-        <v>54200</v>
+        <v>55500</v>
       </c>
       <c r="H62" s="3">
-        <v>64400</v>
+        <v>65900</v>
       </c>
       <c r="I62" s="3">
-        <v>81300</v>
+        <v>83300</v>
       </c>
       <c r="J62" s="3">
-        <v>113300</v>
+        <v>116000</v>
       </c>
       <c r="K62" s="3">
         <v>156300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>492400</v>
+        <v>504400</v>
       </c>
       <c r="E66" s="3">
-        <v>577400</v>
+        <v>591400</v>
       </c>
       <c r="F66" s="3">
-        <v>603800</v>
+        <v>618500</v>
       </c>
       <c r="G66" s="3">
-        <v>559300</v>
+        <v>572900</v>
       </c>
       <c r="H66" s="3">
-        <v>557100</v>
+        <v>570600</v>
       </c>
       <c r="I66" s="3">
-        <v>582400</v>
+        <v>596500</v>
       </c>
       <c r="J66" s="3">
-        <v>588600</v>
+        <v>602900</v>
       </c>
       <c r="K66" s="3">
         <v>641800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-278200</v>
+        <v>-284900</v>
       </c>
       <c r="E72" s="3">
-        <v>-291100</v>
+        <v>-298100</v>
       </c>
       <c r="F72" s="3">
-        <v>-268300</v>
+        <v>-274800</v>
       </c>
       <c r="G72" s="3">
-        <v>-276400</v>
+        <v>-283100</v>
       </c>
       <c r="H72" s="3">
-        <v>-266300</v>
+        <v>-272700</v>
       </c>
       <c r="I72" s="3">
-        <v>-264000</v>
+        <v>-270400</v>
       </c>
       <c r="J72" s="3">
-        <v>-232900</v>
+        <v>-238500</v>
       </c>
       <c r="K72" s="3">
         <v>-236600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72800</v>
+        <v>74600</v>
       </c>
       <c r="E76" s="3">
-        <v>73700</v>
+        <v>75500</v>
       </c>
       <c r="F76" s="3">
-        <v>92700</v>
+        <v>95000</v>
       </c>
       <c r="G76" s="3">
-        <v>83500</v>
+        <v>85500</v>
       </c>
       <c r="H76" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="I76" s="3">
-        <v>93300</v>
+        <v>95500</v>
       </c>
       <c r="J76" s="3">
-        <v>126400</v>
+        <v>129500</v>
       </c>
       <c r="K76" s="3">
         <v>129200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50300</v>
+        <v>51500</v>
       </c>
       <c r="E81" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F81" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="G81" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="H81" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="I81" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J81" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="K81" s="3">
         <v>174300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I83" s="3">
         <v>23200</v>
       </c>
-      <c r="E83" s="3">
-        <v>27900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>28100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>28600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>25500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>22700</v>
-      </c>
       <c r="J83" s="3">
-        <v>23400</v>
+        <v>24000</v>
       </c>
       <c r="K83" s="3">
         <v>20500</v>
@@ -3751,22 +3751,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>71400</v>
+        <v>73100</v>
       </c>
       <c r="E89" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="F89" s="3">
-        <v>87700</v>
+        <v>89800</v>
       </c>
       <c r="G89" s="3">
-        <v>32700</v>
+        <v>33500</v>
       </c>
       <c r="H89" s="3">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="I89" s="3">
-        <v>34100</v>
+        <v>34900</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-73500</v>
+        <v>-75300</v>
       </c>
       <c r="E91" s="3">
-        <v>-50300</v>
+        <v>-51500</v>
       </c>
       <c r="F91" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="G91" s="3">
-        <v>-24000</v>
+        <v>-24600</v>
       </c>
       <c r="H91" s="3">
-        <v>-36600</v>
+        <v>-37500</v>
       </c>
       <c r="I91" s="3">
-        <v>-29800</v>
+        <v>-30500</v>
       </c>
       <c r="J91" s="3">
-        <v>-28100</v>
+        <v>-28800</v>
       </c>
       <c r="K91" s="3">
         <v>-26600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>112600</v>
+        <v>115300</v>
       </c>
       <c r="E94" s="3">
-        <v>-46100</v>
+        <v>-47200</v>
       </c>
       <c r="F94" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G94" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="H94" s="3">
-        <v>-39800</v>
+        <v>-40800</v>
       </c>
       <c r="I94" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J94" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="K94" s="3">
         <v>-44800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30800</v>
+        <v>-31500</v>
       </c>
       <c r="E96" s="3">
-        <v>-31100</v>
+        <v>-31800</v>
       </c>
       <c r="F96" s="3">
-        <v>-29800</v>
+        <v>-30600</v>
       </c>
       <c r="G96" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="H96" s="3">
-        <v>-27100</v>
+        <v>-27700</v>
       </c>
       <c r="I96" s="3">
-        <v>-27100</v>
+        <v>-27800</v>
       </c>
       <c r="J96" s="3">
-        <v>-26100</v>
+        <v>-26800</v>
       </c>
       <c r="K96" s="3">
         <v>-26700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-138800</v>
+        <v>-142100</v>
       </c>
       <c r="E100" s="3">
-        <v>-54100</v>
+        <v>-55400</v>
       </c>
       <c r="F100" s="3">
-        <v>-27600</v>
+        <v>-28300</v>
       </c>
       <c r="G100" s="3">
-        <v>-20700</v>
+        <v>-21200</v>
       </c>
       <c r="H100" s="3">
-        <v>-35300</v>
+        <v>-36100</v>
       </c>
       <c r="I100" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="J100" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="K100" s="3">
         <v>5500</v>
@@ -4249,22 +4249,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45300</v>
+        <v>46400</v>
       </c>
       <c r="E102" s="3">
-        <v>-54500</v>
+        <v>-55800</v>
       </c>
       <c r="F102" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="G102" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="H102" s="3">
-        <v>-45000</v>
+        <v>-46100</v>
       </c>
       <c r="I102" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J102" s="3">
         <v>-1500</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>904900</v>
+        <v>904400</v>
       </c>
       <c r="E8" s="3">
-        <v>864400</v>
+        <v>864000</v>
       </c>
       <c r="F8" s="3">
-        <v>817400</v>
+        <v>817000</v>
       </c>
       <c r="G8" s="3">
-        <v>838500</v>
+        <v>838100</v>
       </c>
       <c r="H8" s="3">
-        <v>829600</v>
+        <v>829200</v>
       </c>
       <c r="I8" s="3">
-        <v>812800</v>
+        <v>812400</v>
       </c>
       <c r="J8" s="3">
-        <v>785700</v>
+        <v>785300</v>
       </c>
       <c r="K8" s="3">
         <v>708300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>824500</v>
+        <v>824100</v>
       </c>
       <c r="E9" s="3">
-        <v>765900</v>
+        <v>765500</v>
       </c>
       <c r="F9" s="3">
-        <v>683300</v>
+        <v>683000</v>
       </c>
       <c r="G9" s="3">
-        <v>739600</v>
+        <v>739200</v>
       </c>
       <c r="H9" s="3">
-        <v>730400</v>
+        <v>730000</v>
       </c>
       <c r="I9" s="3">
-        <v>712200</v>
+        <v>711900</v>
       </c>
       <c r="J9" s="3">
-        <v>694300</v>
+        <v>693900</v>
       </c>
       <c r="K9" s="3">
         <v>622800</v>
@@ -813,13 +813,13 @@
         <v>80400</v>
       </c>
       <c r="E10" s="3">
-        <v>98500</v>
+        <v>98400</v>
       </c>
       <c r="F10" s="3">
-        <v>134100</v>
+        <v>134000</v>
       </c>
       <c r="G10" s="3">
-        <v>98900</v>
+        <v>98800</v>
       </c>
       <c r="H10" s="3">
         <v>99200</v>
@@ -828,7 +828,7 @@
         <v>100600</v>
       </c>
       <c r="J10" s="3">
-        <v>91500</v>
+        <v>91400</v>
       </c>
       <c r="K10" s="3">
         <v>85500</v>
@@ -1005,7 +1005,7 @@
         <v>56900</v>
       </c>
       <c r="G15" s="3">
-        <v>58700</v>
+        <v>58600</v>
       </c>
       <c r="H15" s="3">
         <v>26100</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>896000</v>
+        <v>895600</v>
       </c>
       <c r="E17" s="3">
-        <v>838700</v>
+        <v>838300</v>
       </c>
       <c r="F17" s="3">
-        <v>751700</v>
+        <v>751300</v>
       </c>
       <c r="G17" s="3">
-        <v>801200</v>
+        <v>800800</v>
       </c>
       <c r="H17" s="3">
-        <v>800900</v>
+        <v>800500</v>
       </c>
       <c r="I17" s="3">
-        <v>763800</v>
+        <v>763400</v>
       </c>
       <c r="J17" s="3">
-        <v>743000</v>
+        <v>742600</v>
       </c>
       <c r="K17" s="3">
         <v>668200</v>
@@ -1104,13 +1104,13 @@
         <v>65700</v>
       </c>
       <c r="G18" s="3">
-        <v>37300</v>
+        <v>37200</v>
       </c>
       <c r="H18" s="3">
         <v>28700</v>
       </c>
       <c r="I18" s="3">
-        <v>49100</v>
+        <v>49000</v>
       </c>
       <c r="J18" s="3">
         <v>42800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35800</v>
+        <v>35700</v>
       </c>
       <c r="E21" s="3">
-        <v>54900</v>
+        <v>54800</v>
       </c>
       <c r="F21" s="3">
-        <v>93300</v>
+        <v>93100</v>
       </c>
       <c r="G21" s="3">
-        <v>67000</v>
+        <v>66900</v>
       </c>
       <c r="H21" s="3">
-        <v>55800</v>
+        <v>55700</v>
       </c>
       <c r="I21" s="3">
-        <v>75700</v>
+        <v>75500</v>
       </c>
       <c r="J21" s="3">
-        <v>72900</v>
+        <v>72700</v>
       </c>
       <c r="K21" s="3">
         <v>71700</v>
@@ -1287,7 +1287,7 @@
         <v>10400</v>
       </c>
       <c r="F23" s="3">
-        <v>43500</v>
+        <v>43400</v>
       </c>
       <c r="G23" s="3">
         <v>16300</v>
@@ -1299,7 +1299,7 @@
         <v>31500</v>
       </c>
       <c r="J23" s="3">
-        <v>28800</v>
+        <v>28700</v>
       </c>
       <c r="K23" s="3">
         <v>28200</v>
@@ -1533,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>54900</v>
+        <v>54800</v>
       </c>
       <c r="E29" s="3">
         <v>3000</v>
@@ -1719,7 +1719,7 @@
         <v>1600</v>
       </c>
       <c r="J33" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="K33" s="3">
         <v>174300</v>
@@ -1803,7 +1803,7 @@
         <v>1600</v>
       </c>
       <c r="J35" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="K35" s="3">
         <v>174300</v>
@@ -1910,16 +1910,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>123900</v>
+        <v>123800</v>
       </c>
       <c r="E41" s="3">
         <v>77500</v>
       </c>
       <c r="F41" s="3">
-        <v>133300</v>
+        <v>133200</v>
       </c>
       <c r="G41" s="3">
-        <v>70000</v>
+        <v>69900</v>
       </c>
       <c r="H41" s="3">
         <v>48800</v>
@@ -1994,13 +1994,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47500</v>
+        <v>47400</v>
       </c>
       <c r="E43" s="3">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="F43" s="3">
-        <v>54400</v>
+        <v>54300</v>
       </c>
       <c r="G43" s="3">
         <v>49100</v>
@@ -2012,7 +2012,7 @@
         <v>36800</v>
       </c>
       <c r="J43" s="3">
-        <v>41000</v>
+        <v>40900</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
@@ -2084,7 +2084,7 @@
         <v>27200</v>
       </c>
       <c r="F45" s="3">
-        <v>31700</v>
+        <v>31600</v>
       </c>
       <c r="G45" s="3">
         <v>17100</v>
@@ -2096,7 +2096,7 @@
         <v>17000</v>
       </c>
       <c r="J45" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="K45" s="3">
         <v>41300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>191100</v>
+        <v>191000</v>
       </c>
       <c r="E46" s="3">
-        <v>166600</v>
+        <v>166500</v>
       </c>
       <c r="F46" s="3">
-        <v>219300</v>
+        <v>219200</v>
       </c>
       <c r="G46" s="3">
         <v>136200</v>
       </c>
       <c r="H46" s="3">
-        <v>116700</v>
+        <v>116600</v>
       </c>
       <c r="I46" s="3">
-        <v>148700</v>
+        <v>148600</v>
       </c>
       <c r="J46" s="3">
-        <v>136600</v>
+        <v>136500</v>
       </c>
       <c r="K46" s="3">
         <v>158700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>287900</v>
+        <v>287800</v>
       </c>
       <c r="E48" s="3">
-        <v>396700</v>
+        <v>396500</v>
       </c>
       <c r="F48" s="3">
-        <v>389600</v>
+        <v>389400</v>
       </c>
       <c r="G48" s="3">
-        <v>393000</v>
+        <v>392800</v>
       </c>
       <c r="H48" s="3">
-        <v>381400</v>
+        <v>381200</v>
       </c>
       <c r="I48" s="3">
-        <v>355500</v>
+        <v>355300</v>
       </c>
       <c r="J48" s="3">
-        <v>344800</v>
+        <v>344600</v>
       </c>
       <c r="K48" s="3">
         <v>320000</v>
@@ -2255,7 +2255,7 @@
         <v>65300</v>
       </c>
       <c r="G49" s="3">
-        <v>66600</v>
+        <v>66500</v>
       </c>
       <c r="H49" s="3">
         <v>70500</v>
@@ -2375,7 +2375,7 @@
         <v>28000</v>
       </c>
       <c r="E52" s="3">
-        <v>35100</v>
+        <v>35000</v>
       </c>
       <c r="F52" s="3">
         <v>39200</v>
@@ -2384,13 +2384,13 @@
         <v>62600</v>
       </c>
       <c r="H52" s="3">
-        <v>95400</v>
+        <v>95300</v>
       </c>
       <c r="I52" s="3">
-        <v>116800</v>
+        <v>116700</v>
       </c>
       <c r="J52" s="3">
-        <v>184500</v>
+        <v>184400</v>
       </c>
       <c r="K52" s="3">
         <v>220000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>578900</v>
+        <v>578600</v>
       </c>
       <c r="E54" s="3">
-        <v>666900</v>
+        <v>666600</v>
       </c>
       <c r="F54" s="3">
-        <v>713400</v>
+        <v>713100</v>
       </c>
       <c r="G54" s="3">
-        <v>658400</v>
+        <v>658000</v>
       </c>
       <c r="H54" s="3">
-        <v>663900</v>
+        <v>663600</v>
       </c>
       <c r="I54" s="3">
-        <v>692100</v>
+        <v>691700</v>
       </c>
       <c r="J54" s="3">
-        <v>732300</v>
+        <v>731900</v>
       </c>
       <c r="K54" s="3">
         <v>771100</v>
@@ -2534,13 +2534,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185300</v>
+        <v>185200</v>
       </c>
       <c r="E57" s="3">
-        <v>143000</v>
+        <v>142900</v>
       </c>
       <c r="F57" s="3">
-        <v>138600</v>
+        <v>138500</v>
       </c>
       <c r="G57" s="3">
         <v>101400</v>
@@ -2576,7 +2576,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
         <v>54500</v>
@@ -2585,7 +2585,7 @@
         <v>52900</v>
       </c>
       <c r="G58" s="3">
-        <v>99100</v>
+        <v>99000</v>
       </c>
       <c r="H58" s="3">
         <v>55300</v>
@@ -2660,22 +2660,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>203700</v>
+        <v>203600</v>
       </c>
       <c r="E60" s="3">
-        <v>208800</v>
+        <v>208700</v>
       </c>
       <c r="F60" s="3">
-        <v>207100</v>
+        <v>206900</v>
       </c>
       <c r="G60" s="3">
-        <v>204300</v>
+        <v>204200</v>
       </c>
       <c r="H60" s="3">
-        <v>168100</v>
+        <v>168000</v>
       </c>
       <c r="I60" s="3">
-        <v>160400</v>
+        <v>160300</v>
       </c>
       <c r="J60" s="3">
         <v>154400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>270200</v>
+        <v>270000</v>
       </c>
       <c r="E61" s="3">
-        <v>343200</v>
+        <v>343000</v>
       </c>
       <c r="F61" s="3">
-        <v>365300</v>
+        <v>365200</v>
       </c>
       <c r="G61" s="3">
-        <v>313000</v>
+        <v>312800</v>
       </c>
       <c r="H61" s="3">
-        <v>336600</v>
+        <v>336400</v>
       </c>
       <c r="I61" s="3">
-        <v>352900</v>
+        <v>352700</v>
       </c>
       <c r="J61" s="3">
-        <v>332400</v>
+        <v>332200</v>
       </c>
       <c r="K61" s="3">
         <v>321900</v>
@@ -2759,10 +2759,10 @@
         <v>65900</v>
       </c>
       <c r="I62" s="3">
-        <v>83300</v>
+        <v>83200</v>
       </c>
       <c r="J62" s="3">
-        <v>116000</v>
+        <v>115900</v>
       </c>
       <c r="K62" s="3">
         <v>156300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>504400</v>
+        <v>504100</v>
       </c>
       <c r="E66" s="3">
-        <v>591400</v>
+        <v>591100</v>
       </c>
       <c r="F66" s="3">
-        <v>618500</v>
+        <v>618200</v>
       </c>
       <c r="G66" s="3">
-        <v>572900</v>
+        <v>572600</v>
       </c>
       <c r="H66" s="3">
-        <v>570600</v>
+        <v>570300</v>
       </c>
       <c r="I66" s="3">
-        <v>596500</v>
+        <v>596200</v>
       </c>
       <c r="J66" s="3">
-        <v>602900</v>
+        <v>602500</v>
       </c>
       <c r="K66" s="3">
         <v>641800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-284900</v>
+        <v>-284800</v>
       </c>
       <c r="E72" s="3">
-        <v>-298100</v>
+        <v>-298000</v>
       </c>
       <c r="F72" s="3">
-        <v>-274800</v>
+        <v>-274600</v>
       </c>
       <c r="G72" s="3">
-        <v>-283100</v>
+        <v>-283000</v>
       </c>
       <c r="H72" s="3">
-        <v>-272700</v>
+        <v>-272600</v>
       </c>
       <c r="I72" s="3">
-        <v>-270400</v>
+        <v>-270300</v>
       </c>
       <c r="J72" s="3">
-        <v>-238500</v>
+        <v>-238400</v>
       </c>
       <c r="K72" s="3">
         <v>-236600</v>
@@ -3314,10 +3314,10 @@
         <v>75500</v>
       </c>
       <c r="F76" s="3">
-        <v>95000</v>
+        <v>94900</v>
       </c>
       <c r="G76" s="3">
-        <v>85500</v>
+        <v>85400</v>
       </c>
       <c r="H76" s="3">
         <v>93300</v>
@@ -3326,7 +3326,7 @@
         <v>95500</v>
       </c>
       <c r="J76" s="3">
-        <v>129500</v>
+        <v>129400</v>
       </c>
       <c r="K76" s="3">
         <v>129200</v>
@@ -3457,7 +3457,7 @@
         <v>1600</v>
       </c>
       <c r="J81" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="K81" s="3">
         <v>174300</v>
@@ -3811,7 +3811,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75300</v>
+        <v>-75200</v>
       </c>
       <c r="E91" s="3">
         <v>-51500</v>
@@ -3937,7 +3937,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>115300</v>
+        <v>115200</v>
       </c>
       <c r="E94" s="3">
         <v>-47200</v>
@@ -4003,7 +4003,7 @@
         <v>-31800</v>
       </c>
       <c r="F96" s="3">
-        <v>-30600</v>
+        <v>-30500</v>
       </c>
       <c r="G96" s="3">
         <v>-27600</v>
@@ -4015,7 +4015,7 @@
         <v>-27800</v>
       </c>
       <c r="J96" s="3">
-        <v>-26800</v>
+        <v>-26700</v>
       </c>
       <c r="K96" s="3">
         <v>-26700</v>
@@ -4165,7 +4165,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-142100</v>
+        <v>-142000</v>
       </c>
       <c r="E100" s="3">
         <v>-55400</v>
@@ -4258,7 +4258,7 @@
         <v>63300</v>
       </c>
       <c r="G102" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="H102" s="3">
         <v>-46100</v>

--- a/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EXETF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>904400</v>
+        <v>888100</v>
       </c>
       <c r="E8" s="3">
-        <v>864000</v>
+        <v>848400</v>
       </c>
       <c r="F8" s="3">
-        <v>817000</v>
+        <v>802300</v>
       </c>
       <c r="G8" s="3">
-        <v>838100</v>
+        <v>822900</v>
       </c>
       <c r="H8" s="3">
-        <v>829200</v>
+        <v>814300</v>
       </c>
       <c r="I8" s="3">
-        <v>812400</v>
+        <v>797800</v>
       </c>
       <c r="J8" s="3">
-        <v>785300</v>
+        <v>771200</v>
       </c>
       <c r="K8" s="3">
         <v>708300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>824100</v>
+        <v>809200</v>
       </c>
       <c r="E9" s="3">
-        <v>765500</v>
+        <v>751700</v>
       </c>
       <c r="F9" s="3">
-        <v>683000</v>
+        <v>670700</v>
       </c>
       <c r="G9" s="3">
-        <v>739200</v>
+        <v>725900</v>
       </c>
       <c r="H9" s="3">
-        <v>730000</v>
+        <v>716800</v>
       </c>
       <c r="I9" s="3">
-        <v>711900</v>
+        <v>699000</v>
       </c>
       <c r="J9" s="3">
-        <v>693900</v>
+        <v>681400</v>
       </c>
       <c r="K9" s="3">
         <v>622800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>80400</v>
+        <v>78900</v>
       </c>
       <c r="E10" s="3">
-        <v>98400</v>
+        <v>96700</v>
       </c>
       <c r="F10" s="3">
-        <v>134000</v>
+        <v>131600</v>
       </c>
       <c r="G10" s="3">
-        <v>98800</v>
+        <v>97000</v>
       </c>
       <c r="H10" s="3">
-        <v>99200</v>
+        <v>97400</v>
       </c>
       <c r="I10" s="3">
-        <v>100600</v>
+        <v>98700</v>
       </c>
       <c r="J10" s="3">
-        <v>91400</v>
+        <v>89800</v>
       </c>
       <c r="K10" s="3">
         <v>85500</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="E14" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K14" s="3">
         <v>5000</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>23400</v>
+        <v>22900</v>
       </c>
       <c r="E15" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>55900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>57600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I15" s="3">
         <v>22800</v>
       </c>
-      <c r="F15" s="3">
-        <v>56900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>58600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>26100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>23200</v>
-      </c>
       <c r="J15" s="3">
-        <v>23100</v>
+        <v>22700</v>
       </c>
       <c r="K15" s="3">
         <v>17800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>895600</v>
+        <v>879400</v>
       </c>
       <c r="E17" s="3">
-        <v>838300</v>
+        <v>823200</v>
       </c>
       <c r="F17" s="3">
-        <v>751300</v>
+        <v>737800</v>
       </c>
       <c r="G17" s="3">
-        <v>800800</v>
+        <v>786400</v>
       </c>
       <c r="H17" s="3">
-        <v>800500</v>
+        <v>786100</v>
       </c>
       <c r="I17" s="3">
-        <v>763400</v>
+        <v>749600</v>
       </c>
       <c r="J17" s="3">
-        <v>742600</v>
+        <v>729200</v>
       </c>
       <c r="K17" s="3">
         <v>668200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E18" s="3">
-        <v>25700</v>
+        <v>25300</v>
       </c>
       <c r="F18" s="3">
-        <v>65700</v>
+        <v>64500</v>
       </c>
       <c r="G18" s="3">
-        <v>37200</v>
+        <v>36600</v>
       </c>
       <c r="H18" s="3">
-        <v>28700</v>
+        <v>28200</v>
       </c>
       <c r="I18" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="J18" s="3">
-        <v>42800</v>
+        <v>42000</v>
       </c>
       <c r="K18" s="3">
         <v>40000</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1170,10 +1170,10 @@
         <v>800</v>
       </c>
       <c r="I20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K20" s="3">
         <v>11500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="E21" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>91600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>65800</v>
+      </c>
+      <c r="H21" s="3">
         <v>54800</v>
       </c>
-      <c r="F21" s="3">
-        <v>93100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>66900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>55700</v>
-      </c>
       <c r="I21" s="3">
-        <v>75500</v>
+        <v>74300</v>
       </c>
       <c r="J21" s="3">
-        <v>72700</v>
+        <v>71500</v>
       </c>
       <c r="K21" s="3">
         <v>71700</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="F22" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="G22" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="H22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I22" s="3">
         <v>20400</v>
       </c>
-      <c r="I22" s="3">
-        <v>20800</v>
-      </c>
       <c r="J22" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="K22" s="3">
         <v>23300</v>
@@ -1284,22 +1284,22 @@
         <v>-3300</v>
       </c>
       <c r="E23" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="F23" s="3">
-        <v>43400</v>
+        <v>42700</v>
       </c>
       <c r="G23" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="H23" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I23" s="3">
-        <v>31500</v>
+        <v>30900</v>
       </c>
       <c r="J23" s="3">
-        <v>28700</v>
+        <v>28200</v>
       </c>
       <c r="K23" s="3">
         <v>28200</v>
@@ -1326,22 +1326,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="G24" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="3">
         <v>3100</v>
       </c>
       <c r="I24" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J24" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K24" s="3">
         <v>10400</v>
@@ -1410,22 +1410,22 @@
         <v>-3300</v>
       </c>
       <c r="E26" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="3">
-        <v>31400</v>
+        <v>30900</v>
       </c>
       <c r="G26" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="H26" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I26" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="J26" s="3">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="K26" s="3">
         <v>17800</v>
@@ -1452,22 +1452,22 @@
         <v>-3300</v>
       </c>
       <c r="E27" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F27" s="3">
-        <v>31400</v>
+        <v>30900</v>
       </c>
       <c r="G27" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="H27" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I27" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="J27" s="3">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="K27" s="3">
         <v>17800</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="E29" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F29" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="G29" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="H29" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="I29" s="3">
-        <v>-21900</v>
+        <v>-21500</v>
       </c>
       <c r="J29" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K29" s="3">
         <v>156500</v>
@@ -1659,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -1674,10 +1674,10 @@
         <v>-800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="K32" s="3">
         <v>-11500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51500</v>
+        <v>50600</v>
       </c>
       <c r="E33" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="F33" s="3">
-        <v>40100</v>
+        <v>39400</v>
       </c>
       <c r="G33" s="3">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="H33" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="I33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J33" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="K33" s="3">
         <v>174300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51500</v>
+        <v>50600</v>
       </c>
       <c r="E35" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="F35" s="3">
-        <v>40100</v>
+        <v>39400</v>
       </c>
       <c r="G35" s="3">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="H35" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="I35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J35" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="K35" s="3">
         <v>174300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>123800</v>
+        <v>121600</v>
       </c>
       <c r="E41" s="3">
-        <v>77500</v>
+        <v>76100</v>
       </c>
       <c r="F41" s="3">
-        <v>133200</v>
+        <v>130800</v>
       </c>
       <c r="G41" s="3">
-        <v>69900</v>
+        <v>68700</v>
       </c>
       <c r="H41" s="3">
-        <v>48800</v>
+        <v>47900</v>
       </c>
       <c r="I41" s="3">
-        <v>94900</v>
+        <v>93200</v>
       </c>
       <c r="J41" s="3">
-        <v>75200</v>
+        <v>73900</v>
       </c>
       <c r="K41" s="3">
         <v>77800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47400</v>
+        <v>46600</v>
       </c>
       <c r="E43" s="3">
-        <v>61800</v>
+        <v>60700</v>
       </c>
       <c r="F43" s="3">
-        <v>54300</v>
+        <v>53400</v>
       </c>
       <c r="G43" s="3">
-        <v>49100</v>
+        <v>48200</v>
       </c>
       <c r="H43" s="3">
-        <v>50300</v>
+        <v>49400</v>
       </c>
       <c r="I43" s="3">
-        <v>36800</v>
+        <v>36100</v>
       </c>
       <c r="J43" s="3">
-        <v>40900</v>
+        <v>40200</v>
       </c>
       <c r="K43" s="3">
         <v>39600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19800</v>
+        <v>19400</v>
       </c>
       <c r="E45" s="3">
-        <v>27200</v>
+        <v>26700</v>
       </c>
       <c r="F45" s="3">
-        <v>31600</v>
+        <v>31100</v>
       </c>
       <c r="G45" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="H45" s="3">
-        <v>17600</v>
+        <v>17300</v>
       </c>
       <c r="I45" s="3">
-        <v>17000</v>
+        <v>16700</v>
       </c>
       <c r="J45" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="K45" s="3">
         <v>41300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>191000</v>
+        <v>187600</v>
       </c>
       <c r="E46" s="3">
-        <v>166500</v>
+        <v>163500</v>
       </c>
       <c r="F46" s="3">
-        <v>219200</v>
+        <v>215300</v>
       </c>
       <c r="G46" s="3">
-        <v>136200</v>
+        <v>133700</v>
       </c>
       <c r="H46" s="3">
-        <v>116600</v>
+        <v>114500</v>
       </c>
       <c r="I46" s="3">
-        <v>148600</v>
+        <v>146000</v>
       </c>
       <c r="J46" s="3">
-        <v>136500</v>
+        <v>134000</v>
       </c>
       <c r="K46" s="3">
         <v>158700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>287800</v>
+        <v>282600</v>
       </c>
       <c r="E48" s="3">
-        <v>396500</v>
+        <v>389400</v>
       </c>
       <c r="F48" s="3">
-        <v>389400</v>
+        <v>382300</v>
       </c>
       <c r="G48" s="3">
-        <v>392800</v>
+        <v>385700</v>
       </c>
       <c r="H48" s="3">
-        <v>381200</v>
+        <v>374300</v>
       </c>
       <c r="I48" s="3">
-        <v>355300</v>
+        <v>348900</v>
       </c>
       <c r="J48" s="3">
-        <v>344600</v>
+        <v>338400</v>
       </c>
       <c r="K48" s="3">
         <v>320000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71900</v>
+        <v>70600</v>
       </c>
       <c r="E49" s="3">
-        <v>68500</v>
+        <v>67200</v>
       </c>
       <c r="F49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="G49" s="3">
         <v>65300</v>
       </c>
-      <c r="G49" s="3">
-        <v>66500</v>
-      </c>
       <c r="H49" s="3">
-        <v>70500</v>
+        <v>69200</v>
       </c>
       <c r="I49" s="3">
-        <v>71000</v>
+        <v>69700</v>
       </c>
       <c r="J49" s="3">
-        <v>66500</v>
+        <v>65300</v>
       </c>
       <c r="K49" s="3">
         <v>72300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="E52" s="3">
-        <v>35000</v>
+        <v>34400</v>
       </c>
       <c r="F52" s="3">
-        <v>39200</v>
+        <v>38500</v>
       </c>
       <c r="G52" s="3">
-        <v>62600</v>
+        <v>61400</v>
       </c>
       <c r="H52" s="3">
-        <v>95300</v>
+        <v>93600</v>
       </c>
       <c r="I52" s="3">
-        <v>116700</v>
+        <v>114600</v>
       </c>
       <c r="J52" s="3">
-        <v>184400</v>
+        <v>181100</v>
       </c>
       <c r="K52" s="3">
         <v>220000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>578600</v>
+        <v>568200</v>
       </c>
       <c r="E54" s="3">
-        <v>666600</v>
+        <v>654500</v>
       </c>
       <c r="F54" s="3">
-        <v>713100</v>
+        <v>700200</v>
       </c>
       <c r="G54" s="3">
-        <v>658000</v>
+        <v>646200</v>
       </c>
       <c r="H54" s="3">
-        <v>663600</v>
+        <v>651600</v>
       </c>
       <c r="I54" s="3">
-        <v>691700</v>
+        <v>679200</v>
       </c>
       <c r="J54" s="3">
-        <v>731900</v>
+        <v>718700</v>
       </c>
       <c r="K54" s="3">
         <v>771100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185200</v>
+        <v>181900</v>
       </c>
       <c r="E57" s="3">
-        <v>142900</v>
+        <v>140300</v>
       </c>
       <c r="F57" s="3">
-        <v>138500</v>
+        <v>136000</v>
       </c>
       <c r="G57" s="3">
-        <v>101400</v>
+        <v>99500</v>
       </c>
       <c r="H57" s="3">
-        <v>99000</v>
+        <v>97200</v>
       </c>
       <c r="I57" s="3">
-        <v>91400</v>
+        <v>89700</v>
       </c>
       <c r="J57" s="3">
-        <v>90200</v>
+        <v>88600</v>
       </c>
       <c r="K57" s="3">
         <v>105000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>54500</v>
+        <v>53500</v>
       </c>
       <c r="F58" s="3">
-        <v>52900</v>
+        <v>51900</v>
       </c>
       <c r="G58" s="3">
-        <v>99000</v>
+        <v>97300</v>
       </c>
       <c r="H58" s="3">
-        <v>55300</v>
+        <v>54300</v>
       </c>
       <c r="I58" s="3">
-        <v>44200</v>
+        <v>43400</v>
       </c>
       <c r="J58" s="3">
-        <v>40600</v>
+        <v>39900</v>
       </c>
       <c r="K58" s="3">
         <v>19100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E59" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="F59" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="G59" s="3">
         <v>3800</v>
       </c>
       <c r="H59" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="I59" s="3">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="J59" s="3">
-        <v>23600</v>
+        <v>23200</v>
       </c>
       <c r="K59" s="3">
         <v>39700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>203600</v>
+        <v>199900</v>
       </c>
       <c r="E60" s="3">
-        <v>208700</v>
+        <v>205000</v>
       </c>
       <c r="F60" s="3">
-        <v>206900</v>
+        <v>203200</v>
       </c>
       <c r="G60" s="3">
-        <v>204200</v>
+        <v>200600</v>
       </c>
       <c r="H60" s="3">
-        <v>168000</v>
+        <v>165000</v>
       </c>
       <c r="I60" s="3">
-        <v>160300</v>
+        <v>157400</v>
       </c>
       <c r="J60" s="3">
-        <v>154400</v>
+        <v>151600</v>
       </c>
       <c r="K60" s="3">
         <v>163700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>270000</v>
+        <v>265200</v>
       </c>
       <c r="E61" s="3">
-        <v>343000</v>
+        <v>336800</v>
       </c>
       <c r="F61" s="3">
-        <v>365200</v>
+        <v>358600</v>
       </c>
       <c r="G61" s="3">
-        <v>312800</v>
+        <v>307200</v>
       </c>
       <c r="H61" s="3">
-        <v>336400</v>
+        <v>330300</v>
       </c>
       <c r="I61" s="3">
-        <v>352700</v>
+        <v>346400</v>
       </c>
       <c r="J61" s="3">
-        <v>332200</v>
+        <v>326200</v>
       </c>
       <c r="K61" s="3">
         <v>321900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30500</v>
+        <v>29900</v>
       </c>
       <c r="E62" s="3">
-        <v>39400</v>
+        <v>38700</v>
       </c>
       <c r="F62" s="3">
-        <v>46100</v>
+        <v>45200</v>
       </c>
       <c r="G62" s="3">
-        <v>55500</v>
+        <v>54500</v>
       </c>
       <c r="H62" s="3">
-        <v>65900</v>
+        <v>64700</v>
       </c>
       <c r="I62" s="3">
-        <v>83200</v>
+        <v>81700</v>
       </c>
       <c r="J62" s="3">
-        <v>115900</v>
+        <v>113900</v>
       </c>
       <c r="K62" s="3">
         <v>156300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>504100</v>
+        <v>495000</v>
       </c>
       <c r="E66" s="3">
-        <v>591100</v>
+        <v>580400</v>
       </c>
       <c r="F66" s="3">
-        <v>618200</v>
+        <v>607000</v>
       </c>
       <c r="G66" s="3">
-        <v>572600</v>
+        <v>562300</v>
       </c>
       <c r="H66" s="3">
-        <v>570300</v>
+        <v>560000</v>
       </c>
       <c r="I66" s="3">
-        <v>596200</v>
+        <v>585500</v>
       </c>
       <c r="J66" s="3">
-        <v>602500</v>
+        <v>591700</v>
       </c>
       <c r="K66" s="3">
         <v>641800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-284800</v>
+        <v>-279600</v>
       </c>
       <c r="E72" s="3">
-        <v>-298000</v>
+        <v>-292600</v>
       </c>
       <c r="F72" s="3">
-        <v>-274600</v>
+        <v>-269700</v>
       </c>
       <c r="G72" s="3">
-        <v>-283000</v>
+        <v>-277900</v>
       </c>
       <c r="H72" s="3">
-        <v>-272600</v>
+        <v>-267600</v>
       </c>
       <c r="I72" s="3">
-        <v>-270300</v>
+        <v>-265400</v>
       </c>
       <c r="J72" s="3">
-        <v>-238400</v>
+        <v>-234100</v>
       </c>
       <c r="K72" s="3">
         <v>-236600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74600</v>
+        <v>73200</v>
       </c>
       <c r="E76" s="3">
-        <v>75500</v>
+        <v>74100</v>
       </c>
       <c r="F76" s="3">
-        <v>94900</v>
+        <v>93200</v>
       </c>
       <c r="G76" s="3">
-        <v>85400</v>
+        <v>83900</v>
       </c>
       <c r="H76" s="3">
-        <v>93300</v>
+        <v>91600</v>
       </c>
       <c r="I76" s="3">
-        <v>95500</v>
+        <v>93800</v>
       </c>
       <c r="J76" s="3">
-        <v>129400</v>
+        <v>127100</v>
       </c>
       <c r="K76" s="3">
         <v>129200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51500</v>
+        <v>50600</v>
       </c>
       <c r="E81" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="F81" s="3">
-        <v>40100</v>
+        <v>39400</v>
       </c>
       <c r="G81" s="3">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="H81" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="I81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J81" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="K81" s="3">
         <v>174300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23800</v>
+        <v>23400</v>
       </c>
       <c r="E83" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="F83" s="3">
-        <v>28700</v>
+        <v>28200</v>
       </c>
       <c r="G83" s="3">
-        <v>29300</v>
+        <v>28800</v>
       </c>
       <c r="H83" s="3">
-        <v>26100</v>
+        <v>25600</v>
       </c>
       <c r="I83" s="3">
-        <v>23200</v>
+        <v>22800</v>
       </c>
       <c r="J83" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="K83" s="3">
         <v>20500</v>
@@ -3751,22 +3751,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73100</v>
+        <v>71800</v>
       </c>
       <c r="E89" s="3">
-        <v>47000</v>
+        <v>46100</v>
       </c>
       <c r="F89" s="3">
-        <v>89800</v>
+        <v>88200</v>
       </c>
       <c r="G89" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="H89" s="3">
-        <v>29200</v>
+        <v>28700</v>
       </c>
       <c r="I89" s="3">
-        <v>34900</v>
+        <v>34300</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75200</v>
+        <v>-73900</v>
       </c>
       <c r="E91" s="3">
-        <v>-51500</v>
+        <v>-50500</v>
       </c>
       <c r="F91" s="3">
-        <v>-24500</v>
+        <v>-24100</v>
       </c>
       <c r="G91" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="H91" s="3">
-        <v>-37500</v>
+        <v>-36800</v>
       </c>
       <c r="I91" s="3">
-        <v>-30500</v>
+        <v>-29900</v>
       </c>
       <c r="J91" s="3">
-        <v>-28800</v>
+        <v>-28200</v>
       </c>
       <c r="K91" s="3">
         <v>-26600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>115200</v>
+        <v>113200</v>
       </c>
       <c r="E94" s="3">
-        <v>-47200</v>
+        <v>-46300</v>
       </c>
       <c r="F94" s="3">
         <v>1500</v>
       </c>
       <c r="G94" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="H94" s="3">
-        <v>-40800</v>
+        <v>-40000</v>
       </c>
       <c r="I94" s="3">
         <v>4100</v>
       </c>
       <c r="J94" s="3">
-        <v>-12900</v>
+        <v>-12700</v>
       </c>
       <c r="K94" s="3">
         <v>-44800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31500</v>
+        <v>-30900</v>
       </c>
       <c r="E96" s="3">
-        <v>-31800</v>
+        <v>-31300</v>
       </c>
       <c r="F96" s="3">
-        <v>-30500</v>
+        <v>-30000</v>
       </c>
       <c r="G96" s="3">
-        <v>-27600</v>
+        <v>-27100</v>
       </c>
       <c r="H96" s="3">
-        <v>-27700</v>
+        <v>-27200</v>
       </c>
       <c r="I96" s="3">
-        <v>-27800</v>
+        <v>-27300</v>
       </c>
       <c r="J96" s="3">
-        <v>-26700</v>
+        <v>-26300</v>
       </c>
       <c r="K96" s="3">
         <v>-26700</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-142000</v>
+        <v>-139500</v>
       </c>
       <c r="E100" s="3">
-        <v>-55400</v>
+        <v>-54400</v>
       </c>
       <c r="F100" s="3">
-        <v>-28300</v>
+        <v>-27700</v>
       </c>
       <c r="G100" s="3">
-        <v>-21200</v>
+        <v>-20800</v>
       </c>
       <c r="H100" s="3">
-        <v>-36100</v>
+        <v>-35500</v>
       </c>
       <c r="I100" s="3">
-        <v>-17500</v>
+        <v>-17200</v>
       </c>
       <c r="J100" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="K100" s="3">
         <v>5500</v>
@@ -4249,22 +4249,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46400</v>
+        <v>45600</v>
       </c>
       <c r="E102" s="3">
-        <v>-55800</v>
+        <v>-54800</v>
       </c>
       <c r="F102" s="3">
-        <v>63300</v>
+        <v>62200</v>
       </c>
       <c r="G102" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="H102" s="3">
-        <v>-46100</v>
+        <v>-45300</v>
       </c>
       <c r="I102" s="3">
-        <v>19700</v>
+        <v>19300</v>
       </c>
       <c r="J102" s="3">
         <v>-1500</v>
